--- a/Data Files/Input Validation/03. instAmount/Auto_InstAmount_C10.xlsx
+++ b/Data Files/Input Validation/03. instAmount/Auto_InstAmount_C10.xlsx
@@ -160,7 +160,7 @@
     <t xml:space="preserve">IJH-B97-41</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-08-16</t>
+    <t xml:space="preserve">2023-09-01</t>
   </si>
   <si>
     <t xml:space="preserve">0</t>
@@ -362,7 +362,7 @@
   <dimension ref="A1:XFD996"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.66796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Data Files/Input Validation/03. instAmount/Auto_InstAmount_C10.xlsx
+++ b/Data Files/Input Validation/03. instAmount/Auto_InstAmount_C10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E325416-527B-425D-98A0-3D6D127B0F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4B022C-AB8B-45DA-B6A4-7773D2EF9821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -162,9 +162,6 @@
     <t>formType</t>
   </si>
   <si>
-    <t>IJH-B97-41</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -234,7 +231,10 @@
     <t>AS9</t>
   </si>
   <si>
-    <t>2023-09-16</t>
+    <t>6kad41as-d5ah</t>
+  </si>
+  <si>
+    <t>2023-10-01</t>
   </si>
 </sst>
 </file>
@@ -602,7 +602,7 @@
   <dimension ref="A1:XFD996"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -799,71 +799,71 @@
     </row>
     <row r="2" spans="1:50 16383:16384" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="V2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="T2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
@@ -871,42 +871,42 @@
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AI2" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="AJ2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AM2" s="2"/>
       <c r="AN2" s="2"/>
       <c r="AO2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AP2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ2" s="2" t="s">
+      <c r="AS2" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="AR2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AS2" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="AT2" s="2"/>
       <c r="AU2" s="2"/>

--- a/Data Files/Input Validation/03. instAmount/Auto_InstAmount_C10.xlsx
+++ b/Data Files/Input Validation/03. instAmount/Auto_InstAmount_C10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4B022C-AB8B-45DA-B6A4-7773D2EF9821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C33764-39BD-422F-AD7F-36EED3143BBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -234,7 +234,7 @@
     <t>6kad41as-d5ah</t>
   </si>
   <si>
-    <t>2023-10-01</t>
+    <t>2023-10-16</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Input Validation/03. instAmount/Auto_InstAmount_C10.xlsx
+++ b/Data Files/Input Validation/03. instAmount/Auto_InstAmount_C10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C33764-39BD-422F-AD7F-36EED3143BBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4F0FB6-0B6B-49B9-B848-CF2EE4A52DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2376" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="71">
   <si>
     <t>contractNo</t>
   </si>
@@ -235,6 +235,9 @@
   </si>
   <si>
     <t>2023-10-16</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -602,7 +605,7 @@
   <dimension ref="A1:XFD996"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="AO2" sqref="AO2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -894,7 +897,7 @@
       <c r="AM2" s="2"/>
       <c r="AN2" s="2"/>
       <c r="AO2" s="3" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="AP2" s="2" t="s">
         <v>51</v>

--- a/Data Files/Input Validation/03. instAmount/Auto_InstAmount_C10.xlsx
+++ b/Data Files/Input Validation/03. instAmount/Auto_InstAmount_C10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4F0FB6-0B6B-49B9-B848-CF2EE4A52DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF2A2F6-2C75-451D-AD60-0ABED4316D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2376" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1464" yWindow="1464" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -234,10 +234,10 @@
     <t>6kad41as-d5ah</t>
   </si>
   <si>
-    <t>2023-10-16</t>
+    <t/>
   </si>
   <si>
-    <t/>
+    <t>2023-11-01</t>
   </si>
 </sst>
 </file>
@@ -805,7 +805,7 @@
         <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>45</v>
@@ -897,7 +897,7 @@
       <c r="AM2" s="2"/>
       <c r="AN2" s="2"/>
       <c r="AO2" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AP2" s="2" t="s">
         <v>51</v>

--- a/Data Files/Input Validation/03. instAmount/Auto_InstAmount_C10.xlsx
+++ b/Data Files/Input Validation/03. instAmount/Auto_InstAmount_C10.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF2A2F6-2C75-451D-AD60-0ABED4316D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F8B269-9A74-4007-8AA6-5678952766DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1464" yWindow="1464" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2835" yWindow="2010" windowWidth="11925" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -237,7 +237,7 @@
     <t/>
   </si>
   <si>
-    <t>2023-11-01</t>
+    <t>2023-11-16</t>
   </si>
 </sst>
 </file>
@@ -608,57 +608,56 @@
       <selection activeCell="AO2" sqref="AO2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.21875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" style="1" customWidth="1"/>
     <col min="10" max="10" width="11" style="1" customWidth="1"/>
-    <col min="11" max="12" width="10.44140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="14.109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.77734375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="18.6640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="19.109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="14.44140625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="20.6640625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="20.44140625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="20.109375" style="1" customWidth="1"/>
+    <col min="11" max="12" width="10.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="19.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="20.7109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="20.42578125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="20.140625" style="1" customWidth="1"/>
     <col min="21" max="21" width="22" style="1" customWidth="1"/>
-    <col min="22" max="22" width="12.109375" style="1" customWidth="1"/>
-    <col min="23" max="23" width="7.44140625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="6.88671875" style="1" customWidth="1"/>
-    <col min="25" max="25" width="11.44140625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="13.88671875" style="1" customWidth="1"/>
-    <col min="27" max="27" width="4.5546875" style="1" customWidth="1"/>
-    <col min="28" max="28" width="8.109375" style="1" customWidth="1"/>
-    <col min="29" max="29" width="12.33203125" style="1" customWidth="1"/>
-    <col min="30" max="30" width="10.6640625" style="1" customWidth="1"/>
-    <col min="31" max="31" width="13.44140625" style="1" customWidth="1"/>
-    <col min="32" max="32" width="14.109375" style="1" customWidth="1"/>
-    <col min="33" max="33" width="11.6640625" style="1" customWidth="1"/>
-    <col min="34" max="34" width="8.6640625" style="1" customWidth="1"/>
-    <col min="35" max="35" width="8.77734375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="12.140625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="7.42578125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="6.85546875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="11.42578125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="13.85546875" style="1" customWidth="1"/>
+    <col min="27" max="27" width="4.5703125" style="1" customWidth="1"/>
+    <col min="28" max="28" width="8.140625" style="1" customWidth="1"/>
+    <col min="29" max="29" width="12.28515625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="10.7109375" style="1" customWidth="1"/>
+    <col min="31" max="31" width="13.42578125" style="1" customWidth="1"/>
+    <col min="32" max="32" width="14.140625" style="1" customWidth="1"/>
+    <col min="33" max="33" width="11.7109375" style="1" customWidth="1"/>
+    <col min="34" max="35" width="8.7109375" style="1" customWidth="1"/>
     <col min="36" max="36" width="9" style="1" customWidth="1"/>
-    <col min="37" max="37" width="42.77734375" style="1" customWidth="1"/>
+    <col min="37" max="37" width="42.7109375" style="1" customWidth="1"/>
     <col min="38" max="38" width="10" style="1" customWidth="1"/>
-    <col min="39" max="39" width="12.77734375" style="1" customWidth="1"/>
-    <col min="40" max="40" width="14.44140625" style="1" customWidth="1"/>
-    <col min="41" max="41" width="11.6640625" style="1" customWidth="1"/>
-    <col min="42" max="42" width="17.21875" style="1" customWidth="1"/>
-    <col min="43" max="43" width="18.44140625" style="1" customWidth="1"/>
-    <col min="44" max="44" width="10.21875" style="1" customWidth="1"/>
-    <col min="45" max="45" width="8.77734375" style="1" customWidth="1"/>
-    <col min="46" max="16380" width="2.6640625" style="1"/>
-    <col min="16383" max="16384" width="2.6640625" style="1"/>
+    <col min="39" max="39" width="12.7109375" style="1" customWidth="1"/>
+    <col min="40" max="40" width="14.42578125" style="1" customWidth="1"/>
+    <col min="41" max="41" width="11.7109375" style="1" customWidth="1"/>
+    <col min="42" max="42" width="17.28515625" style="1" customWidth="1"/>
+    <col min="43" max="43" width="18.42578125" style="1" customWidth="1"/>
+    <col min="44" max="44" width="10.28515625" style="1" customWidth="1"/>
+    <col min="45" max="45" width="8.7109375" style="1" customWidth="1"/>
+    <col min="46" max="16380" width="2.7109375" style="1"/>
+    <col min="16383" max="16384" width="2.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50 16383:16384" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:50 16383:16384" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -800,7 +799,7 @@
       <c r="AW1" s="2"/>
       <c r="AX1" s="2"/>
     </row>
-    <row r="2" spans="1:50 16383:16384" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:50 16383:16384" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>68</v>
       </c>
@@ -917,7 +916,7 @@
       <c r="AW2" s="2"/>
       <c r="AX2" s="2"/>
     </row>
-    <row r="3" spans="1:50 16383:16384" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:50 16383:16384" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -971,7 +970,7 @@
       <c r="XFC3"/>
       <c r="XFD3"/>
     </row>
-    <row r="4" spans="1:50 16383:16384" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:50 16383:16384" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1023,7 +1022,7 @@
       <c r="AW4" s="2"/>
       <c r="AX4" s="2"/>
     </row>
-    <row r="5" spans="1:50 16383:16384" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:50 16383:16384" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1075,7 +1074,7 @@
       <c r="AW5" s="2"/>
       <c r="AX5" s="2"/>
     </row>
-    <row r="6" spans="1:50 16383:16384" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:50 16383:16384" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1127,7 +1126,7 @@
       <c r="AW6" s="2"/>
       <c r="AX6" s="2"/>
     </row>
-    <row r="7" spans="1:50 16383:16384" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:50 16383:16384" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -1177,7 +1176,7 @@
       <c r="AW7" s="2"/>
       <c r="AX7" s="2"/>
     </row>
-    <row r="8" spans="1:50 16383:16384" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:50 16383:16384" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="4"/>
       <c r="C8" s="2"/>
@@ -1228,7 +1227,7 @@
       <c r="AW8" s="2"/>
       <c r="AX8" s="2"/>
     </row>
-    <row r="9" spans="1:50 16383:16384" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:50 16383:16384" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="4"/>
       <c r="C9" s="2"/>
@@ -1279,7 +1278,7 @@
       <c r="AW9" s="2"/>
       <c r="AX9" s="2"/>
     </row>
-    <row r="10" spans="1:50 16383:16384" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:50 16383:16384" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="4"/>
       <c r="C10" s="2"/>
@@ -1330,7 +1329,7 @@
       <c r="AW10" s="2"/>
       <c r="AX10" s="2"/>
     </row>
-    <row r="11" spans="1:50 16383:16384" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:50 16383:16384" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="4"/>
       <c r="C11" s="2"/>
@@ -1381,7 +1380,7 @@
       <c r="AW11" s="2"/>
       <c r="AX11" s="2"/>
     </row>
-    <row r="12" spans="1:50 16383:16384" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:50 16383:16384" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1433,7 +1432,7 @@
       <c r="AW12" s="2"/>
       <c r="AX12" s="2"/>
     </row>
-    <row r="13" spans="1:50 16383:16384" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:50 16383:16384" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1484,7 +1483,7 @@
       <c r="AW13" s="2"/>
       <c r="AX13" s="2"/>
     </row>
-    <row r="14" spans="1:50 16383:16384" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:50 16383:16384" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1536,7 +1535,7 @@
       <c r="AW14" s="2"/>
       <c r="AX14" s="2"/>
     </row>
-    <row r="15" spans="1:50 16383:16384" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:50 16383:16384" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1588,7 +1587,7 @@
       <c r="AW15" s="2"/>
       <c r="AX15" s="2"/>
     </row>
-    <row r="16" spans="1:50 16383:16384" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:50 16383:16384" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1640,7 +1639,7 @@
       <c r="AW16" s="2"/>
       <c r="AX16" s="2"/>
     </row>
-    <row r="17" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1692,7 +1691,7 @@
       <c r="AW17" s="2"/>
       <c r="AX17" s="2"/>
     </row>
-    <row r="18" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1744,7 +1743,7 @@
       <c r="AW18" s="2"/>
       <c r="AX18" s="2"/>
     </row>
-    <row r="19" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1796,7 +1795,7 @@
       <c r="AW19" s="2"/>
       <c r="AX19" s="2"/>
     </row>
-    <row r="20" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1848,7 +1847,7 @@
       <c r="AW20" s="2"/>
       <c r="AX20" s="2"/>
     </row>
-    <row r="21" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1900,7 +1899,7 @@
       <c r="AW21" s="2"/>
       <c r="AX21" s="2"/>
     </row>
-    <row r="22" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1952,7 +1951,7 @@
       <c r="AW22" s="2"/>
       <c r="AX22" s="2"/>
     </row>
-    <row r="23" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -2004,7 +2003,7 @@
       <c r="AW23" s="2"/>
       <c r="AX23" s="2"/>
     </row>
-    <row r="24" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -2056,7 +2055,7 @@
       <c r="AW24" s="2"/>
       <c r="AX24" s="2"/>
     </row>
-    <row r="25" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -2108,7 +2107,7 @@
       <c r="AW25" s="2"/>
       <c r="AX25" s="2"/>
     </row>
-    <row r="26" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -2160,7 +2159,7 @@
       <c r="AW26" s="2"/>
       <c r="AX26" s="2"/>
     </row>
-    <row r="27" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -2212,7 +2211,7 @@
       <c r="AW27" s="2"/>
       <c r="AX27" s="2"/>
     </row>
-    <row r="28" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2264,7 +2263,7 @@
       <c r="AW28" s="2"/>
       <c r="AX28" s="2"/>
     </row>
-    <row r="29" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2316,7 +2315,7 @@
       <c r="AW29" s="2"/>
       <c r="AX29" s="2"/>
     </row>
-    <row r="30" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -2368,7 +2367,7 @@
       <c r="AW30" s="2"/>
       <c r="AX30" s="2"/>
     </row>
-    <row r="31" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -2420,7 +2419,7 @@
       <c r="AW31" s="2"/>
       <c r="AX31" s="2"/>
     </row>
-    <row r="32" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -2472,7 +2471,7 @@
       <c r="AW32" s="2"/>
       <c r="AX32" s="2"/>
     </row>
-    <row r="33" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -2524,7 +2523,7 @@
       <c r="AW33" s="2"/>
       <c r="AX33" s="2"/>
     </row>
-    <row r="34" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -2576,7 +2575,7 @@
       <c r="AW34" s="2"/>
       <c r="AX34" s="2"/>
     </row>
-    <row r="35" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -2628,7 +2627,7 @@
       <c r="AW35" s="2"/>
       <c r="AX35" s="2"/>
     </row>
-    <row r="36" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -2680,7 +2679,7 @@
       <c r="AW36" s="2"/>
       <c r="AX36" s="2"/>
     </row>
-    <row r="37" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -2732,7 +2731,7 @@
       <c r="AW37" s="2"/>
       <c r="AX37" s="2"/>
     </row>
-    <row r="38" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -2784,7 +2783,7 @@
       <c r="AW38" s="2"/>
       <c r="AX38" s="2"/>
     </row>
-    <row r="39" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -2836,7 +2835,7 @@
       <c r="AW39" s="2"/>
       <c r="AX39" s="2"/>
     </row>
-    <row r="40" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -2888,7 +2887,7 @@
       <c r="AW40" s="2"/>
       <c r="AX40" s="2"/>
     </row>
-    <row r="41" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -2940,7 +2939,7 @@
       <c r="AW41" s="2"/>
       <c r="AX41" s="2"/>
     </row>
-    <row r="42" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -2992,7 +2991,7 @@
       <c r="AW42" s="2"/>
       <c r="AX42" s="2"/>
     </row>
-    <row r="43" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -3044,7 +3043,7 @@
       <c r="AW43" s="2"/>
       <c r="AX43" s="2"/>
     </row>
-    <row r="44" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -3096,7 +3095,7 @@
       <c r="AW44" s="2"/>
       <c r="AX44" s="2"/>
     </row>
-    <row r="45" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -3148,7 +3147,7 @@
       <c r="AW45" s="2"/>
       <c r="AX45" s="2"/>
     </row>
-    <row r="46" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -3200,7 +3199,7 @@
       <c r="AW46" s="2"/>
       <c r="AX46" s="2"/>
     </row>
-    <row r="47" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -3252,7 +3251,7 @@
       <c r="AW47" s="2"/>
       <c r="AX47" s="2"/>
     </row>
-    <row r="48" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -3304,7 +3303,7 @@
       <c r="AW48" s="2"/>
       <c r="AX48" s="2"/>
     </row>
-    <row r="49" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -3356,7 +3355,7 @@
       <c r="AW49" s="2"/>
       <c r="AX49" s="2"/>
     </row>
-    <row r="50" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -3408,7 +3407,7 @@
       <c r="AW50" s="2"/>
       <c r="AX50" s="2"/>
     </row>
-    <row r="51" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -3460,7 +3459,7 @@
       <c r="AW51" s="2"/>
       <c r="AX51" s="2"/>
     </row>
-    <row r="52" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -3512,7 +3511,7 @@
       <c r="AW52" s="2"/>
       <c r="AX52" s="2"/>
     </row>
-    <row r="53" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -3564,7 +3563,7 @@
       <c r="AW53" s="2"/>
       <c r="AX53" s="2"/>
     </row>
-    <row r="54" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -3616,7 +3615,7 @@
       <c r="AW54" s="2"/>
       <c r="AX54" s="2"/>
     </row>
-    <row r="55" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -3668,7 +3667,7 @@
       <c r="AW55" s="2"/>
       <c r="AX55" s="2"/>
     </row>
-    <row r="56" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -3720,7 +3719,7 @@
       <c r="AW56" s="2"/>
       <c r="AX56" s="2"/>
     </row>
-    <row r="57" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -3772,7 +3771,7 @@
       <c r="AW57" s="2"/>
       <c r="AX57" s="2"/>
     </row>
-    <row r="58" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -3824,7 +3823,7 @@
       <c r="AW58" s="2"/>
       <c r="AX58" s="2"/>
     </row>
-    <row r="59" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -3876,7 +3875,7 @@
       <c r="AW59" s="2"/>
       <c r="AX59" s="2"/>
     </row>
-    <row r="60" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -3928,7 +3927,7 @@
       <c r="AW60" s="2"/>
       <c r="AX60" s="2"/>
     </row>
-    <row r="61" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -3980,7 +3979,7 @@
       <c r="AW61" s="2"/>
       <c r="AX61" s="2"/>
     </row>
-    <row r="62" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -4032,7 +4031,7 @@
       <c r="AW62" s="2"/>
       <c r="AX62" s="2"/>
     </row>
-    <row r="63" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -4084,7 +4083,7 @@
       <c r="AW63" s="2"/>
       <c r="AX63" s="2"/>
     </row>
-    <row r="64" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -4136,7 +4135,7 @@
       <c r="AW64" s="2"/>
       <c r="AX64" s="2"/>
     </row>
-    <row r="65" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -4188,7 +4187,7 @@
       <c r="AW65" s="2"/>
       <c r="AX65" s="2"/>
     </row>
-    <row r="66" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -4240,7 +4239,7 @@
       <c r="AW66" s="2"/>
       <c r="AX66" s="2"/>
     </row>
-    <row r="67" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -4292,7 +4291,7 @@
       <c r="AW67" s="2"/>
       <c r="AX67" s="2"/>
     </row>
-    <row r="68" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -4344,7 +4343,7 @@
       <c r="AW68" s="2"/>
       <c r="AX68" s="2"/>
     </row>
-    <row r="69" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -4396,7 +4395,7 @@
       <c r="AW69" s="2"/>
       <c r="AX69" s="2"/>
     </row>
-    <row r="70" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -4448,7 +4447,7 @@
       <c r="AW70" s="2"/>
       <c r="AX70" s="2"/>
     </row>
-    <row r="71" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -4500,7 +4499,7 @@
       <c r="AW71" s="2"/>
       <c r="AX71" s="2"/>
     </row>
-    <row r="72" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -4552,7 +4551,7 @@
       <c r="AW72" s="2"/>
       <c r="AX72" s="2"/>
     </row>
-    <row r="73" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -4604,7 +4603,7 @@
       <c r="AW73" s="2"/>
       <c r="AX73" s="2"/>
     </row>
-    <row r="74" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -4656,7 +4655,7 @@
       <c r="AW74" s="2"/>
       <c r="AX74" s="2"/>
     </row>
-    <row r="75" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -4708,7 +4707,7 @@
       <c r="AW75" s="2"/>
       <c r="AX75" s="2"/>
     </row>
-    <row r="76" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -4760,7 +4759,7 @@
       <c r="AW76" s="2"/>
       <c r="AX76" s="2"/>
     </row>
-    <row r="77" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -4812,7 +4811,7 @@
       <c r="AW77" s="2"/>
       <c r="AX77" s="2"/>
     </row>
-    <row r="78" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -4864,7 +4863,7 @@
       <c r="AW78" s="2"/>
       <c r="AX78" s="2"/>
     </row>
-    <row r="79" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -4916,7 +4915,7 @@
       <c r="AW79" s="2"/>
       <c r="AX79" s="2"/>
     </row>
-    <row r="80" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -4968,7 +4967,7 @@
       <c r="AW80" s="2"/>
       <c r="AX80" s="2"/>
     </row>
-    <row r="81" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -5020,7 +5019,7 @@
       <c r="AW81" s="2"/>
       <c r="AX81" s="2"/>
     </row>
-    <row r="82" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -5072,7 +5071,7 @@
       <c r="AW82" s="2"/>
       <c r="AX82" s="2"/>
     </row>
-    <row r="83" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -5124,7 +5123,7 @@
       <c r="AW83" s="2"/>
       <c r="AX83" s="2"/>
     </row>
-    <row r="84" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -5176,7 +5175,7 @@
       <c r="AW84" s="2"/>
       <c r="AX84" s="2"/>
     </row>
-    <row r="85" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -5228,7 +5227,7 @@
       <c r="AW85" s="2"/>
       <c r="AX85" s="2"/>
     </row>
-    <row r="86" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -5280,7 +5279,7 @@
       <c r="AW86" s="2"/>
       <c r="AX86" s="2"/>
     </row>
-    <row r="87" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -5332,7 +5331,7 @@
       <c r="AW87" s="2"/>
       <c r="AX87" s="2"/>
     </row>
-    <row r="88" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -5384,7 +5383,7 @@
       <c r="AW88" s="2"/>
       <c r="AX88" s="2"/>
     </row>
-    <row r="89" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -5436,7 +5435,7 @@
       <c r="AW89" s="2"/>
       <c r="AX89" s="2"/>
     </row>
-    <row r="90" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -5488,7 +5487,7 @@
       <c r="AW90" s="2"/>
       <c r="AX90" s="2"/>
     </row>
-    <row r="91" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -5540,7 +5539,7 @@
       <c r="AW91" s="2"/>
       <c r="AX91" s="2"/>
     </row>
-    <row r="92" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -5592,7 +5591,7 @@
       <c r="AW92" s="2"/>
       <c r="AX92" s="2"/>
     </row>
-    <row r="93" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -5644,7 +5643,7 @@
       <c r="AW93" s="2"/>
       <c r="AX93" s="2"/>
     </row>
-    <row r="94" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -5696,7 +5695,7 @@
       <c r="AW94" s="2"/>
       <c r="AX94" s="2"/>
     </row>
-    <row r="95" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -5748,7 +5747,7 @@
       <c r="AW95" s="2"/>
       <c r="AX95" s="2"/>
     </row>
-    <row r="96" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -5800,7 +5799,7 @@
       <c r="AW96" s="2"/>
       <c r="AX96" s="2"/>
     </row>
-    <row r="97" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -5852,7 +5851,7 @@
       <c r="AW97" s="2"/>
       <c r="AX97" s="2"/>
     </row>
-    <row r="98" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -5904,7 +5903,7 @@
       <c r="AW98" s="2"/>
       <c r="AX98" s="2"/>
     </row>
-    <row r="99" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -5956,7 +5955,7 @@
       <c r="AW99" s="2"/>
       <c r="AX99" s="2"/>
     </row>
-    <row r="100" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -6008,7 +6007,7 @@
       <c r="AW100" s="2"/>
       <c r="AX100" s="2"/>
     </row>
-    <row r="101" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -6060,7 +6059,7 @@
       <c r="AW101" s="2"/>
       <c r="AX101" s="2"/>
     </row>
-    <row r="102" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -6112,7 +6111,7 @@
       <c r="AW102" s="2"/>
       <c r="AX102" s="2"/>
     </row>
-    <row r="103" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -6164,7 +6163,7 @@
       <c r="AW103" s="2"/>
       <c r="AX103" s="2"/>
     </row>
-    <row r="104" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -6216,7 +6215,7 @@
       <c r="AW104" s="2"/>
       <c r="AX104" s="2"/>
     </row>
-    <row r="105" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -6268,7 +6267,7 @@
       <c r="AW105" s="2"/>
       <c r="AX105" s="2"/>
     </row>
-    <row r="106" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -6320,7 +6319,7 @@
       <c r="AW106" s="2"/>
       <c r="AX106" s="2"/>
     </row>
-    <row r="107" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -6372,7 +6371,7 @@
       <c r="AW107" s="2"/>
       <c r="AX107" s="2"/>
     </row>
-    <row r="108" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -6424,7 +6423,7 @@
       <c r="AW108" s="2"/>
       <c r="AX108" s="2"/>
     </row>
-    <row r="109" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -6476,7 +6475,7 @@
       <c r="AW109" s="2"/>
       <c r="AX109" s="2"/>
     </row>
-    <row r="110" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -6528,7 +6527,7 @@
       <c r="AW110" s="2"/>
       <c r="AX110" s="2"/>
     </row>
-    <row r="111" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -6580,7 +6579,7 @@
       <c r="AW111" s="2"/>
       <c r="AX111" s="2"/>
     </row>
-    <row r="112" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -6632,7 +6631,7 @@
       <c r="AW112" s="2"/>
       <c r="AX112" s="2"/>
     </row>
-    <row r="113" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -6684,7 +6683,7 @@
       <c r="AW113" s="2"/>
       <c r="AX113" s="2"/>
     </row>
-    <row r="114" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -6736,7 +6735,7 @@
       <c r="AW114" s="2"/>
       <c r="AX114" s="2"/>
     </row>
-    <row r="115" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -6788,7 +6787,7 @@
       <c r="AW115" s="2"/>
       <c r="AX115" s="2"/>
     </row>
-    <row r="116" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -6840,7 +6839,7 @@
       <c r="AW116" s="2"/>
       <c r="AX116" s="2"/>
     </row>
-    <row r="117" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -6892,7 +6891,7 @@
       <c r="AW117" s="2"/>
       <c r="AX117" s="2"/>
     </row>
-    <row r="118" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -6944,7 +6943,7 @@
       <c r="AW118" s="2"/>
       <c r="AX118" s="2"/>
     </row>
-    <row r="119" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -6996,7 +6995,7 @@
       <c r="AW119" s="2"/>
       <c r="AX119" s="2"/>
     </row>
-    <row r="120" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -7048,7 +7047,7 @@
       <c r="AW120" s="2"/>
       <c r="AX120" s="2"/>
     </row>
-    <row r="121" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -7100,7 +7099,7 @@
       <c r="AW121" s="2"/>
       <c r="AX121" s="2"/>
     </row>
-    <row r="122" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -7152,7 +7151,7 @@
       <c r="AW122" s="2"/>
       <c r="AX122" s="2"/>
     </row>
-    <row r="123" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -7204,7 +7203,7 @@
       <c r="AW123" s="2"/>
       <c r="AX123" s="2"/>
     </row>
-    <row r="124" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -7256,7 +7255,7 @@
       <c r="AW124" s="2"/>
       <c r="AX124" s="2"/>
     </row>
-    <row r="125" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -7308,7 +7307,7 @@
       <c r="AW125" s="2"/>
       <c r="AX125" s="2"/>
     </row>
-    <row r="126" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -7360,7 +7359,7 @@
       <c r="AW126" s="2"/>
       <c r="AX126" s="2"/>
     </row>
-    <row r="127" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -7412,7 +7411,7 @@
       <c r="AW127" s="2"/>
       <c r="AX127" s="2"/>
     </row>
-    <row r="128" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -7464,7 +7463,7 @@
       <c r="AW128" s="2"/>
       <c r="AX128" s="2"/>
     </row>
-    <row r="129" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -7516,7 +7515,7 @@
       <c r="AW129" s="2"/>
       <c r="AX129" s="2"/>
     </row>
-    <row r="130" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -7568,7 +7567,7 @@
       <c r="AW130" s="2"/>
       <c r="AX130" s="2"/>
     </row>
-    <row r="131" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -7620,7 +7619,7 @@
       <c r="AW131" s="2"/>
       <c r="AX131" s="2"/>
     </row>
-    <row r="132" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -7672,7 +7671,7 @@
       <c r="AW132" s="2"/>
       <c r="AX132" s="2"/>
     </row>
-    <row r="133" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -7724,7 +7723,7 @@
       <c r="AW133" s="2"/>
       <c r="AX133" s="2"/>
     </row>
-    <row r="134" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -7776,7 +7775,7 @@
       <c r="AW134" s="2"/>
       <c r="AX134" s="2"/>
     </row>
-    <row r="135" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -7828,7 +7827,7 @@
       <c r="AW135" s="2"/>
       <c r="AX135" s="2"/>
     </row>
-    <row r="136" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -7880,7 +7879,7 @@
       <c r="AW136" s="2"/>
       <c r="AX136" s="2"/>
     </row>
-    <row r="137" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -7932,7 +7931,7 @@
       <c r="AW137" s="2"/>
       <c r="AX137" s="2"/>
     </row>
-    <row r="138" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -7984,7 +7983,7 @@
       <c r="AW138" s="2"/>
       <c r="AX138" s="2"/>
     </row>
-    <row r="139" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -8036,7 +8035,7 @@
       <c r="AW139" s="2"/>
       <c r="AX139" s="2"/>
     </row>
-    <row r="140" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -8088,7 +8087,7 @@
       <c r="AW140" s="2"/>
       <c r="AX140" s="2"/>
     </row>
-    <row r="141" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -8140,7 +8139,7 @@
       <c r="AW141" s="2"/>
       <c r="AX141" s="2"/>
     </row>
-    <row r="142" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -8192,7 +8191,7 @@
       <c r="AW142" s="2"/>
       <c r="AX142" s="2"/>
     </row>
-    <row r="143" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -8244,7 +8243,7 @@
       <c r="AW143" s="2"/>
       <c r="AX143" s="2"/>
     </row>
-    <row r="144" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -8296,7 +8295,7 @@
       <c r="AW144" s="2"/>
       <c r="AX144" s="2"/>
     </row>
-    <row r="145" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -8348,7 +8347,7 @@
       <c r="AW145" s="2"/>
       <c r="AX145" s="2"/>
     </row>
-    <row r="146" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -8400,7 +8399,7 @@
       <c r="AW146" s="2"/>
       <c r="AX146" s="2"/>
     </row>
-    <row r="147" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -8452,7 +8451,7 @@
       <c r="AW147" s="2"/>
       <c r="AX147" s="2"/>
     </row>
-    <row r="148" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -8504,7 +8503,7 @@
       <c r="AW148" s="2"/>
       <c r="AX148" s="2"/>
     </row>
-    <row r="149" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -8556,7 +8555,7 @@
       <c r="AW149" s="2"/>
       <c r="AX149" s="2"/>
     </row>
-    <row r="150" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -8608,7 +8607,7 @@
       <c r="AW150" s="2"/>
       <c r="AX150" s="2"/>
     </row>
-    <row r="151" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -8660,7 +8659,7 @@
       <c r="AW151" s="2"/>
       <c r="AX151" s="2"/>
     </row>
-    <row r="152" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -8712,7 +8711,7 @@
       <c r="AW152" s="2"/>
       <c r="AX152" s="2"/>
     </row>
-    <row r="153" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -8764,7 +8763,7 @@
       <c r="AW153" s="2"/>
       <c r="AX153" s="2"/>
     </row>
-    <row r="154" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -8816,7 +8815,7 @@
       <c r="AW154" s="2"/>
       <c r="AX154" s="2"/>
     </row>
-    <row r="155" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -8868,7 +8867,7 @@
       <c r="AW155" s="2"/>
       <c r="AX155" s="2"/>
     </row>
-    <row r="156" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -8920,7 +8919,7 @@
       <c r="AW156" s="2"/>
       <c r="AX156" s="2"/>
     </row>
-    <row r="157" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -8972,7 +8971,7 @@
       <c r="AW157" s="2"/>
       <c r="AX157" s="2"/>
     </row>
-    <row r="158" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -9024,7 +9023,7 @@
       <c r="AW158" s="2"/>
       <c r="AX158" s="2"/>
     </row>
-    <row r="159" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -9076,7 +9075,7 @@
       <c r="AW159" s="2"/>
       <c r="AX159" s="2"/>
     </row>
-    <row r="160" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -9128,7 +9127,7 @@
       <c r="AW160" s="2"/>
       <c r="AX160" s="2"/>
     </row>
-    <row r="161" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -9180,7 +9179,7 @@
       <c r="AW161" s="2"/>
       <c r="AX161" s="2"/>
     </row>
-    <row r="162" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -9232,7 +9231,7 @@
       <c r="AW162" s="2"/>
       <c r="AX162" s="2"/>
     </row>
-    <row r="163" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -9284,7 +9283,7 @@
       <c r="AW163" s="2"/>
       <c r="AX163" s="2"/>
     </row>
-    <row r="164" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -9336,7 +9335,7 @@
       <c r="AW164" s="2"/>
       <c r="AX164" s="2"/>
     </row>
-    <row r="165" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -9388,7 +9387,7 @@
       <c r="AW165" s="2"/>
       <c r="AX165" s="2"/>
     </row>
-    <row r="166" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -9440,7 +9439,7 @@
       <c r="AW166" s="2"/>
       <c r="AX166" s="2"/>
     </row>
-    <row r="167" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -9492,7 +9491,7 @@
       <c r="AW167" s="2"/>
       <c r="AX167" s="2"/>
     </row>
-    <row r="168" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -9544,7 +9543,7 @@
       <c r="AW168" s="2"/>
       <c r="AX168" s="2"/>
     </row>
-    <row r="169" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -9596,7 +9595,7 @@
       <c r="AW169" s="2"/>
       <c r="AX169" s="2"/>
     </row>
-    <row r="170" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -9648,7 +9647,7 @@
       <c r="AW170" s="2"/>
       <c r="AX170" s="2"/>
     </row>
-    <row r="171" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -9700,7 +9699,7 @@
       <c r="AW171" s="2"/>
       <c r="AX171" s="2"/>
     </row>
-    <row r="172" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -9752,7 +9751,7 @@
       <c r="AW172" s="2"/>
       <c r="AX172" s="2"/>
     </row>
-    <row r="173" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -9804,7 +9803,7 @@
       <c r="AW173" s="2"/>
       <c r="AX173" s="2"/>
     </row>
-    <row r="174" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -9856,7 +9855,7 @@
       <c r="AW174" s="2"/>
       <c r="AX174" s="2"/>
     </row>
-    <row r="175" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -9908,7 +9907,7 @@
       <c r="AW175" s="2"/>
       <c r="AX175" s="2"/>
     </row>
-    <row r="176" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -9960,7 +9959,7 @@
       <c r="AW176" s="2"/>
       <c r="AX176" s="2"/>
     </row>
-    <row r="177" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -10012,7 +10011,7 @@
       <c r="AW177" s="2"/>
       <c r="AX177" s="2"/>
     </row>
-    <row r="178" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -10064,7 +10063,7 @@
       <c r="AW178" s="2"/>
       <c r="AX178" s="2"/>
     </row>
-    <row r="179" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -10116,7 +10115,7 @@
       <c r="AW179" s="2"/>
       <c r="AX179" s="2"/>
     </row>
-    <row r="180" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -10168,7 +10167,7 @@
       <c r="AW180" s="2"/>
       <c r="AX180" s="2"/>
     </row>
-    <row r="181" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -10220,7 +10219,7 @@
       <c r="AW181" s="2"/>
       <c r="AX181" s="2"/>
     </row>
-    <row r="182" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -10272,7 +10271,7 @@
       <c r="AW182" s="2"/>
       <c r="AX182" s="2"/>
     </row>
-    <row r="183" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -10324,7 +10323,7 @@
       <c r="AW183" s="2"/>
       <c r="AX183" s="2"/>
     </row>
-    <row r="184" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -10376,7 +10375,7 @@
       <c r="AW184" s="2"/>
       <c r="AX184" s="2"/>
     </row>
-    <row r="185" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -10428,7 +10427,7 @@
       <c r="AW185" s="2"/>
       <c r="AX185" s="2"/>
     </row>
-    <row r="186" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -10480,7 +10479,7 @@
       <c r="AW186" s="2"/>
       <c r="AX186" s="2"/>
     </row>
-    <row r="187" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -10532,7 +10531,7 @@
       <c r="AW187" s="2"/>
       <c r="AX187" s="2"/>
     </row>
-    <row r="188" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -10584,7 +10583,7 @@
       <c r="AW188" s="2"/>
       <c r="AX188" s="2"/>
     </row>
-    <row r="189" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -10636,7 +10635,7 @@
       <c r="AW189" s="2"/>
       <c r="AX189" s="2"/>
     </row>
-    <row r="190" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -10688,7 +10687,7 @@
       <c r="AW190" s="2"/>
       <c r="AX190" s="2"/>
     </row>
-    <row r="191" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -10740,7 +10739,7 @@
       <c r="AW191" s="2"/>
       <c r="AX191" s="2"/>
     </row>
-    <row r="192" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -10792,7 +10791,7 @@
       <c r="AW192" s="2"/>
       <c r="AX192" s="2"/>
     </row>
-    <row r="193" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -10844,7 +10843,7 @@
       <c r="AW193" s="2"/>
       <c r="AX193" s="2"/>
     </row>
-    <row r="194" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -10896,7 +10895,7 @@
       <c r="AW194" s="2"/>
       <c r="AX194" s="2"/>
     </row>
-    <row r="195" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -10948,7 +10947,7 @@
       <c r="AW195" s="2"/>
       <c r="AX195" s="2"/>
     </row>
-    <row r="196" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -11000,7 +10999,7 @@
       <c r="AW196" s="2"/>
       <c r="AX196" s="2"/>
     </row>
-    <row r="197" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -11052,7 +11051,7 @@
       <c r="AW197" s="2"/>
       <c r="AX197" s="2"/>
     </row>
-    <row r="198" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -11104,7 +11103,7 @@
       <c r="AW198" s="2"/>
       <c r="AX198" s="2"/>
     </row>
-    <row r="199" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -11156,7 +11155,7 @@
       <c r="AW199" s="2"/>
       <c r="AX199" s="2"/>
     </row>
-    <row r="200" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -11208,7 +11207,7 @@
       <c r="AW200" s="2"/>
       <c r="AX200" s="2"/>
     </row>
-    <row r="201" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -11260,7 +11259,7 @@
       <c r="AW201" s="2"/>
       <c r="AX201" s="2"/>
     </row>
-    <row r="202" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -11312,7 +11311,7 @@
       <c r="AW202" s="2"/>
       <c r="AX202" s="2"/>
     </row>
-    <row r="203" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -11364,7 +11363,7 @@
       <c r="AW203" s="2"/>
       <c r="AX203" s="2"/>
     </row>
-    <row r="204" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -11416,7 +11415,7 @@
       <c r="AW204" s="2"/>
       <c r="AX204" s="2"/>
     </row>
-    <row r="205" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -11468,7 +11467,7 @@
       <c r="AW205" s="2"/>
       <c r="AX205" s="2"/>
     </row>
-    <row r="206" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -11520,7 +11519,7 @@
       <c r="AW206" s="2"/>
       <c r="AX206" s="2"/>
     </row>
-    <row r="207" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -11572,7 +11571,7 @@
       <c r="AW207" s="2"/>
       <c r="AX207" s="2"/>
     </row>
-    <row r="208" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -11624,7 +11623,7 @@
       <c r="AW208" s="2"/>
       <c r="AX208" s="2"/>
     </row>
-    <row r="209" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -11676,7 +11675,7 @@
       <c r="AW209" s="2"/>
       <c r="AX209" s="2"/>
     </row>
-    <row r="210" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -11728,7 +11727,7 @@
       <c r="AW210" s="2"/>
       <c r="AX210" s="2"/>
     </row>
-    <row r="211" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -11780,7 +11779,7 @@
       <c r="AW211" s="2"/>
       <c r="AX211" s="2"/>
     </row>
-    <row r="212" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -11832,7 +11831,7 @@
       <c r="AW212" s="2"/>
       <c r="AX212" s="2"/>
     </row>
-    <row r="213" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -11884,7 +11883,7 @@
       <c r="AW213" s="2"/>
       <c r="AX213" s="2"/>
     </row>
-    <row r="214" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -11936,7 +11935,7 @@
       <c r="AW214" s="2"/>
       <c r="AX214" s="2"/>
     </row>
-    <row r="215" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -11988,7 +11987,7 @@
       <c r="AW215" s="2"/>
       <c r="AX215" s="2"/>
     </row>
-    <row r="216" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -12040,7 +12039,7 @@
       <c r="AW216" s="2"/>
       <c r="AX216" s="2"/>
     </row>
-    <row r="217" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -12092,7 +12091,7 @@
       <c r="AW217" s="2"/>
       <c r="AX217" s="2"/>
     </row>
-    <row r="218" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -12144,7 +12143,7 @@
       <c r="AW218" s="2"/>
       <c r="AX218" s="2"/>
     </row>
-    <row r="219" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -12196,7 +12195,7 @@
       <c r="AW219" s="2"/>
       <c r="AX219" s="2"/>
     </row>
-    <row r="220" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -12248,7 +12247,7 @@
       <c r="AW220" s="2"/>
       <c r="AX220" s="2"/>
     </row>
-    <row r="221" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -12300,7 +12299,7 @@
       <c r="AW221" s="2"/>
       <c r="AX221" s="2"/>
     </row>
-    <row r="222" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -12352,7 +12351,7 @@
       <c r="AW222" s="2"/>
       <c r="AX222" s="2"/>
     </row>
-    <row r="223" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -12404,7 +12403,7 @@
       <c r="AW223" s="2"/>
       <c r="AX223" s="2"/>
     </row>
-    <row r="224" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -12456,7 +12455,7 @@
       <c r="AW224" s="2"/>
       <c r="AX224" s="2"/>
     </row>
-    <row r="225" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -12508,7 +12507,7 @@
       <c r="AW225" s="2"/>
       <c r="AX225" s="2"/>
     </row>
-    <row r="226" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -12560,7 +12559,7 @@
       <c r="AW226" s="2"/>
       <c r="AX226" s="2"/>
     </row>
-    <row r="227" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -12612,7 +12611,7 @@
       <c r="AW227" s="2"/>
       <c r="AX227" s="2"/>
     </row>
-    <row r="228" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -12664,7 +12663,7 @@
       <c r="AW228" s="2"/>
       <c r="AX228" s="2"/>
     </row>
-    <row r="229" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -12716,7 +12715,7 @@
       <c r="AW229" s="2"/>
       <c r="AX229" s="2"/>
     </row>
-    <row r="230" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -12768,7 +12767,7 @@
       <c r="AW230" s="2"/>
       <c r="AX230" s="2"/>
     </row>
-    <row r="231" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -12820,7 +12819,7 @@
       <c r="AW231" s="2"/>
       <c r="AX231" s="2"/>
     </row>
-    <row r="232" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -12872,7 +12871,7 @@
       <c r="AW232" s="2"/>
       <c r="AX232" s="2"/>
     </row>
-    <row r="233" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -12924,7 +12923,7 @@
       <c r="AW233" s="2"/>
       <c r="AX233" s="2"/>
     </row>
-    <row r="234" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -12976,7 +12975,7 @@
       <c r="AW234" s="2"/>
       <c r="AX234" s="2"/>
     </row>
-    <row r="235" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -13028,7 +13027,7 @@
       <c r="AW235" s="2"/>
       <c r="AX235" s="2"/>
     </row>
-    <row r="236" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -13080,7 +13079,7 @@
       <c r="AW236" s="2"/>
       <c r="AX236" s="2"/>
     </row>
-    <row r="237" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -13132,7 +13131,7 @@
       <c r="AW237" s="2"/>
       <c r="AX237" s="2"/>
     </row>
-    <row r="238" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -13184,7 +13183,7 @@
       <c r="AW238" s="2"/>
       <c r="AX238" s="2"/>
     </row>
-    <row r="239" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -13236,7 +13235,7 @@
       <c r="AW239" s="2"/>
       <c r="AX239" s="2"/>
     </row>
-    <row r="240" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -13288,7 +13287,7 @@
       <c r="AW240" s="2"/>
       <c r="AX240" s="2"/>
     </row>
-    <row r="241" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -13340,7 +13339,7 @@
       <c r="AW241" s="2"/>
       <c r="AX241" s="2"/>
     </row>
-    <row r="242" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -13392,7 +13391,7 @@
       <c r="AW242" s="2"/>
       <c r="AX242" s="2"/>
     </row>
-    <row r="243" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -13444,7 +13443,7 @@
       <c r="AW243" s="2"/>
       <c r="AX243" s="2"/>
     </row>
-    <row r="244" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -13496,7 +13495,7 @@
       <c r="AW244" s="2"/>
       <c r="AX244" s="2"/>
     </row>
-    <row r="245" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -13548,7 +13547,7 @@
       <c r="AW245" s="2"/>
       <c r="AX245" s="2"/>
     </row>
-    <row r="246" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -13600,7 +13599,7 @@
       <c r="AW246" s="2"/>
       <c r="AX246" s="2"/>
     </row>
-    <row r="247" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -13652,7 +13651,7 @@
       <c r="AW247" s="2"/>
       <c r="AX247" s="2"/>
     </row>
-    <row r="248" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -13704,7 +13703,7 @@
       <c r="AW248" s="2"/>
       <c r="AX248" s="2"/>
     </row>
-    <row r="249" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -13756,7 +13755,7 @@
       <c r="AW249" s="2"/>
       <c r="AX249" s="2"/>
     </row>
-    <row r="250" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -13808,7 +13807,7 @@
       <c r="AW250" s="2"/>
       <c r="AX250" s="2"/>
     </row>
-    <row r="251" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -13860,7 +13859,7 @@
       <c r="AW251" s="2"/>
       <c r="AX251" s="2"/>
     </row>
-    <row r="252" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -13912,7 +13911,7 @@
       <c r="AW252" s="2"/>
       <c r="AX252" s="2"/>
     </row>
-    <row r="253" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -13964,7 +13963,7 @@
       <c r="AW253" s="2"/>
       <c r="AX253" s="2"/>
     </row>
-    <row r="254" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -14016,7 +14015,7 @@
       <c r="AW254" s="2"/>
       <c r="AX254" s="2"/>
     </row>
-    <row r="255" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -14068,7 +14067,7 @@
       <c r="AW255" s="2"/>
       <c r="AX255" s="2"/>
     </row>
-    <row r="256" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -14120,7 +14119,7 @@
       <c r="AW256" s="2"/>
       <c r="AX256" s="2"/>
     </row>
-    <row r="257" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -14172,7 +14171,7 @@
       <c r="AW257" s="2"/>
       <c r="AX257" s="2"/>
     </row>
-    <row r="258" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -14224,7 +14223,7 @@
       <c r="AW258" s="2"/>
       <c r="AX258" s="2"/>
     </row>
-    <row r="259" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -14276,7 +14275,7 @@
       <c r="AW259" s="2"/>
       <c r="AX259" s="2"/>
     </row>
-    <row r="260" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -14328,7 +14327,7 @@
       <c r="AW260" s="2"/>
       <c r="AX260" s="2"/>
     </row>
-    <row r="261" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -14380,7 +14379,7 @@
       <c r="AW261" s="2"/>
       <c r="AX261" s="2"/>
     </row>
-    <row r="262" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -14432,7 +14431,7 @@
       <c r="AW262" s="2"/>
       <c r="AX262" s="2"/>
     </row>
-    <row r="263" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
@@ -14484,7 +14483,7 @@
       <c r="AW263" s="2"/>
       <c r="AX263" s="2"/>
     </row>
-    <row r="264" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -14536,7 +14535,7 @@
       <c r="AW264" s="2"/>
       <c r="AX264" s="2"/>
     </row>
-    <row r="265" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -14588,7 +14587,7 @@
       <c r="AW265" s="2"/>
       <c r="AX265" s="2"/>
     </row>
-    <row r="266" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -14640,7 +14639,7 @@
       <c r="AW266" s="2"/>
       <c r="AX266" s="2"/>
     </row>
-    <row r="267" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -14692,7 +14691,7 @@
       <c r="AW267" s="2"/>
       <c r="AX267" s="2"/>
     </row>
-    <row r="268" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -14744,7 +14743,7 @@
       <c r="AW268" s="2"/>
       <c r="AX268" s="2"/>
     </row>
-    <row r="269" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -14796,7 +14795,7 @@
       <c r="AW269" s="2"/>
       <c r="AX269" s="2"/>
     </row>
-    <row r="270" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -14848,7 +14847,7 @@
       <c r="AW270" s="2"/>
       <c r="AX270" s="2"/>
     </row>
-    <row r="271" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
@@ -14900,7 +14899,7 @@
       <c r="AW271" s="2"/>
       <c r="AX271" s="2"/>
     </row>
-    <row r="272" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -14952,7 +14951,7 @@
       <c r="AW272" s="2"/>
       <c r="AX272" s="2"/>
     </row>
-    <row r="273" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -15004,7 +15003,7 @@
       <c r="AW273" s="2"/>
       <c r="AX273" s="2"/>
     </row>
-    <row r="274" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -15056,7 +15055,7 @@
       <c r="AW274" s="2"/>
       <c r="AX274" s="2"/>
     </row>
-    <row r="275" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -15108,7 +15107,7 @@
       <c r="AW275" s="2"/>
       <c r="AX275" s="2"/>
     </row>
-    <row r="276" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -15160,7 +15159,7 @@
       <c r="AW276" s="2"/>
       <c r="AX276" s="2"/>
     </row>
-    <row r="277" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
@@ -15212,7 +15211,7 @@
       <c r="AW277" s="2"/>
       <c r="AX277" s="2"/>
     </row>
-    <row r="278" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
@@ -15264,7 +15263,7 @@
       <c r="AW278" s="2"/>
       <c r="AX278" s="2"/>
     </row>
-    <row r="279" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -15316,7 +15315,7 @@
       <c r="AW279" s="2"/>
       <c r="AX279" s="2"/>
     </row>
-    <row r="280" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -15368,7 +15367,7 @@
       <c r="AW280" s="2"/>
       <c r="AX280" s="2"/>
     </row>
-    <row r="281" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -15420,7 +15419,7 @@
       <c r="AW281" s="2"/>
       <c r="AX281" s="2"/>
     </row>
-    <row r="282" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -15472,7 +15471,7 @@
       <c r="AW282" s="2"/>
       <c r="AX282" s="2"/>
     </row>
-    <row r="283" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -15524,7 +15523,7 @@
       <c r="AW283" s="2"/>
       <c r="AX283" s="2"/>
     </row>
-    <row r="284" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -15576,7 +15575,7 @@
       <c r="AW284" s="2"/>
       <c r="AX284" s="2"/>
     </row>
-    <row r="285" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -15628,7 +15627,7 @@
       <c r="AW285" s="2"/>
       <c r="AX285" s="2"/>
     </row>
-    <row r="286" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -15680,7 +15679,7 @@
       <c r="AW286" s="2"/>
       <c r="AX286" s="2"/>
     </row>
-    <row r="287" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
@@ -15732,7 +15731,7 @@
       <c r="AW287" s="2"/>
       <c r="AX287" s="2"/>
     </row>
-    <row r="288" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -15784,7 +15783,7 @@
       <c r="AW288" s="2"/>
       <c r="AX288" s="2"/>
     </row>
-    <row r="289" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -15836,7 +15835,7 @@
       <c r="AW289" s="2"/>
       <c r="AX289" s="2"/>
     </row>
-    <row r="290" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
@@ -15888,7 +15887,7 @@
       <c r="AW290" s="2"/>
       <c r="AX290" s="2"/>
     </row>
-    <row r="291" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
@@ -15940,7 +15939,7 @@
       <c r="AW291" s="2"/>
       <c r="AX291" s="2"/>
     </row>
-    <row r="292" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
@@ -15992,7 +15991,7 @@
       <c r="AW292" s="2"/>
       <c r="AX292" s="2"/>
     </row>
-    <row r="293" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
@@ -16044,7 +16043,7 @@
       <c r="AW293" s="2"/>
       <c r="AX293" s="2"/>
     </row>
-    <row r="294" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -16096,7 +16095,7 @@
       <c r="AW294" s="2"/>
       <c r="AX294" s="2"/>
     </row>
-    <row r="295" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
@@ -16148,7 +16147,7 @@
       <c r="AW295" s="2"/>
       <c r="AX295" s="2"/>
     </row>
-    <row r="296" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
@@ -16200,7 +16199,7 @@
       <c r="AW296" s="2"/>
       <c r="AX296" s="2"/>
     </row>
-    <row r="297" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
@@ -16252,7 +16251,7 @@
       <c r="AW297" s="2"/>
       <c r="AX297" s="2"/>
     </row>
-    <row r="298" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
@@ -16304,7 +16303,7 @@
       <c r="AW298" s="2"/>
       <c r="AX298" s="2"/>
     </row>
-    <row r="299" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
@@ -16356,7 +16355,7 @@
       <c r="AW299" s="2"/>
       <c r="AX299" s="2"/>
     </row>
-    <row r="300" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
@@ -16408,7 +16407,7 @@
       <c r="AW300" s="2"/>
       <c r="AX300" s="2"/>
     </row>
-    <row r="301" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
@@ -16460,7 +16459,7 @@
       <c r="AW301" s="2"/>
       <c r="AX301" s="2"/>
     </row>
-    <row r="302" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
@@ -16512,7 +16511,7 @@
       <c r="AW302" s="2"/>
       <c r="AX302" s="2"/>
     </row>
-    <row r="303" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
@@ -16564,7 +16563,7 @@
       <c r="AW303" s="2"/>
       <c r="AX303" s="2"/>
     </row>
-    <row r="304" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
@@ -16616,7 +16615,7 @@
       <c r="AW304" s="2"/>
       <c r="AX304" s="2"/>
     </row>
-    <row r="305" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="2"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
@@ -16668,7 +16667,7 @@
       <c r="AW305" s="2"/>
       <c r="AX305" s="2"/>
     </row>
-    <row r="306" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
@@ -16720,7 +16719,7 @@
       <c r="AW306" s="2"/>
       <c r="AX306" s="2"/>
     </row>
-    <row r="307" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
@@ -16772,7 +16771,7 @@
       <c r="AW307" s="2"/>
       <c r="AX307" s="2"/>
     </row>
-    <row r="308" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
@@ -16824,7 +16823,7 @@
       <c r="AW308" s="2"/>
       <c r="AX308" s="2"/>
     </row>
-    <row r="309" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
@@ -16876,7 +16875,7 @@
       <c r="AW309" s="2"/>
       <c r="AX309" s="2"/>
     </row>
-    <row r="310" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
@@ -16928,7 +16927,7 @@
       <c r="AW310" s="2"/>
       <c r="AX310" s="2"/>
     </row>
-    <row r="311" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
@@ -16980,7 +16979,7 @@
       <c r="AW311" s="2"/>
       <c r="AX311" s="2"/>
     </row>
-    <row r="312" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
@@ -17032,7 +17031,7 @@
       <c r="AW312" s="2"/>
       <c r="AX312" s="2"/>
     </row>
-    <row r="313" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
@@ -17084,7 +17083,7 @@
       <c r="AW313" s="2"/>
       <c r="AX313" s="2"/>
     </row>
-    <row r="314" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
@@ -17136,7 +17135,7 @@
       <c r="AW314" s="2"/>
       <c r="AX314" s="2"/>
     </row>
-    <row r="315" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
@@ -17188,7 +17187,7 @@
       <c r="AW315" s="2"/>
       <c r="AX315" s="2"/>
     </row>
-    <row r="316" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
@@ -17240,7 +17239,7 @@
       <c r="AW316" s="2"/>
       <c r="AX316" s="2"/>
     </row>
-    <row r="317" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
@@ -17292,7 +17291,7 @@
       <c r="AW317" s="2"/>
       <c r="AX317" s="2"/>
     </row>
-    <row r="318" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
@@ -17344,7 +17343,7 @@
       <c r="AW318" s="2"/>
       <c r="AX318" s="2"/>
     </row>
-    <row r="319" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
@@ -17396,7 +17395,7 @@
       <c r="AW319" s="2"/>
       <c r="AX319" s="2"/>
     </row>
-    <row r="320" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
@@ -17448,7 +17447,7 @@
       <c r="AW320" s="2"/>
       <c r="AX320" s="2"/>
     </row>
-    <row r="321" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
@@ -17500,7 +17499,7 @@
       <c r="AW321" s="2"/>
       <c r="AX321" s="2"/>
     </row>
-    <row r="322" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
@@ -17552,7 +17551,7 @@
       <c r="AW322" s="2"/>
       <c r="AX322" s="2"/>
     </row>
-    <row r="323" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="2"/>
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
@@ -17604,7 +17603,7 @@
       <c r="AW323" s="2"/>
       <c r="AX323" s="2"/>
     </row>
-    <row r="324" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
@@ -17656,7 +17655,7 @@
       <c r="AW324" s="2"/>
       <c r="AX324" s="2"/>
     </row>
-    <row r="325" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
@@ -17708,7 +17707,7 @@
       <c r="AW325" s="2"/>
       <c r="AX325" s="2"/>
     </row>
-    <row r="326" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
@@ -17760,7 +17759,7 @@
       <c r="AW326" s="2"/>
       <c r="AX326" s="2"/>
     </row>
-    <row r="327" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
@@ -17812,7 +17811,7 @@
       <c r="AW327" s="2"/>
       <c r="AX327" s="2"/>
     </row>
-    <row r="328" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
@@ -17864,7 +17863,7 @@
       <c r="AW328" s="2"/>
       <c r="AX328" s="2"/>
     </row>
-    <row r="329" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
@@ -17916,7 +17915,7 @@
       <c r="AW329" s="2"/>
       <c r="AX329" s="2"/>
     </row>
-    <row r="330" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="2"/>
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
@@ -17968,7 +17967,7 @@
       <c r="AW330" s="2"/>
       <c r="AX330" s="2"/>
     </row>
-    <row r="331" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="2"/>
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
@@ -18020,7 +18019,7 @@
       <c r="AW331" s="2"/>
       <c r="AX331" s="2"/>
     </row>
-    <row r="332" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="2"/>
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
@@ -18072,7 +18071,7 @@
       <c r="AW332" s="2"/>
       <c r="AX332" s="2"/>
     </row>
-    <row r="333" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="2"/>
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
@@ -18124,7 +18123,7 @@
       <c r="AW333" s="2"/>
       <c r="AX333" s="2"/>
     </row>
-    <row r="334" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="2"/>
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
@@ -18176,7 +18175,7 @@
       <c r="AW334" s="2"/>
       <c r="AX334" s="2"/>
     </row>
-    <row r="335" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="2"/>
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
@@ -18228,7 +18227,7 @@
       <c r="AW335" s="2"/>
       <c r="AX335" s="2"/>
     </row>
-    <row r="336" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="2"/>
       <c r="B336" s="2"/>
       <c r="C336" s="2"/>
@@ -18280,7 +18279,7 @@
       <c r="AW336" s="2"/>
       <c r="AX336" s="2"/>
     </row>
-    <row r="337" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="2"/>
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
@@ -18332,7 +18331,7 @@
       <c r="AW337" s="2"/>
       <c r="AX337" s="2"/>
     </row>
-    <row r="338" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="2"/>
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
@@ -18384,7 +18383,7 @@
       <c r="AW338" s="2"/>
       <c r="AX338" s="2"/>
     </row>
-    <row r="339" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="2"/>
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
@@ -18436,7 +18435,7 @@
       <c r="AW339" s="2"/>
       <c r="AX339" s="2"/>
     </row>
-    <row r="340" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="2"/>
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
@@ -18488,7 +18487,7 @@
       <c r="AW340" s="2"/>
       <c r="AX340" s="2"/>
     </row>
-    <row r="341" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="2"/>
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
@@ -18540,7 +18539,7 @@
       <c r="AW341" s="2"/>
       <c r="AX341" s="2"/>
     </row>
-    <row r="342" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="2"/>
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
@@ -18592,7 +18591,7 @@
       <c r="AW342" s="2"/>
       <c r="AX342" s="2"/>
     </row>
-    <row r="343" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="2"/>
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
@@ -18644,7 +18643,7 @@
       <c r="AW343" s="2"/>
       <c r="AX343" s="2"/>
     </row>
-    <row r="344" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="2"/>
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
@@ -18696,7 +18695,7 @@
       <c r="AW344" s="2"/>
       <c r="AX344" s="2"/>
     </row>
-    <row r="345" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="2"/>
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
@@ -18748,7 +18747,7 @@
       <c r="AW345" s="2"/>
       <c r="AX345" s="2"/>
     </row>
-    <row r="346" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="2"/>
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
@@ -18800,7 +18799,7 @@
       <c r="AW346" s="2"/>
       <c r="AX346" s="2"/>
     </row>
-    <row r="347" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="2"/>
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
@@ -18852,7 +18851,7 @@
       <c r="AW347" s="2"/>
       <c r="AX347" s="2"/>
     </row>
-    <row r="348" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="2"/>
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
@@ -18904,7 +18903,7 @@
       <c r="AW348" s="2"/>
       <c r="AX348" s="2"/>
     </row>
-    <row r="349" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="2"/>
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
@@ -18956,7 +18955,7 @@
       <c r="AW349" s="2"/>
       <c r="AX349" s="2"/>
     </row>
-    <row r="350" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="2"/>
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
@@ -19008,7 +19007,7 @@
       <c r="AW350" s="2"/>
       <c r="AX350" s="2"/>
     </row>
-    <row r="351" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="2"/>
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
@@ -19060,7 +19059,7 @@
       <c r="AW351" s="2"/>
       <c r="AX351" s="2"/>
     </row>
-    <row r="352" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="2"/>
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
@@ -19112,7 +19111,7 @@
       <c r="AW352" s="2"/>
       <c r="AX352" s="2"/>
     </row>
-    <row r="353" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="2"/>
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
@@ -19164,7 +19163,7 @@
       <c r="AW353" s="2"/>
       <c r="AX353" s="2"/>
     </row>
-    <row r="354" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="2"/>
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
@@ -19216,7 +19215,7 @@
       <c r="AW354" s="2"/>
       <c r="AX354" s="2"/>
     </row>
-    <row r="355" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="2"/>
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
@@ -19268,7 +19267,7 @@
       <c r="AW355" s="2"/>
       <c r="AX355" s="2"/>
     </row>
-    <row r="356" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="2"/>
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
@@ -19320,7 +19319,7 @@
       <c r="AW356" s="2"/>
       <c r="AX356" s="2"/>
     </row>
-    <row r="357" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="2"/>
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
@@ -19372,7 +19371,7 @@
       <c r="AW357" s="2"/>
       <c r="AX357" s="2"/>
     </row>
-    <row r="358" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="2"/>
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
@@ -19424,7 +19423,7 @@
       <c r="AW358" s="2"/>
       <c r="AX358" s="2"/>
     </row>
-    <row r="359" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="2"/>
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
@@ -19476,7 +19475,7 @@
       <c r="AW359" s="2"/>
       <c r="AX359" s="2"/>
     </row>
-    <row r="360" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="2"/>
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
@@ -19528,7 +19527,7 @@
       <c r="AW360" s="2"/>
       <c r="AX360" s="2"/>
     </row>
-    <row r="361" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="2"/>
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
@@ -19580,7 +19579,7 @@
       <c r="AW361" s="2"/>
       <c r="AX361" s="2"/>
     </row>
-    <row r="362" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="2"/>
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
@@ -19632,7 +19631,7 @@
       <c r="AW362" s="2"/>
       <c r="AX362" s="2"/>
     </row>
-    <row r="363" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="2"/>
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
@@ -19684,7 +19683,7 @@
       <c r="AW363" s="2"/>
       <c r="AX363" s="2"/>
     </row>
-    <row r="364" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="2"/>
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
@@ -19736,7 +19735,7 @@
       <c r="AW364" s="2"/>
       <c r="AX364" s="2"/>
     </row>
-    <row r="365" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="2"/>
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
@@ -19788,7 +19787,7 @@
       <c r="AW365" s="2"/>
       <c r="AX365" s="2"/>
     </row>
-    <row r="366" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="2"/>
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
@@ -19840,7 +19839,7 @@
       <c r="AW366" s="2"/>
       <c r="AX366" s="2"/>
     </row>
-    <row r="367" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="2"/>
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
@@ -19892,7 +19891,7 @@
       <c r="AW367" s="2"/>
       <c r="AX367" s="2"/>
     </row>
-    <row r="368" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="2"/>
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
@@ -19944,7 +19943,7 @@
       <c r="AW368" s="2"/>
       <c r="AX368" s="2"/>
     </row>
-    <row r="369" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="2"/>
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
@@ -19996,7 +19995,7 @@
       <c r="AW369" s="2"/>
       <c r="AX369" s="2"/>
     </row>
-    <row r="370" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="2"/>
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
@@ -20048,7 +20047,7 @@
       <c r="AW370" s="2"/>
       <c r="AX370" s="2"/>
     </row>
-    <row r="371" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="2"/>
       <c r="B371" s="2"/>
       <c r="C371" s="2"/>
@@ -20100,7 +20099,7 @@
       <c r="AW371" s="2"/>
       <c r="AX371" s="2"/>
     </row>
-    <row r="372" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="2"/>
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
@@ -20152,7 +20151,7 @@
       <c r="AW372" s="2"/>
       <c r="AX372" s="2"/>
     </row>
-    <row r="373" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="2"/>
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
@@ -20204,7 +20203,7 @@
       <c r="AW373" s="2"/>
       <c r="AX373" s="2"/>
     </row>
-    <row r="374" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="2"/>
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
@@ -20256,7 +20255,7 @@
       <c r="AW374" s="2"/>
       <c r="AX374" s="2"/>
     </row>
-    <row r="375" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="2"/>
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
@@ -20308,7 +20307,7 @@
       <c r="AW375" s="2"/>
       <c r="AX375" s="2"/>
     </row>
-    <row r="376" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="2"/>
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
@@ -20360,7 +20359,7 @@
       <c r="AW376" s="2"/>
       <c r="AX376" s="2"/>
     </row>
-    <row r="377" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="2"/>
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
@@ -20412,7 +20411,7 @@
       <c r="AW377" s="2"/>
       <c r="AX377" s="2"/>
     </row>
-    <row r="378" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="2"/>
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
@@ -20464,7 +20463,7 @@
       <c r="AW378" s="2"/>
       <c r="AX378" s="2"/>
     </row>
-    <row r="379" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="2"/>
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
@@ -20516,7 +20515,7 @@
       <c r="AW379" s="2"/>
       <c r="AX379" s="2"/>
     </row>
-    <row r="380" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="2"/>
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
@@ -20568,7 +20567,7 @@
       <c r="AW380" s="2"/>
       <c r="AX380" s="2"/>
     </row>
-    <row r="381" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="2"/>
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
@@ -20620,7 +20619,7 @@
       <c r="AW381" s="2"/>
       <c r="AX381" s="2"/>
     </row>
-    <row r="382" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="2"/>
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
@@ -20672,7 +20671,7 @@
       <c r="AW382" s="2"/>
       <c r="AX382" s="2"/>
     </row>
-    <row r="383" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="2"/>
       <c r="B383" s="2"/>
       <c r="C383" s="2"/>
@@ -20724,7 +20723,7 @@
       <c r="AW383" s="2"/>
       <c r="AX383" s="2"/>
     </row>
-    <row r="384" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="2"/>
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
@@ -20776,7 +20775,7 @@
       <c r="AW384" s="2"/>
       <c r="AX384" s="2"/>
     </row>
-    <row r="385" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="2"/>
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
@@ -20828,7 +20827,7 @@
       <c r="AW385" s="2"/>
       <c r="AX385" s="2"/>
     </row>
-    <row r="386" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="2"/>
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
@@ -20880,7 +20879,7 @@
       <c r="AW386" s="2"/>
       <c r="AX386" s="2"/>
     </row>
-    <row r="387" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="2"/>
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
@@ -20932,7 +20931,7 @@
       <c r="AW387" s="2"/>
       <c r="AX387" s="2"/>
     </row>
-    <row r="388" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="2"/>
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
@@ -20984,7 +20983,7 @@
       <c r="AW388" s="2"/>
       <c r="AX388" s="2"/>
     </row>
-    <row r="389" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="2"/>
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
@@ -21036,7 +21035,7 @@
       <c r="AW389" s="2"/>
       <c r="AX389" s="2"/>
     </row>
-    <row r="390" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="2"/>
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
@@ -21088,7 +21087,7 @@
       <c r="AW390" s="2"/>
       <c r="AX390" s="2"/>
     </row>
-    <row r="391" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="2"/>
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
@@ -21140,7 +21139,7 @@
       <c r="AW391" s="2"/>
       <c r="AX391" s="2"/>
     </row>
-    <row r="392" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="2"/>
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
@@ -21192,7 +21191,7 @@
       <c r="AW392" s="2"/>
       <c r="AX392" s="2"/>
     </row>
-    <row r="393" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="2"/>
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
@@ -21244,7 +21243,7 @@
       <c r="AW393" s="2"/>
       <c r="AX393" s="2"/>
     </row>
-    <row r="394" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="2"/>
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
@@ -21296,7 +21295,7 @@
       <c r="AW394" s="2"/>
       <c r="AX394" s="2"/>
     </row>
-    <row r="395" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="2"/>
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
@@ -21348,7 +21347,7 @@
       <c r="AW395" s="2"/>
       <c r="AX395" s="2"/>
     </row>
-    <row r="396" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="2"/>
       <c r="B396" s="2"/>
       <c r="C396" s="2"/>
@@ -21400,7 +21399,7 @@
       <c r="AW396" s="2"/>
       <c r="AX396" s="2"/>
     </row>
-    <row r="397" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="2"/>
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
@@ -21452,7 +21451,7 @@
       <c r="AW397" s="2"/>
       <c r="AX397" s="2"/>
     </row>
-    <row r="398" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="2"/>
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
@@ -21504,7 +21503,7 @@
       <c r="AW398" s="2"/>
       <c r="AX398" s="2"/>
     </row>
-    <row r="399" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="2"/>
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
@@ -21556,7 +21555,7 @@
       <c r="AW399" s="2"/>
       <c r="AX399" s="2"/>
     </row>
-    <row r="400" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="2"/>
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
@@ -21608,7 +21607,7 @@
       <c r="AW400" s="2"/>
       <c r="AX400" s="2"/>
     </row>
-    <row r="401" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="2"/>
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
@@ -21660,7 +21659,7 @@
       <c r="AW401" s="2"/>
       <c r="AX401" s="2"/>
     </row>
-    <row r="402" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="2"/>
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
@@ -21712,7 +21711,7 @@
       <c r="AW402" s="2"/>
       <c r="AX402" s="2"/>
     </row>
-    <row r="403" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="2"/>
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
@@ -21764,7 +21763,7 @@
       <c r="AW403" s="2"/>
       <c r="AX403" s="2"/>
     </row>
-    <row r="404" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="2"/>
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
@@ -21816,7 +21815,7 @@
       <c r="AW404" s="2"/>
       <c r="AX404" s="2"/>
     </row>
-    <row r="405" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="2"/>
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
@@ -21868,7 +21867,7 @@
       <c r="AW405" s="2"/>
       <c r="AX405" s="2"/>
     </row>
-    <row r="406" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="2"/>
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
@@ -21920,7 +21919,7 @@
       <c r="AW406" s="2"/>
       <c r="AX406" s="2"/>
     </row>
-    <row r="407" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="2"/>
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
@@ -21972,7 +21971,7 @@
       <c r="AW407" s="2"/>
       <c r="AX407" s="2"/>
     </row>
-    <row r="408" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="2"/>
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
@@ -22024,7 +22023,7 @@
       <c r="AW408" s="2"/>
       <c r="AX408" s="2"/>
     </row>
-    <row r="409" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="2"/>
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
@@ -22076,7 +22075,7 @@
       <c r="AW409" s="2"/>
       <c r="AX409" s="2"/>
     </row>
-    <row r="410" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="2"/>
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
@@ -22128,7 +22127,7 @@
       <c r="AW410" s="2"/>
       <c r="AX410" s="2"/>
     </row>
-    <row r="411" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="2"/>
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
@@ -22180,7 +22179,7 @@
       <c r="AW411" s="2"/>
       <c r="AX411" s="2"/>
     </row>
-    <row r="412" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="2"/>
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
@@ -22232,7 +22231,7 @@
       <c r="AW412" s="2"/>
       <c r="AX412" s="2"/>
     </row>
-    <row r="413" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="2"/>
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
@@ -22284,7 +22283,7 @@
       <c r="AW413" s="2"/>
       <c r="AX413" s="2"/>
     </row>
-    <row r="414" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="2"/>
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
@@ -22336,7 +22335,7 @@
       <c r="AW414" s="2"/>
       <c r="AX414" s="2"/>
     </row>
-    <row r="415" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="2"/>
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
@@ -22388,7 +22387,7 @@
       <c r="AW415" s="2"/>
       <c r="AX415" s="2"/>
     </row>
-    <row r="416" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="2"/>
       <c r="B416" s="2"/>
       <c r="C416" s="2"/>
@@ -22440,7 +22439,7 @@
       <c r="AW416" s="2"/>
       <c r="AX416" s="2"/>
     </row>
-    <row r="417" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="2"/>
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
@@ -22492,7 +22491,7 @@
       <c r="AW417" s="2"/>
       <c r="AX417" s="2"/>
     </row>
-    <row r="418" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="2"/>
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
@@ -22544,7 +22543,7 @@
       <c r="AW418" s="2"/>
       <c r="AX418" s="2"/>
     </row>
-    <row r="419" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="2"/>
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
@@ -22596,7 +22595,7 @@
       <c r="AW419" s="2"/>
       <c r="AX419" s="2"/>
     </row>
-    <row r="420" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="2"/>
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
@@ -22648,7 +22647,7 @@
       <c r="AW420" s="2"/>
       <c r="AX420" s="2"/>
     </row>
-    <row r="421" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="2"/>
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
@@ -22700,7 +22699,7 @@
       <c r="AW421" s="2"/>
       <c r="AX421" s="2"/>
     </row>
-    <row r="422" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="2"/>
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
@@ -22752,7 +22751,7 @@
       <c r="AW422" s="2"/>
       <c r="AX422" s="2"/>
     </row>
-    <row r="423" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="2"/>
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
@@ -22804,7 +22803,7 @@
       <c r="AW423" s="2"/>
       <c r="AX423" s="2"/>
     </row>
-    <row r="424" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="2"/>
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
@@ -22856,7 +22855,7 @@
       <c r="AW424" s="2"/>
       <c r="AX424" s="2"/>
     </row>
-    <row r="425" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="2"/>
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
@@ -22908,7 +22907,7 @@
       <c r="AW425" s="2"/>
       <c r="AX425" s="2"/>
     </row>
-    <row r="426" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="2"/>
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
@@ -22960,7 +22959,7 @@
       <c r="AW426" s="2"/>
       <c r="AX426" s="2"/>
     </row>
-    <row r="427" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="2"/>
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
@@ -23012,7 +23011,7 @@
       <c r="AW427" s="2"/>
       <c r="AX427" s="2"/>
     </row>
-    <row r="428" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="2"/>
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
@@ -23064,7 +23063,7 @@
       <c r="AW428" s="2"/>
       <c r="AX428" s="2"/>
     </row>
-    <row r="429" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="2"/>
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
@@ -23116,7 +23115,7 @@
       <c r="AW429" s="2"/>
       <c r="AX429" s="2"/>
     </row>
-    <row r="430" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="2"/>
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
@@ -23168,7 +23167,7 @@
       <c r="AW430" s="2"/>
       <c r="AX430" s="2"/>
     </row>
-    <row r="431" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="2"/>
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
@@ -23220,7 +23219,7 @@
       <c r="AW431" s="2"/>
       <c r="AX431" s="2"/>
     </row>
-    <row r="432" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="2"/>
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
@@ -23272,7 +23271,7 @@
       <c r="AW432" s="2"/>
       <c r="AX432" s="2"/>
     </row>
-    <row r="433" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="2"/>
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
@@ -23324,7 +23323,7 @@
       <c r="AW433" s="2"/>
       <c r="AX433" s="2"/>
     </row>
-    <row r="434" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="2"/>
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
@@ -23376,7 +23375,7 @@
       <c r="AW434" s="2"/>
       <c r="AX434" s="2"/>
     </row>
-    <row r="435" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="2"/>
       <c r="B435" s="2"/>
       <c r="C435" s="2"/>
@@ -23428,7 +23427,7 @@
       <c r="AW435" s="2"/>
       <c r="AX435" s="2"/>
     </row>
-    <row r="436" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="2"/>
       <c r="B436" s="2"/>
       <c r="C436" s="2"/>
@@ -23480,7 +23479,7 @@
       <c r="AW436" s="2"/>
       <c r="AX436" s="2"/>
     </row>
-    <row r="437" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="2"/>
       <c r="B437" s="2"/>
       <c r="C437" s="2"/>
@@ -23532,7 +23531,7 @@
       <c r="AW437" s="2"/>
       <c r="AX437" s="2"/>
     </row>
-    <row r="438" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="2"/>
       <c r="B438" s="2"/>
       <c r="C438" s="2"/>
@@ -23584,7 +23583,7 @@
       <c r="AW438" s="2"/>
       <c r="AX438" s="2"/>
     </row>
-    <row r="439" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="2"/>
       <c r="B439" s="2"/>
       <c r="C439" s="2"/>
@@ -23636,7 +23635,7 @@
       <c r="AW439" s="2"/>
       <c r="AX439" s="2"/>
     </row>
-    <row r="440" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="2"/>
       <c r="B440" s="2"/>
       <c r="C440" s="2"/>
@@ -23688,7 +23687,7 @@
       <c r="AW440" s="2"/>
       <c r="AX440" s="2"/>
     </row>
-    <row r="441" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="2"/>
       <c r="B441" s="2"/>
       <c r="C441" s="2"/>
@@ -23740,7 +23739,7 @@
       <c r="AW441" s="2"/>
       <c r="AX441" s="2"/>
     </row>
-    <row r="442" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="2"/>
       <c r="B442" s="2"/>
       <c r="C442" s="2"/>
@@ -23792,7 +23791,7 @@
       <c r="AW442" s="2"/>
       <c r="AX442" s="2"/>
     </row>
-    <row r="443" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="2"/>
       <c r="B443" s="2"/>
       <c r="C443" s="2"/>
@@ -23844,7 +23843,7 @@
       <c r="AW443" s="2"/>
       <c r="AX443" s="2"/>
     </row>
-    <row r="444" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="2"/>
       <c r="B444" s="2"/>
       <c r="C444" s="2"/>
@@ -23896,7 +23895,7 @@
       <c r="AW444" s="2"/>
       <c r="AX444" s="2"/>
     </row>
-    <row r="445" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="2"/>
       <c r="B445" s="2"/>
       <c r="C445" s="2"/>
@@ -23948,7 +23947,7 @@
       <c r="AW445" s="2"/>
       <c r="AX445" s="2"/>
     </row>
-    <row r="446" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="2"/>
       <c r="B446" s="2"/>
       <c r="C446" s="2"/>
@@ -24000,7 +23999,7 @@
       <c r="AW446" s="2"/>
       <c r="AX446" s="2"/>
     </row>
-    <row r="447" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="2"/>
       <c r="B447" s="2"/>
       <c r="C447" s="2"/>
@@ -24052,7 +24051,7 @@
       <c r="AW447" s="2"/>
       <c r="AX447" s="2"/>
     </row>
-    <row r="448" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="2"/>
       <c r="B448" s="2"/>
       <c r="C448" s="2"/>
@@ -24104,7 +24103,7 @@
       <c r="AW448" s="2"/>
       <c r="AX448" s="2"/>
     </row>
-    <row r="449" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="2"/>
       <c r="B449" s="2"/>
       <c r="C449" s="2"/>
@@ -24156,7 +24155,7 @@
       <c r="AW449" s="2"/>
       <c r="AX449" s="2"/>
     </row>
-    <row r="450" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="2"/>
       <c r="B450" s="2"/>
       <c r="C450" s="2"/>
@@ -24208,7 +24207,7 @@
       <c r="AW450" s="2"/>
       <c r="AX450" s="2"/>
     </row>
-    <row r="451" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="2"/>
       <c r="B451" s="2"/>
       <c r="C451" s="2"/>
@@ -24260,7 +24259,7 @@
       <c r="AW451" s="2"/>
       <c r="AX451" s="2"/>
     </row>
-    <row r="452" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="2"/>
       <c r="B452" s="2"/>
       <c r="C452" s="2"/>
@@ -24312,7 +24311,7 @@
       <c r="AW452" s="2"/>
       <c r="AX452" s="2"/>
     </row>
-    <row r="453" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="2"/>
       <c r="B453" s="2"/>
       <c r="C453" s="2"/>
@@ -24364,7 +24363,7 @@
       <c r="AW453" s="2"/>
       <c r="AX453" s="2"/>
     </row>
-    <row r="454" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="2"/>
       <c r="B454" s="2"/>
       <c r="C454" s="2"/>
@@ -24416,7 +24415,7 @@
       <c r="AW454" s="2"/>
       <c r="AX454" s="2"/>
     </row>
-    <row r="455" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="2"/>
       <c r="B455" s="2"/>
       <c r="C455" s="2"/>
@@ -24468,7 +24467,7 @@
       <c r="AW455" s="2"/>
       <c r="AX455" s="2"/>
     </row>
-    <row r="456" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="2"/>
       <c r="B456" s="2"/>
       <c r="C456" s="2"/>
@@ -24520,7 +24519,7 @@
       <c r="AW456" s="2"/>
       <c r="AX456" s="2"/>
     </row>
-    <row r="457" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="2"/>
       <c r="B457" s="2"/>
       <c r="C457" s="2"/>
@@ -24572,7 +24571,7 @@
       <c r="AW457" s="2"/>
       <c r="AX457" s="2"/>
     </row>
-    <row r="458" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="2"/>
       <c r="B458" s="2"/>
       <c r="C458" s="2"/>
@@ -24624,7 +24623,7 @@
       <c r="AW458" s="2"/>
       <c r="AX458" s="2"/>
     </row>
-    <row r="459" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="2"/>
       <c r="B459" s="2"/>
       <c r="C459" s="2"/>
@@ -24676,7 +24675,7 @@
       <c r="AW459" s="2"/>
       <c r="AX459" s="2"/>
     </row>
-    <row r="460" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="2"/>
       <c r="B460" s="2"/>
       <c r="C460" s="2"/>
@@ -24728,7 +24727,7 @@
       <c r="AW460" s="2"/>
       <c r="AX460" s="2"/>
     </row>
-    <row r="461" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="2"/>
       <c r="B461" s="2"/>
       <c r="C461" s="2"/>
@@ -24780,7 +24779,7 @@
       <c r="AW461" s="2"/>
       <c r="AX461" s="2"/>
     </row>
-    <row r="462" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="2"/>
       <c r="B462" s="2"/>
       <c r="C462" s="2"/>
@@ -24832,7 +24831,7 @@
       <c r="AW462" s="2"/>
       <c r="AX462" s="2"/>
     </row>
-    <row r="463" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="2"/>
       <c r="B463" s="2"/>
       <c r="C463" s="2"/>
@@ -24884,7 +24883,7 @@
       <c r="AW463" s="2"/>
       <c r="AX463" s="2"/>
     </row>
-    <row r="464" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="2"/>
       <c r="B464" s="2"/>
       <c r="C464" s="2"/>
@@ -24936,7 +24935,7 @@
       <c r="AW464" s="2"/>
       <c r="AX464" s="2"/>
     </row>
-    <row r="465" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="2"/>
       <c r="B465" s="2"/>
       <c r="C465" s="2"/>
@@ -24988,7 +24987,7 @@
       <c r="AW465" s="2"/>
       <c r="AX465" s="2"/>
     </row>
-    <row r="466" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="2"/>
       <c r="B466" s="2"/>
       <c r="C466" s="2"/>
@@ -25040,7 +25039,7 @@
       <c r="AW466" s="2"/>
       <c r="AX466" s="2"/>
     </row>
-    <row r="467" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="2"/>
       <c r="B467" s="2"/>
       <c r="C467" s="2"/>
@@ -25092,7 +25091,7 @@
       <c r="AW467" s="2"/>
       <c r="AX467" s="2"/>
     </row>
-    <row r="468" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="2"/>
       <c r="B468" s="2"/>
       <c r="C468" s="2"/>
@@ -25144,7 +25143,7 @@
       <c r="AW468" s="2"/>
       <c r="AX468" s="2"/>
     </row>
-    <row r="469" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="2"/>
       <c r="B469" s="2"/>
       <c r="C469" s="2"/>
@@ -25196,7 +25195,7 @@
       <c r="AW469" s="2"/>
       <c r="AX469" s="2"/>
     </row>
-    <row r="470" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="2"/>
       <c r="B470" s="2"/>
       <c r="C470" s="2"/>
@@ -25248,7 +25247,7 @@
       <c r="AW470" s="2"/>
       <c r="AX470" s="2"/>
     </row>
-    <row r="471" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="2"/>
       <c r="B471" s="2"/>
       <c r="C471" s="2"/>
@@ -25300,7 +25299,7 @@
       <c r="AW471" s="2"/>
       <c r="AX471" s="2"/>
     </row>
-    <row r="472" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="2"/>
       <c r="B472" s="2"/>
       <c r="C472" s="2"/>
@@ -25352,7 +25351,7 @@
       <c r="AW472" s="2"/>
       <c r="AX472" s="2"/>
     </row>
-    <row r="473" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="2"/>
       <c r="B473" s="2"/>
       <c r="C473" s="2"/>
@@ -25404,7 +25403,7 @@
       <c r="AW473" s="2"/>
       <c r="AX473" s="2"/>
     </row>
-    <row r="474" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="2"/>
       <c r="B474" s="2"/>
       <c r="C474" s="2"/>
@@ -25456,7 +25455,7 @@
       <c r="AW474" s="2"/>
       <c r="AX474" s="2"/>
     </row>
-    <row r="475" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="2"/>
       <c r="B475" s="2"/>
       <c r="C475" s="2"/>
@@ -25508,7 +25507,7 @@
       <c r="AW475" s="2"/>
       <c r="AX475" s="2"/>
     </row>
-    <row r="476" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="2"/>
       <c r="B476" s="2"/>
       <c r="C476" s="2"/>
@@ -25560,7 +25559,7 @@
       <c r="AW476" s="2"/>
       <c r="AX476" s="2"/>
     </row>
-    <row r="477" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="2"/>
       <c r="B477" s="2"/>
       <c r="C477" s="2"/>
@@ -25612,7 +25611,7 @@
       <c r="AW477" s="2"/>
       <c r="AX477" s="2"/>
     </row>
-    <row r="478" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="2"/>
       <c r="B478" s="2"/>
       <c r="C478" s="2"/>
@@ -25664,7 +25663,7 @@
       <c r="AW478" s="2"/>
       <c r="AX478" s="2"/>
     </row>
-    <row r="479" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="2"/>
       <c r="B479" s="2"/>
       <c r="C479" s="2"/>
@@ -25716,7 +25715,7 @@
       <c r="AW479" s="2"/>
       <c r="AX479" s="2"/>
     </row>
-    <row r="480" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="2"/>
       <c r="B480" s="2"/>
       <c r="C480" s="2"/>
@@ -25768,7 +25767,7 @@
       <c r="AW480" s="2"/>
       <c r="AX480" s="2"/>
     </row>
-    <row r="481" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="2"/>
       <c r="B481" s="2"/>
       <c r="C481" s="2"/>
@@ -25820,7 +25819,7 @@
       <c r="AW481" s="2"/>
       <c r="AX481" s="2"/>
     </row>
-    <row r="482" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="2"/>
       <c r="B482" s="2"/>
       <c r="C482" s="2"/>
@@ -25872,7 +25871,7 @@
       <c r="AW482" s="2"/>
       <c r="AX482" s="2"/>
     </row>
-    <row r="483" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="2"/>
       <c r="B483" s="2"/>
       <c r="C483" s="2"/>
@@ -25924,7 +25923,7 @@
       <c r="AW483" s="2"/>
       <c r="AX483" s="2"/>
     </row>
-    <row r="484" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="2"/>
       <c r="B484" s="2"/>
       <c r="C484" s="2"/>
@@ -25976,7 +25975,7 @@
       <c r="AW484" s="2"/>
       <c r="AX484" s="2"/>
     </row>
-    <row r="485" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="2"/>
       <c r="B485" s="2"/>
       <c r="C485" s="2"/>
@@ -26028,7 +26027,7 @@
       <c r="AW485" s="2"/>
       <c r="AX485" s="2"/>
     </row>
-    <row r="486" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="2"/>
       <c r="B486" s="2"/>
       <c r="C486" s="2"/>
@@ -26080,7 +26079,7 @@
       <c r="AW486" s="2"/>
       <c r="AX486" s="2"/>
     </row>
-    <row r="487" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="2"/>
       <c r="B487" s="2"/>
       <c r="C487" s="2"/>
@@ -26132,7 +26131,7 @@
       <c r="AW487" s="2"/>
       <c r="AX487" s="2"/>
     </row>
-    <row r="488" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="2"/>
       <c r="B488" s="2"/>
       <c r="C488" s="2"/>
@@ -26184,7 +26183,7 @@
       <c r="AW488" s="2"/>
       <c r="AX488" s="2"/>
     </row>
-    <row r="489" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="2"/>
       <c r="B489" s="2"/>
       <c r="C489" s="2"/>
@@ -26236,7 +26235,7 @@
       <c r="AW489" s="2"/>
       <c r="AX489" s="2"/>
     </row>
-    <row r="490" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="2"/>
       <c r="B490" s="2"/>
       <c r="C490" s="2"/>
@@ -26288,7 +26287,7 @@
       <c r="AW490" s="2"/>
       <c r="AX490" s="2"/>
     </row>
-    <row r="491" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="2"/>
       <c r="B491" s="2"/>
       <c r="C491" s="2"/>
@@ -26340,7 +26339,7 @@
       <c r="AW491" s="2"/>
       <c r="AX491" s="2"/>
     </row>
-    <row r="492" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="2"/>
       <c r="B492" s="2"/>
       <c r="C492" s="2"/>
@@ -26392,7 +26391,7 @@
       <c r="AW492" s="2"/>
       <c r="AX492" s="2"/>
     </row>
-    <row r="493" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="2"/>
       <c r="B493" s="2"/>
       <c r="C493" s="2"/>
@@ -26444,7 +26443,7 @@
       <c r="AW493" s="2"/>
       <c r="AX493" s="2"/>
     </row>
-    <row r="494" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="2"/>
       <c r="B494" s="2"/>
       <c r="C494" s="2"/>
@@ -26496,7 +26495,7 @@
       <c r="AW494" s="2"/>
       <c r="AX494" s="2"/>
     </row>
-    <row r="495" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="2"/>
       <c r="B495" s="2"/>
       <c r="C495" s="2"/>
@@ -26548,7 +26547,7 @@
       <c r="AW495" s="2"/>
       <c r="AX495" s="2"/>
     </row>
-    <row r="496" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="2"/>
       <c r="B496" s="2"/>
       <c r="C496" s="2"/>
@@ -26600,7 +26599,7 @@
       <c r="AW496" s="2"/>
       <c r="AX496" s="2"/>
     </row>
-    <row r="497" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="2"/>
       <c r="B497" s="2"/>
       <c r="C497" s="2"/>
@@ -26652,7 +26651,7 @@
       <c r="AW497" s="2"/>
       <c r="AX497" s="2"/>
     </row>
-    <row r="498" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="2"/>
       <c r="B498" s="2"/>
       <c r="C498" s="2"/>
@@ -26704,7 +26703,7 @@
       <c r="AW498" s="2"/>
       <c r="AX498" s="2"/>
     </row>
-    <row r="499" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="2"/>
       <c r="B499" s="2"/>
       <c r="C499" s="2"/>
@@ -26756,7 +26755,7 @@
       <c r="AW499" s="2"/>
       <c r="AX499" s="2"/>
     </row>
-    <row r="500" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="2"/>
       <c r="B500" s="2"/>
       <c r="C500" s="2"/>
@@ -26808,7 +26807,7 @@
       <c r="AW500" s="2"/>
       <c r="AX500" s="2"/>
     </row>
-    <row r="501" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="2"/>
       <c r="B501" s="2"/>
       <c r="C501" s="2"/>
@@ -26860,7 +26859,7 @@
       <c r="AW501" s="2"/>
       <c r="AX501" s="2"/>
     </row>
-    <row r="502" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="2"/>
       <c r="B502" s="2"/>
       <c r="C502" s="2"/>
@@ -26912,7 +26911,7 @@
       <c r="AW502" s="2"/>
       <c r="AX502" s="2"/>
     </row>
-    <row r="503" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="2"/>
       <c r="B503" s="2"/>
       <c r="C503" s="2"/>
@@ -26964,7 +26963,7 @@
       <c r="AW503" s="2"/>
       <c r="AX503" s="2"/>
     </row>
-    <row r="504" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="2"/>
       <c r="B504" s="2"/>
       <c r="C504" s="2"/>
@@ -27016,7 +27015,7 @@
       <c r="AW504" s="2"/>
       <c r="AX504" s="2"/>
     </row>
-    <row r="505" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="2"/>
       <c r="B505" s="2"/>
       <c r="C505" s="2"/>
@@ -27068,7 +27067,7 @@
       <c r="AW505" s="2"/>
       <c r="AX505" s="2"/>
     </row>
-    <row r="506" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="2"/>
       <c r="B506" s="2"/>
       <c r="C506" s="2"/>
@@ -27120,7 +27119,7 @@
       <c r="AW506" s="2"/>
       <c r="AX506" s="2"/>
     </row>
-    <row r="507" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="2"/>
       <c r="B507" s="2"/>
       <c r="C507" s="2"/>
@@ -27172,7 +27171,7 @@
       <c r="AW507" s="2"/>
       <c r="AX507" s="2"/>
     </row>
-    <row r="508" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="2"/>
       <c r="B508" s="2"/>
       <c r="C508" s="2"/>
@@ -27224,7 +27223,7 @@
       <c r="AW508" s="2"/>
       <c r="AX508" s="2"/>
     </row>
-    <row r="509" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="2"/>
       <c r="B509" s="2"/>
       <c r="C509" s="2"/>
@@ -27276,7 +27275,7 @@
       <c r="AW509" s="2"/>
       <c r="AX509" s="2"/>
     </row>
-    <row r="510" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="2"/>
       <c r="B510" s="2"/>
       <c r="C510" s="2"/>
@@ -27328,7 +27327,7 @@
       <c r="AW510" s="2"/>
       <c r="AX510" s="2"/>
     </row>
-    <row r="511" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="2"/>
       <c r="B511" s="2"/>
       <c r="C511" s="2"/>
@@ -27380,7 +27379,7 @@
       <c r="AW511" s="2"/>
       <c r="AX511" s="2"/>
     </row>
-    <row r="512" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="2"/>
       <c r="B512" s="2"/>
       <c r="C512" s="2"/>
@@ -27432,7 +27431,7 @@
       <c r="AW512" s="2"/>
       <c r="AX512" s="2"/>
     </row>
-    <row r="513" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="2"/>
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
@@ -27484,7 +27483,7 @@
       <c r="AW513" s="2"/>
       <c r="AX513" s="2"/>
     </row>
-    <row r="514" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="2"/>
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
@@ -27536,7 +27535,7 @@
       <c r="AW514" s="2"/>
       <c r="AX514" s="2"/>
     </row>
-    <row r="515" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="2"/>
       <c r="B515" s="2"/>
       <c r="C515" s="2"/>
@@ -27588,7 +27587,7 @@
       <c r="AW515" s="2"/>
       <c r="AX515" s="2"/>
     </row>
-    <row r="516" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="2"/>
       <c r="B516" s="2"/>
       <c r="C516" s="2"/>
@@ -27640,7 +27639,7 @@
       <c r="AW516" s="2"/>
       <c r="AX516" s="2"/>
     </row>
-    <row r="517" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="2"/>
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
@@ -27692,7 +27691,7 @@
       <c r="AW517" s="2"/>
       <c r="AX517" s="2"/>
     </row>
-    <row r="518" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="2"/>
       <c r="B518" s="2"/>
       <c r="C518" s="2"/>
@@ -27744,7 +27743,7 @@
       <c r="AW518" s="2"/>
       <c r="AX518" s="2"/>
     </row>
-    <row r="519" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="2"/>
       <c r="B519" s="2"/>
       <c r="C519" s="2"/>
@@ -27796,7 +27795,7 @@
       <c r="AW519" s="2"/>
       <c r="AX519" s="2"/>
     </row>
-    <row r="520" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="2"/>
       <c r="B520" s="2"/>
       <c r="C520" s="2"/>
@@ -27848,7 +27847,7 @@
       <c r="AW520" s="2"/>
       <c r="AX520" s="2"/>
     </row>
-    <row r="521" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="2"/>
       <c r="B521" s="2"/>
       <c r="C521" s="2"/>
@@ -27900,7 +27899,7 @@
       <c r="AW521" s="2"/>
       <c r="AX521" s="2"/>
     </row>
-    <row r="522" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="2"/>
       <c r="B522" s="2"/>
       <c r="C522" s="2"/>
@@ -27952,7 +27951,7 @@
       <c r="AW522" s="2"/>
       <c r="AX522" s="2"/>
     </row>
-    <row r="523" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="2"/>
       <c r="B523" s="2"/>
       <c r="C523" s="2"/>
@@ -28004,7 +28003,7 @@
       <c r="AW523" s="2"/>
       <c r="AX523" s="2"/>
     </row>
-    <row r="524" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="2"/>
       <c r="B524" s="2"/>
       <c r="C524" s="2"/>
@@ -28056,7 +28055,7 @@
       <c r="AW524" s="2"/>
       <c r="AX524" s="2"/>
     </row>
-    <row r="525" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="2"/>
       <c r="B525" s="2"/>
       <c r="C525" s="2"/>
@@ -28108,7 +28107,7 @@
       <c r="AW525" s="2"/>
       <c r="AX525" s="2"/>
     </row>
-    <row r="526" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="2"/>
       <c r="B526" s="2"/>
       <c r="C526" s="2"/>
@@ -28160,7 +28159,7 @@
       <c r="AW526" s="2"/>
       <c r="AX526" s="2"/>
     </row>
-    <row r="527" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="2"/>
       <c r="B527" s="2"/>
       <c r="C527" s="2"/>
@@ -28212,7 +28211,7 @@
       <c r="AW527" s="2"/>
       <c r="AX527" s="2"/>
     </row>
-    <row r="528" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="2"/>
       <c r="B528" s="2"/>
       <c r="C528" s="2"/>
@@ -28264,7 +28263,7 @@
       <c r="AW528" s="2"/>
       <c r="AX528" s="2"/>
     </row>
-    <row r="529" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="2"/>
       <c r="B529" s="2"/>
       <c r="C529" s="2"/>
@@ -28316,7 +28315,7 @@
       <c r="AW529" s="2"/>
       <c r="AX529" s="2"/>
     </row>
-    <row r="530" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="2"/>
       <c r="B530" s="2"/>
       <c r="C530" s="2"/>
@@ -28368,7 +28367,7 @@
       <c r="AW530" s="2"/>
       <c r="AX530" s="2"/>
     </row>
-    <row r="531" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="2"/>
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
@@ -28420,7 +28419,7 @@
       <c r="AW531" s="2"/>
       <c r="AX531" s="2"/>
     </row>
-    <row r="532" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="2"/>
       <c r="B532" s="2"/>
       <c r="C532" s="2"/>
@@ -28472,7 +28471,7 @@
       <c r="AW532" s="2"/>
       <c r="AX532" s="2"/>
     </row>
-    <row r="533" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="2"/>
       <c r="B533" s="2"/>
       <c r="C533" s="2"/>
@@ -28524,7 +28523,7 @@
       <c r="AW533" s="2"/>
       <c r="AX533" s="2"/>
     </row>
-    <row r="534" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="2"/>
       <c r="B534" s="2"/>
       <c r="C534" s="2"/>
@@ -28576,7 +28575,7 @@
       <c r="AW534" s="2"/>
       <c r="AX534" s="2"/>
     </row>
-    <row r="535" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="2"/>
       <c r="B535" s="2"/>
       <c r="C535" s="2"/>
@@ -28628,7 +28627,7 @@
       <c r="AW535" s="2"/>
       <c r="AX535" s="2"/>
     </row>
-    <row r="536" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="2"/>
       <c r="B536" s="2"/>
       <c r="C536" s="2"/>
@@ -28680,7 +28679,7 @@
       <c r="AW536" s="2"/>
       <c r="AX536" s="2"/>
     </row>
-    <row r="537" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="2"/>
       <c r="B537" s="2"/>
       <c r="C537" s="2"/>
@@ -28732,7 +28731,7 @@
       <c r="AW537" s="2"/>
       <c r="AX537" s="2"/>
     </row>
-    <row r="538" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="2"/>
       <c r="B538" s="2"/>
       <c r="C538" s="2"/>
@@ -28784,7 +28783,7 @@
       <c r="AW538" s="2"/>
       <c r="AX538" s="2"/>
     </row>
-    <row r="539" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="2"/>
       <c r="B539" s="2"/>
       <c r="C539" s="2"/>
@@ -28836,7 +28835,7 @@
       <c r="AW539" s="2"/>
       <c r="AX539" s="2"/>
     </row>
-    <row r="540" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="2"/>
       <c r="B540" s="2"/>
       <c r="C540" s="2"/>
@@ -28888,7 +28887,7 @@
       <c r="AW540" s="2"/>
       <c r="AX540" s="2"/>
     </row>
-    <row r="541" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="2"/>
       <c r="B541" s="2"/>
       <c r="C541" s="2"/>
@@ -28940,7 +28939,7 @@
       <c r="AW541" s="2"/>
       <c r="AX541" s="2"/>
     </row>
-    <row r="542" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="2"/>
       <c r="B542" s="2"/>
       <c r="C542" s="2"/>
@@ -28992,7 +28991,7 @@
       <c r="AW542" s="2"/>
       <c r="AX542" s="2"/>
     </row>
-    <row r="543" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="2"/>
       <c r="B543" s="2"/>
       <c r="C543" s="2"/>
@@ -29044,7 +29043,7 @@
       <c r="AW543" s="2"/>
       <c r="AX543" s="2"/>
     </row>
-    <row r="544" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="2"/>
       <c r="B544" s="2"/>
       <c r="C544" s="2"/>
@@ -29096,7 +29095,7 @@
       <c r="AW544" s="2"/>
       <c r="AX544" s="2"/>
     </row>
-    <row r="545" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="2"/>
       <c r="B545" s="2"/>
       <c r="C545" s="2"/>
@@ -29148,7 +29147,7 @@
       <c r="AW545" s="2"/>
       <c r="AX545" s="2"/>
     </row>
-    <row r="546" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="2"/>
       <c r="B546" s="2"/>
       <c r="C546" s="2"/>
@@ -29200,7 +29199,7 @@
       <c r="AW546" s="2"/>
       <c r="AX546" s="2"/>
     </row>
-    <row r="547" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="2"/>
       <c r="B547" s="2"/>
       <c r="C547" s="2"/>
@@ -29252,7 +29251,7 @@
       <c r="AW547" s="2"/>
       <c r="AX547" s="2"/>
     </row>
-    <row r="548" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="2"/>
       <c r="B548" s="2"/>
       <c r="C548" s="2"/>
@@ -29304,7 +29303,7 @@
       <c r="AW548" s="2"/>
       <c r="AX548" s="2"/>
     </row>
-    <row r="549" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="2"/>
       <c r="B549" s="2"/>
       <c r="C549" s="2"/>
@@ -29356,7 +29355,7 @@
       <c r="AW549" s="2"/>
       <c r="AX549" s="2"/>
     </row>
-    <row r="550" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="2"/>
       <c r="B550" s="2"/>
       <c r="C550" s="2"/>
@@ -29408,7 +29407,7 @@
       <c r="AW550" s="2"/>
       <c r="AX550" s="2"/>
     </row>
-    <row r="551" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="2"/>
       <c r="B551" s="2"/>
       <c r="C551" s="2"/>
@@ -29460,7 +29459,7 @@
       <c r="AW551" s="2"/>
       <c r="AX551" s="2"/>
     </row>
-    <row r="552" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="2"/>
       <c r="B552" s="2"/>
       <c r="C552" s="2"/>
@@ -29512,7 +29511,7 @@
       <c r="AW552" s="2"/>
       <c r="AX552" s="2"/>
     </row>
-    <row r="553" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="2"/>
       <c r="B553" s="2"/>
       <c r="C553" s="2"/>
@@ -29564,7 +29563,7 @@
       <c r="AW553" s="2"/>
       <c r="AX553" s="2"/>
     </row>
-    <row r="554" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="2"/>
       <c r="B554" s="2"/>
       <c r="C554" s="2"/>
@@ -29616,7 +29615,7 @@
       <c r="AW554" s="2"/>
       <c r="AX554" s="2"/>
     </row>
-    <row r="555" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="2"/>
       <c r="B555" s="2"/>
       <c r="C555" s="2"/>
@@ -29668,7 +29667,7 @@
       <c r="AW555" s="2"/>
       <c r="AX555" s="2"/>
     </row>
-    <row r="556" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="2"/>
       <c r="B556" s="2"/>
       <c r="C556" s="2"/>
@@ -29720,7 +29719,7 @@
       <c r="AW556" s="2"/>
       <c r="AX556" s="2"/>
     </row>
-    <row r="557" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="2"/>
       <c r="B557" s="2"/>
       <c r="C557" s="2"/>
@@ -29772,7 +29771,7 @@
       <c r="AW557" s="2"/>
       <c r="AX557" s="2"/>
     </row>
-    <row r="558" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="2"/>
       <c r="B558" s="2"/>
       <c r="C558" s="2"/>
@@ -29824,7 +29823,7 @@
       <c r="AW558" s="2"/>
       <c r="AX558" s="2"/>
     </row>
-    <row r="559" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="2"/>
       <c r="B559" s="2"/>
       <c r="C559" s="2"/>
@@ -29876,7 +29875,7 @@
       <c r="AW559" s="2"/>
       <c r="AX559" s="2"/>
     </row>
-    <row r="560" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="2"/>
       <c r="B560" s="2"/>
       <c r="C560" s="2"/>
@@ -29928,7 +29927,7 @@
       <c r="AW560" s="2"/>
       <c r="AX560" s="2"/>
     </row>
-    <row r="561" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="2"/>
       <c r="B561" s="2"/>
       <c r="C561" s="2"/>
@@ -29980,7 +29979,7 @@
       <c r="AW561" s="2"/>
       <c r="AX561" s="2"/>
     </row>
-    <row r="562" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="2"/>
       <c r="B562" s="2"/>
       <c r="C562" s="2"/>
@@ -30032,7 +30031,7 @@
       <c r="AW562" s="2"/>
       <c r="AX562" s="2"/>
     </row>
-    <row r="563" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="2"/>
       <c r="B563" s="2"/>
       <c r="C563" s="2"/>
@@ -30084,7 +30083,7 @@
       <c r="AW563" s="2"/>
       <c r="AX563" s="2"/>
     </row>
-    <row r="564" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="2"/>
       <c r="B564" s="2"/>
       <c r="C564" s="2"/>
@@ -30136,7 +30135,7 @@
       <c r="AW564" s="2"/>
       <c r="AX564" s="2"/>
     </row>
-    <row r="565" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="2"/>
       <c r="B565" s="2"/>
       <c r="C565" s="2"/>
@@ -30188,7 +30187,7 @@
       <c r="AW565" s="2"/>
       <c r="AX565" s="2"/>
     </row>
-    <row r="566" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="2"/>
       <c r="B566" s="2"/>
       <c r="C566" s="2"/>
@@ -30240,7 +30239,7 @@
       <c r="AW566" s="2"/>
       <c r="AX566" s="2"/>
     </row>
-    <row r="567" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="2"/>
       <c r="B567" s="2"/>
       <c r="C567" s="2"/>
@@ -30292,7 +30291,7 @@
       <c r="AW567" s="2"/>
       <c r="AX567" s="2"/>
     </row>
-    <row r="568" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="2"/>
       <c r="B568" s="2"/>
       <c r="C568" s="2"/>
@@ -30344,7 +30343,7 @@
       <c r="AW568" s="2"/>
       <c r="AX568" s="2"/>
     </row>
-    <row r="569" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="2"/>
       <c r="B569" s="2"/>
       <c r="C569" s="2"/>
@@ -30396,7 +30395,7 @@
       <c r="AW569" s="2"/>
       <c r="AX569" s="2"/>
     </row>
-    <row r="570" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="2"/>
       <c r="B570" s="2"/>
       <c r="C570" s="2"/>
@@ -30448,7 +30447,7 @@
       <c r="AW570" s="2"/>
       <c r="AX570" s="2"/>
     </row>
-    <row r="571" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="2"/>
       <c r="B571" s="2"/>
       <c r="C571" s="2"/>
@@ -30500,7 +30499,7 @@
       <c r="AW571" s="2"/>
       <c r="AX571" s="2"/>
     </row>
-    <row r="572" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="2"/>
       <c r="B572" s="2"/>
       <c r="C572" s="2"/>
@@ -30552,7 +30551,7 @@
       <c r="AW572" s="2"/>
       <c r="AX572" s="2"/>
     </row>
-    <row r="573" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="2"/>
       <c r="B573" s="2"/>
       <c r="C573" s="2"/>
@@ -30604,7 +30603,7 @@
       <c r="AW573" s="2"/>
       <c r="AX573" s="2"/>
     </row>
-    <row r="574" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="2"/>
       <c r="B574" s="2"/>
       <c r="C574" s="2"/>
@@ -30656,7 +30655,7 @@
       <c r="AW574" s="2"/>
       <c r="AX574" s="2"/>
     </row>
-    <row r="575" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="2"/>
       <c r="B575" s="2"/>
       <c r="C575" s="2"/>
@@ -30708,7 +30707,7 @@
       <c r="AW575" s="2"/>
       <c r="AX575" s="2"/>
     </row>
-    <row r="576" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="2"/>
       <c r="B576" s="2"/>
       <c r="C576" s="2"/>
@@ -30760,7 +30759,7 @@
       <c r="AW576" s="2"/>
       <c r="AX576" s="2"/>
     </row>
-    <row r="577" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="2"/>
       <c r="B577" s="2"/>
       <c r="C577" s="2"/>
@@ -30812,7 +30811,7 @@
       <c r="AW577" s="2"/>
       <c r="AX577" s="2"/>
     </row>
-    <row r="578" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="2"/>
       <c r="B578" s="2"/>
       <c r="C578" s="2"/>
@@ -30864,7 +30863,7 @@
       <c r="AW578" s="2"/>
       <c r="AX578" s="2"/>
     </row>
-    <row r="579" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="2"/>
       <c r="B579" s="2"/>
       <c r="C579" s="2"/>
@@ -30916,7 +30915,7 @@
       <c r="AW579" s="2"/>
       <c r="AX579" s="2"/>
     </row>
-    <row r="580" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="2"/>
       <c r="B580" s="2"/>
       <c r="C580" s="2"/>
@@ -30968,7 +30967,7 @@
       <c r="AW580" s="2"/>
       <c r="AX580" s="2"/>
     </row>
-    <row r="581" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="2"/>
       <c r="B581" s="2"/>
       <c r="C581" s="2"/>
@@ -31020,7 +31019,7 @@
       <c r="AW581" s="2"/>
       <c r="AX581" s="2"/>
     </row>
-    <row r="582" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="2"/>
       <c r="B582" s="2"/>
       <c r="C582" s="2"/>
@@ -31072,7 +31071,7 @@
       <c r="AW582" s="2"/>
       <c r="AX582" s="2"/>
     </row>
-    <row r="583" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="2"/>
       <c r="B583" s="2"/>
       <c r="C583" s="2"/>
@@ -31124,7 +31123,7 @@
       <c r="AW583" s="2"/>
       <c r="AX583" s="2"/>
     </row>
-    <row r="584" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="2"/>
       <c r="B584" s="2"/>
       <c r="C584" s="2"/>
@@ -31176,7 +31175,7 @@
       <c r="AW584" s="2"/>
       <c r="AX584" s="2"/>
     </row>
-    <row r="585" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="2"/>
       <c r="B585" s="2"/>
       <c r="C585" s="2"/>
@@ -31228,7 +31227,7 @@
       <c r="AW585" s="2"/>
       <c r="AX585" s="2"/>
     </row>
-    <row r="586" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="2"/>
       <c r="B586" s="2"/>
       <c r="C586" s="2"/>
@@ -31280,7 +31279,7 @@
       <c r="AW586" s="2"/>
       <c r="AX586" s="2"/>
     </row>
-    <row r="587" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="2"/>
       <c r="B587" s="2"/>
       <c r="C587" s="2"/>
@@ -31332,7 +31331,7 @@
       <c r="AW587" s="2"/>
       <c r="AX587" s="2"/>
     </row>
-    <row r="588" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="2"/>
       <c r="B588" s="2"/>
       <c r="C588" s="2"/>
@@ -31384,7 +31383,7 @@
       <c r="AW588" s="2"/>
       <c r="AX588" s="2"/>
     </row>
-    <row r="589" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="2"/>
       <c r="B589" s="2"/>
       <c r="C589" s="2"/>
@@ -31436,7 +31435,7 @@
       <c r="AW589" s="2"/>
       <c r="AX589" s="2"/>
     </row>
-    <row r="590" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="2"/>
       <c r="B590" s="2"/>
       <c r="C590" s="2"/>
@@ -31488,7 +31487,7 @@
       <c r="AW590" s="2"/>
       <c r="AX590" s="2"/>
     </row>
-    <row r="591" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="2"/>
       <c r="B591" s="2"/>
       <c r="C591" s="2"/>
@@ -31540,7 +31539,7 @@
       <c r="AW591" s="2"/>
       <c r="AX591" s="2"/>
     </row>
-    <row r="592" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="2"/>
       <c r="B592" s="2"/>
       <c r="C592" s="2"/>
@@ -31592,7 +31591,7 @@
       <c r="AW592" s="2"/>
       <c r="AX592" s="2"/>
     </row>
-    <row r="593" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="2"/>
       <c r="B593" s="2"/>
       <c r="C593" s="2"/>
@@ -31644,7 +31643,7 @@
       <c r="AW593" s="2"/>
       <c r="AX593" s="2"/>
     </row>
-    <row r="594" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="2"/>
       <c r="B594" s="2"/>
       <c r="C594" s="2"/>
@@ -31696,7 +31695,7 @@
       <c r="AW594" s="2"/>
       <c r="AX594" s="2"/>
     </row>
-    <row r="595" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="2"/>
       <c r="B595" s="2"/>
       <c r="C595" s="2"/>
@@ -31748,7 +31747,7 @@
       <c r="AW595" s="2"/>
       <c r="AX595" s="2"/>
     </row>
-    <row r="596" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="2"/>
       <c r="B596" s="2"/>
       <c r="C596" s="2"/>
@@ -31800,7 +31799,7 @@
       <c r="AW596" s="2"/>
       <c r="AX596" s="2"/>
     </row>
-    <row r="597" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="2"/>
       <c r="B597" s="2"/>
       <c r="C597" s="2"/>
@@ -31852,7 +31851,7 @@
       <c r="AW597" s="2"/>
       <c r="AX597" s="2"/>
     </row>
-    <row r="598" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="2"/>
       <c r="B598" s="2"/>
       <c r="C598" s="2"/>
@@ -31904,7 +31903,7 @@
       <c r="AW598" s="2"/>
       <c r="AX598" s="2"/>
     </row>
-    <row r="599" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="2"/>
       <c r="B599" s="2"/>
       <c r="C599" s="2"/>
@@ -31956,7 +31955,7 @@
       <c r="AW599" s="2"/>
       <c r="AX599" s="2"/>
     </row>
-    <row r="600" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="2"/>
       <c r="B600" s="2"/>
       <c r="C600" s="2"/>
@@ -32008,7 +32007,7 @@
       <c r="AW600" s="2"/>
       <c r="AX600" s="2"/>
     </row>
-    <row r="601" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="2"/>
       <c r="B601" s="2"/>
       <c r="C601" s="2"/>
@@ -32060,7 +32059,7 @@
       <c r="AW601" s="2"/>
       <c r="AX601" s="2"/>
     </row>
-    <row r="602" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="2"/>
       <c r="B602" s="2"/>
       <c r="C602" s="2"/>
@@ -32112,7 +32111,7 @@
       <c r="AW602" s="2"/>
       <c r="AX602" s="2"/>
     </row>
-    <row r="603" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="2"/>
       <c r="B603" s="2"/>
       <c r="C603" s="2"/>
@@ -32164,7 +32163,7 @@
       <c r="AW603" s="2"/>
       <c r="AX603" s="2"/>
     </row>
-    <row r="604" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="2"/>
       <c r="B604" s="2"/>
       <c r="C604" s="2"/>
@@ -32216,7 +32215,7 @@
       <c r="AW604" s="2"/>
       <c r="AX604" s="2"/>
     </row>
-    <row r="605" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" s="2"/>
       <c r="B605" s="2"/>
       <c r="C605" s="2"/>
@@ -32268,7 +32267,7 @@
       <c r="AW605" s="2"/>
       <c r="AX605" s="2"/>
     </row>
-    <row r="606" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="2"/>
       <c r="B606" s="2"/>
       <c r="C606" s="2"/>
@@ -32320,7 +32319,7 @@
       <c r="AW606" s="2"/>
       <c r="AX606" s="2"/>
     </row>
-    <row r="607" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" s="2"/>
       <c r="B607" s="2"/>
       <c r="C607" s="2"/>
@@ -32372,7 +32371,7 @@
       <c r="AW607" s="2"/>
       <c r="AX607" s="2"/>
     </row>
-    <row r="608" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" s="2"/>
       <c r="B608" s="2"/>
       <c r="C608" s="2"/>
@@ -32424,7 +32423,7 @@
       <c r="AW608" s="2"/>
       <c r="AX608" s="2"/>
     </row>
-    <row r="609" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" s="2"/>
       <c r="B609" s="2"/>
       <c r="C609" s="2"/>
@@ -32476,7 +32475,7 @@
       <c r="AW609" s="2"/>
       <c r="AX609" s="2"/>
     </row>
-    <row r="610" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" s="2"/>
       <c r="B610" s="2"/>
       <c r="C610" s="2"/>
@@ -32528,7 +32527,7 @@
       <c r="AW610" s="2"/>
       <c r="AX610" s="2"/>
     </row>
-    <row r="611" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A611" s="2"/>
       <c r="B611" s="2"/>
       <c r="C611" s="2"/>
@@ -32580,7 +32579,7 @@
       <c r="AW611" s="2"/>
       <c r="AX611" s="2"/>
     </row>
-    <row r="612" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" s="2"/>
       <c r="B612" s="2"/>
       <c r="C612" s="2"/>
@@ -32632,7 +32631,7 @@
       <c r="AW612" s="2"/>
       <c r="AX612" s="2"/>
     </row>
-    <row r="613" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" s="2"/>
       <c r="B613" s="2"/>
       <c r="C613" s="2"/>
@@ -32684,7 +32683,7 @@
       <c r="AW613" s="2"/>
       <c r="AX613" s="2"/>
     </row>
-    <row r="614" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" s="2"/>
       <c r="B614" s="2"/>
       <c r="C614" s="2"/>
@@ -32736,7 +32735,7 @@
       <c r="AW614" s="2"/>
       <c r="AX614" s="2"/>
     </row>
-    <row r="615" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" s="2"/>
       <c r="B615" s="2"/>
       <c r="C615" s="2"/>
@@ -32788,7 +32787,7 @@
       <c r="AW615" s="2"/>
       <c r="AX615" s="2"/>
     </row>
-    <row r="616" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" s="2"/>
       <c r="B616" s="2"/>
       <c r="C616" s="2"/>
@@ -32840,7 +32839,7 @@
       <c r="AW616" s="2"/>
       <c r="AX616" s="2"/>
     </row>
-    <row r="617" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="2"/>
       <c r="B617" s="2"/>
       <c r="C617" s="2"/>
@@ -32892,7 +32891,7 @@
       <c r="AW617" s="2"/>
       <c r="AX617" s="2"/>
     </row>
-    <row r="618" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" s="2"/>
       <c r="B618" s="2"/>
       <c r="C618" s="2"/>
@@ -32944,7 +32943,7 @@
       <c r="AW618" s="2"/>
       <c r="AX618" s="2"/>
     </row>
-    <row r="619" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A619" s="2"/>
       <c r="B619" s="2"/>
       <c r="C619" s="2"/>
@@ -32996,7 +32995,7 @@
       <c r="AW619" s="2"/>
       <c r="AX619" s="2"/>
     </row>
-    <row r="620" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" s="2"/>
       <c r="B620" s="2"/>
       <c r="C620" s="2"/>
@@ -33048,7 +33047,7 @@
       <c r="AW620" s="2"/>
       <c r="AX620" s="2"/>
     </row>
-    <row r="621" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" s="2"/>
       <c r="B621" s="2"/>
       <c r="C621" s="2"/>
@@ -33100,7 +33099,7 @@
       <c r="AW621" s="2"/>
       <c r="AX621" s="2"/>
     </row>
-    <row r="622" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A622" s="2"/>
       <c r="B622" s="2"/>
       <c r="C622" s="2"/>
@@ -33152,7 +33151,7 @@
       <c r="AW622" s="2"/>
       <c r="AX622" s="2"/>
     </row>
-    <row r="623" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A623" s="2"/>
       <c r="B623" s="2"/>
       <c r="C623" s="2"/>
@@ -33204,7 +33203,7 @@
       <c r="AW623" s="2"/>
       <c r="AX623" s="2"/>
     </row>
-    <row r="624" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A624" s="2"/>
       <c r="B624" s="2"/>
       <c r="C624" s="2"/>
@@ -33256,7 +33255,7 @@
       <c r="AW624" s="2"/>
       <c r="AX624" s="2"/>
     </row>
-    <row r="625" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625" s="2"/>
       <c r="B625" s="2"/>
       <c r="C625" s="2"/>
@@ -33308,7 +33307,7 @@
       <c r="AW625" s="2"/>
       <c r="AX625" s="2"/>
     </row>
-    <row r="626" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626" s="2"/>
       <c r="B626" s="2"/>
       <c r="C626" s="2"/>
@@ -33360,7 +33359,7 @@
       <c r="AW626" s="2"/>
       <c r="AX626" s="2"/>
     </row>
-    <row r="627" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" s="2"/>
       <c r="B627" s="2"/>
       <c r="C627" s="2"/>
@@ -33412,7 +33411,7 @@
       <c r="AW627" s="2"/>
       <c r="AX627" s="2"/>
     </row>
-    <row r="628" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A628" s="2"/>
       <c r="B628" s="2"/>
       <c r="C628" s="2"/>
@@ -33464,7 +33463,7 @@
       <c r="AW628" s="2"/>
       <c r="AX628" s="2"/>
     </row>
-    <row r="629" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629" s="2"/>
       <c r="B629" s="2"/>
       <c r="C629" s="2"/>
@@ -33516,7 +33515,7 @@
       <c r="AW629" s="2"/>
       <c r="AX629" s="2"/>
     </row>
-    <row r="630" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" s="2"/>
       <c r="B630" s="2"/>
       <c r="C630" s="2"/>
@@ -33568,7 +33567,7 @@
       <c r="AW630" s="2"/>
       <c r="AX630" s="2"/>
     </row>
-    <row r="631" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A631" s="2"/>
       <c r="B631" s="2"/>
       <c r="C631" s="2"/>
@@ -33620,7 +33619,7 @@
       <c r="AW631" s="2"/>
       <c r="AX631" s="2"/>
     </row>
-    <row r="632" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A632" s="2"/>
       <c r="B632" s="2"/>
       <c r="C632" s="2"/>
@@ -33672,7 +33671,7 @@
       <c r="AW632" s="2"/>
       <c r="AX632" s="2"/>
     </row>
-    <row r="633" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A633" s="2"/>
       <c r="B633" s="2"/>
       <c r="C633" s="2"/>
@@ -33724,7 +33723,7 @@
       <c r="AW633" s="2"/>
       <c r="AX633" s="2"/>
     </row>
-    <row r="634" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634" s="2"/>
       <c r="B634" s="2"/>
       <c r="C634" s="2"/>
@@ -33776,7 +33775,7 @@
       <c r="AW634" s="2"/>
       <c r="AX634" s="2"/>
     </row>
-    <row r="635" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A635" s="2"/>
       <c r="B635" s="2"/>
       <c r="C635" s="2"/>
@@ -33828,7 +33827,7 @@
       <c r="AW635" s="2"/>
       <c r="AX635" s="2"/>
     </row>
-    <row r="636" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A636" s="2"/>
       <c r="B636" s="2"/>
       <c r="C636" s="2"/>
@@ -33880,7 +33879,7 @@
       <c r="AW636" s="2"/>
       <c r="AX636" s="2"/>
     </row>
-    <row r="637" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A637" s="2"/>
       <c r="B637" s="2"/>
       <c r="C637" s="2"/>
@@ -33932,7 +33931,7 @@
       <c r="AW637" s="2"/>
       <c r="AX637" s="2"/>
     </row>
-    <row r="638" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" s="2"/>
       <c r="B638" s="2"/>
       <c r="C638" s="2"/>
@@ -33984,7 +33983,7 @@
       <c r="AW638" s="2"/>
       <c r="AX638" s="2"/>
     </row>
-    <row r="639" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A639" s="2"/>
       <c r="B639" s="2"/>
       <c r="C639" s="2"/>
@@ -34036,7 +34035,7 @@
       <c r="AW639" s="2"/>
       <c r="AX639" s="2"/>
     </row>
-    <row r="640" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640" s="2"/>
       <c r="B640" s="2"/>
       <c r="C640" s="2"/>
@@ -34088,7 +34087,7 @@
       <c r="AW640" s="2"/>
       <c r="AX640" s="2"/>
     </row>
-    <row r="641" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A641" s="2"/>
       <c r="B641" s="2"/>
       <c r="C641" s="2"/>
@@ -34140,7 +34139,7 @@
       <c r="AW641" s="2"/>
       <c r="AX641" s="2"/>
     </row>
-    <row r="642" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A642" s="2"/>
       <c r="B642" s="2"/>
       <c r="C642" s="2"/>
@@ -34192,7 +34191,7 @@
       <c r="AW642" s="2"/>
       <c r="AX642" s="2"/>
     </row>
-    <row r="643" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643" s="2"/>
       <c r="B643" s="2"/>
       <c r="C643" s="2"/>
@@ -34244,7 +34243,7 @@
       <c r="AW643" s="2"/>
       <c r="AX643" s="2"/>
     </row>
-    <row r="644" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644" s="2"/>
       <c r="B644" s="2"/>
       <c r="C644" s="2"/>
@@ -34296,7 +34295,7 @@
       <c r="AW644" s="2"/>
       <c r="AX644" s="2"/>
     </row>
-    <row r="645" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645" s="2"/>
       <c r="B645" s="2"/>
       <c r="C645" s="2"/>
@@ -34348,7 +34347,7 @@
       <c r="AW645" s="2"/>
       <c r="AX645" s="2"/>
     </row>
-    <row r="646" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646" s="2"/>
       <c r="B646" s="2"/>
       <c r="C646" s="2"/>
@@ -34400,7 +34399,7 @@
       <c r="AW646" s="2"/>
       <c r="AX646" s="2"/>
     </row>
-    <row r="647" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A647" s="2"/>
       <c r="B647" s="2"/>
       <c r="C647" s="2"/>
@@ -34452,7 +34451,7 @@
       <c r="AW647" s="2"/>
       <c r="AX647" s="2"/>
     </row>
-    <row r="648" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" s="2"/>
       <c r="B648" s="2"/>
       <c r="C648" s="2"/>
@@ -34504,7 +34503,7 @@
       <c r="AW648" s="2"/>
       <c r="AX648" s="2"/>
     </row>
-    <row r="649" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A649" s="2"/>
       <c r="B649" s="2"/>
       <c r="C649" s="2"/>
@@ -34556,7 +34555,7 @@
       <c r="AW649" s="2"/>
       <c r="AX649" s="2"/>
     </row>
-    <row r="650" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A650" s="2"/>
       <c r="B650" s="2"/>
       <c r="C650" s="2"/>
@@ -34608,7 +34607,7 @@
       <c r="AW650" s="2"/>
       <c r="AX650" s="2"/>
     </row>
-    <row r="651" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A651" s="2"/>
       <c r="B651" s="2"/>
       <c r="C651" s="2"/>
@@ -34660,7 +34659,7 @@
       <c r="AW651" s="2"/>
       <c r="AX651" s="2"/>
     </row>
-    <row r="652" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A652" s="2"/>
       <c r="B652" s="2"/>
       <c r="C652" s="2"/>
@@ -34712,7 +34711,7 @@
       <c r="AW652" s="2"/>
       <c r="AX652" s="2"/>
     </row>
-    <row r="653" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A653" s="2"/>
       <c r="B653" s="2"/>
       <c r="C653" s="2"/>
@@ -34764,7 +34763,7 @@
       <c r="AW653" s="2"/>
       <c r="AX653" s="2"/>
     </row>
-    <row r="654" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A654" s="2"/>
       <c r="B654" s="2"/>
       <c r="C654" s="2"/>
@@ -34816,7 +34815,7 @@
       <c r="AW654" s="2"/>
       <c r="AX654" s="2"/>
     </row>
-    <row r="655" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A655" s="2"/>
       <c r="B655" s="2"/>
       <c r="C655" s="2"/>
@@ -34868,7 +34867,7 @@
       <c r="AW655" s="2"/>
       <c r="AX655" s="2"/>
     </row>
-    <row r="656" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A656" s="2"/>
       <c r="B656" s="2"/>
       <c r="C656" s="2"/>
@@ -34920,7 +34919,7 @@
       <c r="AW656" s="2"/>
       <c r="AX656" s="2"/>
     </row>
-    <row r="657" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A657" s="2"/>
       <c r="B657" s="2"/>
       <c r="C657" s="2"/>
@@ -34972,7 +34971,7 @@
       <c r="AW657" s="2"/>
       <c r="AX657" s="2"/>
     </row>
-    <row r="658" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A658" s="2"/>
       <c r="B658" s="2"/>
       <c r="C658" s="2"/>
@@ -35024,7 +35023,7 @@
       <c r="AW658" s="2"/>
       <c r="AX658" s="2"/>
     </row>
-    <row r="659" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A659" s="2"/>
       <c r="B659" s="2"/>
       <c r="C659" s="2"/>
@@ -35076,7 +35075,7 @@
       <c r="AW659" s="2"/>
       <c r="AX659" s="2"/>
     </row>
-    <row r="660" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A660" s="2"/>
       <c r="B660" s="2"/>
       <c r="C660" s="2"/>
@@ -35128,7 +35127,7 @@
       <c r="AW660" s="2"/>
       <c r="AX660" s="2"/>
     </row>
-    <row r="661" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A661" s="2"/>
       <c r="B661" s="2"/>
       <c r="C661" s="2"/>
@@ -35180,7 +35179,7 @@
       <c r="AW661" s="2"/>
       <c r="AX661" s="2"/>
     </row>
-    <row r="662" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A662" s="2"/>
       <c r="B662" s="2"/>
       <c r="C662" s="2"/>
@@ -35232,7 +35231,7 @@
       <c r="AW662" s="2"/>
       <c r="AX662" s="2"/>
     </row>
-    <row r="663" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A663" s="2"/>
       <c r="B663" s="2"/>
       <c r="C663" s="2"/>
@@ -35284,7 +35283,7 @@
       <c r="AW663" s="2"/>
       <c r="AX663" s="2"/>
     </row>
-    <row r="664" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A664" s="2"/>
       <c r="B664" s="2"/>
       <c r="C664" s="2"/>
@@ -35336,7 +35335,7 @@
       <c r="AW664" s="2"/>
       <c r="AX664" s="2"/>
     </row>
-    <row r="665" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A665" s="2"/>
       <c r="B665" s="2"/>
       <c r="C665" s="2"/>
@@ -35388,7 +35387,7 @@
       <c r="AW665" s="2"/>
       <c r="AX665" s="2"/>
     </row>
-    <row r="666" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A666" s="2"/>
       <c r="B666" s="2"/>
       <c r="C666" s="2"/>
@@ -35440,7 +35439,7 @@
       <c r="AW666" s="2"/>
       <c r="AX666" s="2"/>
     </row>
-    <row r="667" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A667" s="2"/>
       <c r="B667" s="2"/>
       <c r="C667" s="2"/>
@@ -35492,7 +35491,7 @@
       <c r="AW667" s="2"/>
       <c r="AX667" s="2"/>
     </row>
-    <row r="668" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A668" s="2"/>
       <c r="B668" s="2"/>
       <c r="C668" s="2"/>
@@ -35544,7 +35543,7 @@
       <c r="AW668" s="2"/>
       <c r="AX668" s="2"/>
     </row>
-    <row r="669" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A669" s="2"/>
       <c r="B669" s="2"/>
       <c r="C669" s="2"/>
@@ -35596,7 +35595,7 @@
       <c r="AW669" s="2"/>
       <c r="AX669" s="2"/>
     </row>
-    <row r="670" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A670" s="2"/>
       <c r="B670" s="2"/>
       <c r="C670" s="2"/>
@@ -35648,7 +35647,7 @@
       <c r="AW670" s="2"/>
       <c r="AX670" s="2"/>
     </row>
-    <row r="671" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A671" s="2"/>
       <c r="B671" s="2"/>
       <c r="C671" s="2"/>
@@ -35700,7 +35699,7 @@
       <c r="AW671" s="2"/>
       <c r="AX671" s="2"/>
     </row>
-    <row r="672" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A672" s="2"/>
       <c r="B672" s="2"/>
       <c r="C672" s="2"/>
@@ -35752,7 +35751,7 @@
       <c r="AW672" s="2"/>
       <c r="AX672" s="2"/>
     </row>
-    <row r="673" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A673" s="2"/>
       <c r="B673" s="2"/>
       <c r="C673" s="2"/>
@@ -35804,7 +35803,7 @@
       <c r="AW673" s="2"/>
       <c r="AX673" s="2"/>
     </row>
-    <row r="674" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A674" s="2"/>
       <c r="B674" s="2"/>
       <c r="C674" s="2"/>
@@ -35856,7 +35855,7 @@
       <c r="AW674" s="2"/>
       <c r="AX674" s="2"/>
     </row>
-    <row r="675" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A675" s="2"/>
       <c r="B675" s="2"/>
       <c r="C675" s="2"/>
@@ -35908,7 +35907,7 @@
       <c r="AW675" s="2"/>
       <c r="AX675" s="2"/>
     </row>
-    <row r="676" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A676" s="2"/>
       <c r="B676" s="2"/>
       <c r="C676" s="2"/>
@@ -35960,7 +35959,7 @@
       <c r="AW676" s="2"/>
       <c r="AX676" s="2"/>
     </row>
-    <row r="677" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A677" s="2"/>
       <c r="B677" s="2"/>
       <c r="C677" s="2"/>
@@ -36012,7 +36011,7 @@
       <c r="AW677" s="2"/>
       <c r="AX677" s="2"/>
     </row>
-    <row r="678" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A678" s="2"/>
       <c r="B678" s="2"/>
       <c r="C678" s="2"/>
@@ -36064,7 +36063,7 @@
       <c r="AW678" s="2"/>
       <c r="AX678" s="2"/>
     </row>
-    <row r="679" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A679" s="2"/>
       <c r="B679" s="2"/>
       <c r="C679" s="2"/>
@@ -36116,7 +36115,7 @@
       <c r="AW679" s="2"/>
       <c r="AX679" s="2"/>
     </row>
-    <row r="680" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A680" s="2"/>
       <c r="B680" s="2"/>
       <c r="C680" s="2"/>
@@ -36168,7 +36167,7 @@
       <c r="AW680" s="2"/>
       <c r="AX680" s="2"/>
     </row>
-    <row r="681" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A681" s="2"/>
       <c r="B681" s="2"/>
       <c r="C681" s="2"/>
@@ -36220,7 +36219,7 @@
       <c r="AW681" s="2"/>
       <c r="AX681" s="2"/>
     </row>
-    <row r="682" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A682" s="2"/>
       <c r="B682" s="2"/>
       <c r="C682" s="2"/>
@@ -36272,7 +36271,7 @@
       <c r="AW682" s="2"/>
       <c r="AX682" s="2"/>
     </row>
-    <row r="683" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A683" s="2"/>
       <c r="B683" s="2"/>
       <c r="C683" s="2"/>
@@ -36324,7 +36323,7 @@
       <c r="AW683" s="2"/>
       <c r="AX683" s="2"/>
     </row>
-    <row r="684" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A684" s="2"/>
       <c r="B684" s="2"/>
       <c r="C684" s="2"/>
@@ -36376,7 +36375,7 @@
       <c r="AW684" s="2"/>
       <c r="AX684" s="2"/>
     </row>
-    <row r="685" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A685" s="2"/>
       <c r="B685" s="2"/>
       <c r="C685" s="2"/>
@@ -36428,7 +36427,7 @@
       <c r="AW685" s="2"/>
       <c r="AX685" s="2"/>
     </row>
-    <row r="686" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A686" s="2"/>
       <c r="B686" s="2"/>
       <c r="C686" s="2"/>
@@ -36480,7 +36479,7 @@
       <c r="AW686" s="2"/>
       <c r="AX686" s="2"/>
     </row>
-    <row r="687" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A687" s="2"/>
       <c r="B687" s="2"/>
       <c r="C687" s="2"/>
@@ -36532,7 +36531,7 @@
       <c r="AW687" s="2"/>
       <c r="AX687" s="2"/>
     </row>
-    <row r="688" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A688" s="2"/>
       <c r="B688" s="2"/>
       <c r="C688" s="2"/>
@@ -36584,7 +36583,7 @@
       <c r="AW688" s="2"/>
       <c r="AX688" s="2"/>
     </row>
-    <row r="689" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A689" s="2"/>
       <c r="B689" s="2"/>
       <c r="C689" s="2"/>
@@ -36636,7 +36635,7 @@
       <c r="AW689" s="2"/>
       <c r="AX689" s="2"/>
     </row>
-    <row r="690" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A690" s="2"/>
       <c r="B690" s="2"/>
       <c r="C690" s="2"/>
@@ -36688,7 +36687,7 @@
       <c r="AW690" s="2"/>
       <c r="AX690" s="2"/>
     </row>
-    <row r="691" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A691" s="2"/>
       <c r="B691" s="2"/>
       <c r="C691" s="2"/>
@@ -36740,7 +36739,7 @@
       <c r="AW691" s="2"/>
       <c r="AX691" s="2"/>
     </row>
-    <row r="692" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A692" s="2"/>
       <c r="B692" s="2"/>
       <c r="C692" s="2"/>
@@ -36792,7 +36791,7 @@
       <c r="AW692" s="2"/>
       <c r="AX692" s="2"/>
     </row>
-    <row r="693" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A693" s="2"/>
       <c r="B693" s="2"/>
       <c r="C693" s="2"/>
@@ -36844,7 +36843,7 @@
       <c r="AW693" s="2"/>
       <c r="AX693" s="2"/>
     </row>
-    <row r="694" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A694" s="2"/>
       <c r="B694" s="2"/>
       <c r="C694" s="2"/>
@@ -36896,7 +36895,7 @@
       <c r="AW694" s="2"/>
       <c r="AX694" s="2"/>
     </row>
-    <row r="695" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A695" s="2"/>
       <c r="B695" s="2"/>
       <c r="C695" s="2"/>
@@ -36948,7 +36947,7 @@
       <c r="AW695" s="2"/>
       <c r="AX695" s="2"/>
     </row>
-    <row r="696" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A696" s="2"/>
       <c r="B696" s="2"/>
       <c r="C696" s="2"/>
@@ -37000,7 +36999,7 @@
       <c r="AW696" s="2"/>
       <c r="AX696" s="2"/>
     </row>
-    <row r="697" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A697" s="2"/>
       <c r="B697" s="2"/>
       <c r="C697" s="2"/>
@@ -37052,7 +37051,7 @@
       <c r="AW697" s="2"/>
       <c r="AX697" s="2"/>
     </row>
-    <row r="698" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A698" s="2"/>
       <c r="B698" s="2"/>
       <c r="C698" s="2"/>
@@ -37104,7 +37103,7 @@
       <c r="AW698" s="2"/>
       <c r="AX698" s="2"/>
     </row>
-    <row r="699" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A699" s="2"/>
       <c r="B699" s="2"/>
       <c r="C699" s="2"/>
@@ -37156,7 +37155,7 @@
       <c r="AW699" s="2"/>
       <c r="AX699" s="2"/>
     </row>
-    <row r="700" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A700" s="2"/>
       <c r="B700" s="2"/>
       <c r="C700" s="2"/>
@@ -37208,7 +37207,7 @@
       <c r="AW700" s="2"/>
       <c r="AX700" s="2"/>
     </row>
-    <row r="701" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A701" s="2"/>
       <c r="B701" s="2"/>
       <c r="C701" s="2"/>
@@ -37260,7 +37259,7 @@
       <c r="AW701" s="2"/>
       <c r="AX701" s="2"/>
     </row>
-    <row r="702" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A702" s="2"/>
       <c r="B702" s="2"/>
       <c r="C702" s="2"/>
@@ -37312,7 +37311,7 @@
       <c r="AW702" s="2"/>
       <c r="AX702" s="2"/>
     </row>
-    <row r="703" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A703" s="2"/>
       <c r="B703" s="2"/>
       <c r="C703" s="2"/>
@@ -37364,7 +37363,7 @@
       <c r="AW703" s="2"/>
       <c r="AX703" s="2"/>
     </row>
-    <row r="704" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A704" s="2"/>
       <c r="B704" s="2"/>
       <c r="C704" s="2"/>
@@ -37416,7 +37415,7 @@
       <c r="AW704" s="2"/>
       <c r="AX704" s="2"/>
     </row>
-    <row r="705" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A705" s="2"/>
       <c r="B705" s="2"/>
       <c r="C705" s="2"/>
@@ -37468,7 +37467,7 @@
       <c r="AW705" s="2"/>
       <c r="AX705" s="2"/>
     </row>
-    <row r="706" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A706" s="2"/>
       <c r="B706" s="2"/>
       <c r="C706" s="2"/>
@@ -37520,7 +37519,7 @@
       <c r="AW706" s="2"/>
       <c r="AX706" s="2"/>
     </row>
-    <row r="707" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A707" s="2"/>
       <c r="B707" s="2"/>
       <c r="C707" s="2"/>
@@ -37572,7 +37571,7 @@
       <c r="AW707" s="2"/>
       <c r="AX707" s="2"/>
     </row>
-    <row r="708" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A708" s="2"/>
       <c r="B708" s="2"/>
       <c r="C708" s="2"/>
@@ -37624,7 +37623,7 @@
       <c r="AW708" s="2"/>
       <c r="AX708" s="2"/>
     </row>
-    <row r="709" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A709" s="2"/>
       <c r="B709" s="2"/>
       <c r="C709" s="2"/>
@@ -37676,7 +37675,7 @@
       <c r="AW709" s="2"/>
       <c r="AX709" s="2"/>
     </row>
-    <row r="710" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A710" s="2"/>
       <c r="B710" s="2"/>
       <c r="C710" s="2"/>
@@ -37728,7 +37727,7 @@
       <c r="AW710" s="2"/>
       <c r="AX710" s="2"/>
     </row>
-    <row r="711" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A711" s="2"/>
       <c r="B711" s="2"/>
       <c r="C711" s="2"/>
@@ -37780,7 +37779,7 @@
       <c r="AW711" s="2"/>
       <c r="AX711" s="2"/>
     </row>
-    <row r="712" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A712" s="2"/>
       <c r="B712" s="2"/>
       <c r="C712" s="2"/>
@@ -37832,7 +37831,7 @@
       <c r="AW712" s="2"/>
       <c r="AX712" s="2"/>
     </row>
-    <row r="713" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A713" s="2"/>
       <c r="B713" s="2"/>
       <c r="C713" s="2"/>
@@ -37884,7 +37883,7 @@
       <c r="AW713" s="2"/>
       <c r="AX713" s="2"/>
     </row>
-    <row r="714" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A714" s="2"/>
       <c r="B714" s="2"/>
       <c r="C714" s="2"/>
@@ -37936,7 +37935,7 @@
       <c r="AW714" s="2"/>
       <c r="AX714" s="2"/>
     </row>
-    <row r="715" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A715" s="2"/>
       <c r="B715" s="2"/>
       <c r="C715" s="2"/>
@@ -37988,7 +37987,7 @@
       <c r="AW715" s="2"/>
       <c r="AX715" s="2"/>
     </row>
-    <row r="716" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A716" s="2"/>
       <c r="B716" s="2"/>
       <c r="C716" s="2"/>
@@ -38040,7 +38039,7 @@
       <c r="AW716" s="2"/>
       <c r="AX716" s="2"/>
     </row>
-    <row r="717" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A717" s="2"/>
       <c r="B717" s="2"/>
       <c r="C717" s="2"/>
@@ -38092,7 +38091,7 @@
       <c r="AW717" s="2"/>
       <c r="AX717" s="2"/>
     </row>
-    <row r="718" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A718" s="2"/>
       <c r="B718" s="2"/>
       <c r="C718" s="2"/>
@@ -38144,7 +38143,7 @@
       <c r="AW718" s="2"/>
       <c r="AX718" s="2"/>
     </row>
-    <row r="719" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A719" s="2"/>
       <c r="B719" s="2"/>
       <c r="C719" s="2"/>
@@ -38196,7 +38195,7 @@
       <c r="AW719" s="2"/>
       <c r="AX719" s="2"/>
     </row>
-    <row r="720" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A720" s="2"/>
       <c r="B720" s="2"/>
       <c r="C720" s="2"/>
@@ -38248,7 +38247,7 @@
       <c r="AW720" s="2"/>
       <c r="AX720" s="2"/>
     </row>
-    <row r="721" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A721" s="2"/>
       <c r="B721" s="2"/>
       <c r="C721" s="2"/>
@@ -38300,7 +38299,7 @@
       <c r="AW721" s="2"/>
       <c r="AX721" s="2"/>
     </row>
-    <row r="722" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A722" s="2"/>
       <c r="B722" s="2"/>
       <c r="C722" s="2"/>
@@ -38352,7 +38351,7 @@
       <c r="AW722" s="2"/>
       <c r="AX722" s="2"/>
     </row>
-    <row r="723" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A723" s="2"/>
       <c r="B723" s="2"/>
       <c r="C723" s="2"/>
@@ -38404,7 +38403,7 @@
       <c r="AW723" s="2"/>
       <c r="AX723" s="2"/>
     </row>
-    <row r="724" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A724" s="2"/>
       <c r="B724" s="2"/>
       <c r="C724" s="2"/>
@@ -38456,7 +38455,7 @@
       <c r="AW724" s="2"/>
       <c r="AX724" s="2"/>
     </row>
-    <row r="725" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A725" s="2"/>
       <c r="B725" s="2"/>
       <c r="C725" s="2"/>
@@ -38508,7 +38507,7 @@
       <c r="AW725" s="2"/>
       <c r="AX725" s="2"/>
     </row>
-    <row r="726" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A726" s="2"/>
       <c r="B726" s="2"/>
       <c r="C726" s="2"/>
@@ -38560,7 +38559,7 @@
       <c r="AW726" s="2"/>
       <c r="AX726" s="2"/>
     </row>
-    <row r="727" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A727" s="2"/>
       <c r="B727" s="2"/>
       <c r="C727" s="2"/>
@@ -38612,7 +38611,7 @@
       <c r="AW727" s="2"/>
       <c r="AX727" s="2"/>
     </row>
-    <row r="728" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A728" s="2"/>
       <c r="B728" s="2"/>
       <c r="C728" s="2"/>
@@ -38664,7 +38663,7 @@
       <c r="AW728" s="2"/>
       <c r="AX728" s="2"/>
     </row>
-    <row r="729" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A729" s="2"/>
       <c r="B729" s="2"/>
       <c r="C729" s="2"/>
@@ -38716,7 +38715,7 @@
       <c r="AW729" s="2"/>
       <c r="AX729" s="2"/>
     </row>
-    <row r="730" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A730" s="2"/>
       <c r="B730" s="2"/>
       <c r="C730" s="2"/>
@@ -38768,7 +38767,7 @@
       <c r="AW730" s="2"/>
       <c r="AX730" s="2"/>
     </row>
-    <row r="731" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A731" s="2"/>
       <c r="B731" s="2"/>
       <c r="C731" s="2"/>
@@ -38820,7 +38819,7 @@
       <c r="AW731" s="2"/>
       <c r="AX731" s="2"/>
     </row>
-    <row r="732" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A732" s="2"/>
       <c r="B732" s="2"/>
       <c r="C732" s="2"/>
@@ -38872,7 +38871,7 @@
       <c r="AW732" s="2"/>
       <c r="AX732" s="2"/>
     </row>
-    <row r="733" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A733" s="2"/>
       <c r="B733" s="2"/>
       <c r="C733" s="2"/>
@@ -38924,7 +38923,7 @@
       <c r="AW733" s="2"/>
       <c r="AX733" s="2"/>
     </row>
-    <row r="734" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A734" s="2"/>
       <c r="B734" s="2"/>
       <c r="C734" s="2"/>
@@ -38976,7 +38975,7 @@
       <c r="AW734" s="2"/>
       <c r="AX734" s="2"/>
     </row>
-    <row r="735" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A735" s="2"/>
       <c r="B735" s="2"/>
       <c r="C735" s="2"/>
@@ -39028,7 +39027,7 @@
       <c r="AW735" s="2"/>
       <c r="AX735" s="2"/>
     </row>
-    <row r="736" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A736" s="2"/>
       <c r="B736" s="2"/>
       <c r="C736" s="2"/>
@@ -39080,7 +39079,7 @@
       <c r="AW736" s="2"/>
       <c r="AX736" s="2"/>
     </row>
-    <row r="737" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A737" s="2"/>
       <c r="B737" s="2"/>
       <c r="C737" s="2"/>
@@ -39132,7 +39131,7 @@
       <c r="AW737" s="2"/>
       <c r="AX737" s="2"/>
     </row>
-    <row r="738" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A738" s="2"/>
       <c r="B738" s="2"/>
       <c r="C738" s="2"/>
@@ -39184,7 +39183,7 @@
       <c r="AW738" s="2"/>
       <c r="AX738" s="2"/>
     </row>
-    <row r="739" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A739" s="2"/>
       <c r="B739" s="2"/>
       <c r="C739" s="2"/>
@@ -39236,7 +39235,7 @@
       <c r="AW739" s="2"/>
       <c r="AX739" s="2"/>
     </row>
-    <row r="740" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A740" s="2"/>
       <c r="B740" s="2"/>
       <c r="C740" s="2"/>
@@ -39288,7 +39287,7 @@
       <c r="AW740" s="2"/>
       <c r="AX740" s="2"/>
     </row>
-    <row r="741" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A741" s="2"/>
       <c r="B741" s="2"/>
       <c r="C741" s="2"/>
@@ -39340,7 +39339,7 @@
       <c r="AW741" s="2"/>
       <c r="AX741" s="2"/>
     </row>
-    <row r="742" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A742" s="2"/>
       <c r="B742" s="2"/>
       <c r="C742" s="2"/>
@@ -39392,7 +39391,7 @@
       <c r="AW742" s="2"/>
       <c r="AX742" s="2"/>
     </row>
-    <row r="743" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A743" s="2"/>
       <c r="B743" s="2"/>
       <c r="C743" s="2"/>
@@ -39444,7 +39443,7 @@
       <c r="AW743" s="2"/>
       <c r="AX743" s="2"/>
     </row>
-    <row r="744" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A744" s="2"/>
       <c r="B744" s="2"/>
       <c r="C744" s="2"/>
@@ -39496,7 +39495,7 @@
       <c r="AW744" s="2"/>
       <c r="AX744" s="2"/>
     </row>
-    <row r="745" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A745" s="2"/>
       <c r="B745" s="2"/>
       <c r="C745" s="2"/>
@@ -39548,7 +39547,7 @@
       <c r="AW745" s="2"/>
       <c r="AX745" s="2"/>
     </row>
-    <row r="746" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A746" s="2"/>
       <c r="B746" s="2"/>
       <c r="C746" s="2"/>
@@ -39600,7 +39599,7 @@
       <c r="AW746" s="2"/>
       <c r="AX746" s="2"/>
     </row>
-    <row r="747" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A747" s="2"/>
       <c r="B747" s="2"/>
       <c r="C747" s="2"/>
@@ -39652,7 +39651,7 @@
       <c r="AW747" s="2"/>
       <c r="AX747" s="2"/>
     </row>
-    <row r="748" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A748" s="2"/>
       <c r="B748" s="2"/>
       <c r="C748" s="2"/>
@@ -39704,7 +39703,7 @@
       <c r="AW748" s="2"/>
       <c r="AX748" s="2"/>
     </row>
-    <row r="749" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A749" s="2"/>
       <c r="B749" s="2"/>
       <c r="C749" s="2"/>
@@ -39756,7 +39755,7 @@
       <c r="AW749" s="2"/>
       <c r="AX749" s="2"/>
     </row>
-    <row r="750" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A750" s="2"/>
       <c r="B750" s="2"/>
       <c r="C750" s="2"/>
@@ -39808,7 +39807,7 @@
       <c r="AW750" s="2"/>
       <c r="AX750" s="2"/>
     </row>
-    <row r="751" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A751" s="2"/>
       <c r="B751" s="2"/>
       <c r="C751" s="2"/>
@@ -39860,7 +39859,7 @@
       <c r="AW751" s="2"/>
       <c r="AX751" s="2"/>
     </row>
-    <row r="752" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A752" s="2"/>
       <c r="B752" s="2"/>
       <c r="C752" s="2"/>
@@ -39912,7 +39911,7 @@
       <c r="AW752" s="2"/>
       <c r="AX752" s="2"/>
     </row>
-    <row r="753" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A753" s="2"/>
       <c r="B753" s="2"/>
       <c r="C753" s="2"/>
@@ -39964,7 +39963,7 @@
       <c r="AW753" s="2"/>
       <c r="AX753" s="2"/>
     </row>
-    <row r="754" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A754" s="2"/>
       <c r="B754" s="2"/>
       <c r="C754" s="2"/>
@@ -40016,7 +40015,7 @@
       <c r="AW754" s="2"/>
       <c r="AX754" s="2"/>
     </row>
-    <row r="755" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A755" s="2"/>
       <c r="B755" s="2"/>
       <c r="C755" s="2"/>
@@ -40068,7 +40067,7 @@
       <c r="AW755" s="2"/>
       <c r="AX755" s="2"/>
     </row>
-    <row r="756" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A756" s="2"/>
       <c r="B756" s="2"/>
       <c r="C756" s="2"/>
@@ -40120,7 +40119,7 @@
       <c r="AW756" s="2"/>
       <c r="AX756" s="2"/>
     </row>
-    <row r="757" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A757" s="2"/>
       <c r="B757" s="2"/>
       <c r="C757" s="2"/>
@@ -40172,7 +40171,7 @@
       <c r="AW757" s="2"/>
       <c r="AX757" s="2"/>
     </row>
-    <row r="758" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A758" s="2"/>
       <c r="B758" s="2"/>
       <c r="C758" s="2"/>
@@ -40224,7 +40223,7 @@
       <c r="AW758" s="2"/>
       <c r="AX758" s="2"/>
     </row>
-    <row r="759" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A759" s="2"/>
       <c r="B759" s="2"/>
       <c r="C759" s="2"/>
@@ -40276,7 +40275,7 @@
       <c r="AW759" s="2"/>
       <c r="AX759" s="2"/>
     </row>
-    <row r="760" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A760" s="2"/>
       <c r="B760" s="2"/>
       <c r="C760" s="2"/>
@@ -40328,7 +40327,7 @@
       <c r="AW760" s="2"/>
       <c r="AX760" s="2"/>
     </row>
-    <row r="761" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A761" s="2"/>
       <c r="B761" s="2"/>
       <c r="C761" s="2"/>
@@ -40380,7 +40379,7 @@
       <c r="AW761" s="2"/>
       <c r="AX761" s="2"/>
     </row>
-    <row r="762" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A762" s="2"/>
       <c r="B762" s="2"/>
       <c r="C762" s="2"/>
@@ -40432,7 +40431,7 @@
       <c r="AW762" s="2"/>
       <c r="AX762" s="2"/>
     </row>
-    <row r="763" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A763" s="2"/>
       <c r="B763" s="2"/>
       <c r="C763" s="2"/>
@@ -40484,7 +40483,7 @@
       <c r="AW763" s="2"/>
       <c r="AX763" s="2"/>
     </row>
-    <row r="764" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A764" s="2"/>
       <c r="B764" s="2"/>
       <c r="C764" s="2"/>
@@ -40536,7 +40535,7 @@
       <c r="AW764" s="2"/>
       <c r="AX764" s="2"/>
     </row>
-    <row r="765" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A765" s="2"/>
       <c r="B765" s="2"/>
       <c r="C765" s="2"/>
@@ -40588,7 +40587,7 @@
       <c r="AW765" s="2"/>
       <c r="AX765" s="2"/>
     </row>
-    <row r="766" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A766" s="2"/>
       <c r="B766" s="2"/>
       <c r="C766" s="2"/>
@@ -40640,7 +40639,7 @@
       <c r="AW766" s="2"/>
       <c r="AX766" s="2"/>
     </row>
-    <row r="767" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A767" s="2"/>
       <c r="B767" s="2"/>
       <c r="C767" s="2"/>
@@ -40692,7 +40691,7 @@
       <c r="AW767" s="2"/>
       <c r="AX767" s="2"/>
     </row>
-    <row r="768" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A768" s="2"/>
       <c r="B768" s="2"/>
       <c r="C768" s="2"/>
@@ -40744,7 +40743,7 @@
       <c r="AW768" s="2"/>
       <c r="AX768" s="2"/>
     </row>
-    <row r="769" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A769" s="2"/>
       <c r="B769" s="2"/>
       <c r="C769" s="2"/>
@@ -40796,7 +40795,7 @@
       <c r="AW769" s="2"/>
       <c r="AX769" s="2"/>
     </row>
-    <row r="770" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A770" s="2"/>
       <c r="B770" s="2"/>
       <c r="C770" s="2"/>
@@ -40848,7 +40847,7 @@
       <c r="AW770" s="2"/>
       <c r="AX770" s="2"/>
     </row>
-    <row r="771" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A771" s="2"/>
       <c r="B771" s="2"/>
       <c r="C771" s="2"/>
@@ -40900,7 +40899,7 @@
       <c r="AW771" s="2"/>
       <c r="AX771" s="2"/>
     </row>
-    <row r="772" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A772" s="2"/>
       <c r="B772" s="2"/>
       <c r="C772" s="2"/>
@@ -40952,7 +40951,7 @@
       <c r="AW772" s="2"/>
       <c r="AX772" s="2"/>
     </row>
-    <row r="773" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A773" s="2"/>
       <c r="B773" s="2"/>
       <c r="C773" s="2"/>
@@ -41004,7 +41003,7 @@
       <c r="AW773" s="2"/>
       <c r="AX773" s="2"/>
     </row>
-    <row r="774" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A774" s="2"/>
       <c r="B774" s="2"/>
       <c r="C774" s="2"/>
@@ -41056,7 +41055,7 @@
       <c r="AW774" s="2"/>
       <c r="AX774" s="2"/>
     </row>
-    <row r="775" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A775" s="2"/>
       <c r="B775" s="2"/>
       <c r="C775" s="2"/>
@@ -41108,7 +41107,7 @@
       <c r="AW775" s="2"/>
       <c r="AX775" s="2"/>
     </row>
-    <row r="776" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A776" s="2"/>
       <c r="B776" s="2"/>
       <c r="C776" s="2"/>
@@ -41160,7 +41159,7 @@
       <c r="AW776" s="2"/>
       <c r="AX776" s="2"/>
     </row>
-    <row r="777" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A777" s="2"/>
       <c r="B777" s="2"/>
       <c r="C777" s="2"/>
@@ -41212,7 +41211,7 @@
       <c r="AW777" s="2"/>
       <c r="AX777" s="2"/>
     </row>
-    <row r="778" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A778" s="2"/>
       <c r="B778" s="2"/>
       <c r="C778" s="2"/>
@@ -41264,7 +41263,7 @@
       <c r="AW778" s="2"/>
       <c r="AX778" s="2"/>
     </row>
-    <row r="779" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A779" s="2"/>
       <c r="B779" s="2"/>
       <c r="C779" s="2"/>
@@ -41316,7 +41315,7 @@
       <c r="AW779" s="2"/>
       <c r="AX779" s="2"/>
     </row>
-    <row r="780" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A780" s="2"/>
       <c r="B780" s="2"/>
       <c r="C780" s="2"/>
@@ -41368,7 +41367,7 @@
       <c r="AW780" s="2"/>
       <c r="AX780" s="2"/>
     </row>
-    <row r="781" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A781" s="2"/>
       <c r="B781" s="2"/>
       <c r="C781" s="2"/>
@@ -41420,7 +41419,7 @@
       <c r="AW781" s="2"/>
       <c r="AX781" s="2"/>
     </row>
-    <row r="782" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A782" s="2"/>
       <c r="B782" s="2"/>
       <c r="C782" s="2"/>
@@ -41472,7 +41471,7 @@
       <c r="AW782" s="2"/>
       <c r="AX782" s="2"/>
     </row>
-    <row r="783" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A783" s="2"/>
       <c r="B783" s="2"/>
       <c r="C783" s="2"/>
@@ -41524,7 +41523,7 @@
       <c r="AW783" s="2"/>
       <c r="AX783" s="2"/>
     </row>
-    <row r="784" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A784" s="2"/>
       <c r="B784" s="2"/>
       <c r="C784" s="2"/>
@@ -41576,7 +41575,7 @@
       <c r="AW784" s="2"/>
       <c r="AX784" s="2"/>
     </row>
-    <row r="785" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A785" s="2"/>
       <c r="B785" s="2"/>
       <c r="C785" s="2"/>
@@ -41628,7 +41627,7 @@
       <c r="AW785" s="2"/>
       <c r="AX785" s="2"/>
     </row>
-    <row r="786" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A786" s="2"/>
       <c r="B786" s="2"/>
       <c r="C786" s="2"/>
@@ -41680,7 +41679,7 @@
       <c r="AW786" s="2"/>
       <c r="AX786" s="2"/>
     </row>
-    <row r="787" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A787" s="2"/>
       <c r="B787" s="2"/>
       <c r="C787" s="2"/>
@@ -41732,7 +41731,7 @@
       <c r="AW787" s="2"/>
       <c r="AX787" s="2"/>
     </row>
-    <row r="788" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A788" s="2"/>
       <c r="B788" s="2"/>
       <c r="C788" s="2"/>
@@ -41784,7 +41783,7 @@
       <c r="AW788" s="2"/>
       <c r="AX788" s="2"/>
     </row>
-    <row r="789" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A789" s="2"/>
       <c r="B789" s="2"/>
       <c r="C789" s="2"/>
@@ -41836,7 +41835,7 @@
       <c r="AW789" s="2"/>
       <c r="AX789" s="2"/>
     </row>
-    <row r="790" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A790" s="2"/>
       <c r="B790" s="2"/>
       <c r="C790" s="2"/>
@@ -41888,7 +41887,7 @@
       <c r="AW790" s="2"/>
       <c r="AX790" s="2"/>
     </row>
-    <row r="791" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A791" s="2"/>
       <c r="B791" s="2"/>
       <c r="C791" s="2"/>
@@ -41940,7 +41939,7 @@
       <c r="AW791" s="2"/>
       <c r="AX791" s="2"/>
     </row>
-    <row r="792" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A792" s="2"/>
       <c r="B792" s="2"/>
       <c r="C792" s="2"/>
@@ -41992,7 +41991,7 @@
       <c r="AW792" s="2"/>
       <c r="AX792" s="2"/>
     </row>
-    <row r="793" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A793" s="2"/>
       <c r="B793" s="2"/>
       <c r="C793" s="2"/>
@@ -42044,7 +42043,7 @@
       <c r="AW793" s="2"/>
       <c r="AX793" s="2"/>
     </row>
-    <row r="794" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A794" s="2"/>
       <c r="B794" s="2"/>
       <c r="C794" s="2"/>
@@ -42096,7 +42095,7 @@
       <c r="AW794" s="2"/>
       <c r="AX794" s="2"/>
     </row>
-    <row r="795" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A795" s="2"/>
       <c r="B795" s="2"/>
       <c r="C795" s="2"/>
@@ -42148,7 +42147,7 @@
       <c r="AW795" s="2"/>
       <c r="AX795" s="2"/>
     </row>
-    <row r="796" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A796" s="2"/>
       <c r="B796" s="2"/>
       <c r="C796" s="2"/>
@@ -42200,7 +42199,7 @@
       <c r="AW796" s="2"/>
       <c r="AX796" s="2"/>
     </row>
-    <row r="797" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A797" s="2"/>
       <c r="B797" s="2"/>
       <c r="C797" s="2"/>
@@ -42252,7 +42251,7 @@
       <c r="AW797" s="2"/>
       <c r="AX797" s="2"/>
     </row>
-    <row r="798" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A798" s="2"/>
       <c r="B798" s="2"/>
       <c r="C798" s="2"/>
@@ -42304,7 +42303,7 @@
       <c r="AW798" s="2"/>
       <c r="AX798" s="2"/>
     </row>
-    <row r="799" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A799" s="2"/>
       <c r="B799" s="2"/>
       <c r="C799" s="2"/>
@@ -42356,7 +42355,7 @@
       <c r="AW799" s="2"/>
       <c r="AX799" s="2"/>
     </row>
-    <row r="800" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A800" s="2"/>
       <c r="B800" s="2"/>
       <c r="C800" s="2"/>
@@ -42408,7 +42407,7 @@
       <c r="AW800" s="2"/>
       <c r="AX800" s="2"/>
     </row>
-    <row r="801" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A801" s="2"/>
       <c r="B801" s="2"/>
       <c r="C801" s="2"/>
@@ -42460,7 +42459,7 @@
       <c r="AW801" s="2"/>
       <c r="AX801" s="2"/>
     </row>
-    <row r="802" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A802" s="2"/>
       <c r="B802" s="2"/>
       <c r="C802" s="2"/>
@@ -42512,7 +42511,7 @@
       <c r="AW802" s="2"/>
       <c r="AX802" s="2"/>
     </row>
-    <row r="803" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A803" s="2"/>
       <c r="B803" s="2"/>
       <c r="C803" s="2"/>
@@ -42564,7 +42563,7 @@
       <c r="AW803" s="2"/>
       <c r="AX803" s="2"/>
     </row>
-    <row r="804" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A804" s="2"/>
       <c r="B804" s="2"/>
       <c r="C804" s="2"/>
@@ -42616,7 +42615,7 @@
       <c r="AW804" s="2"/>
       <c r="AX804" s="2"/>
     </row>
-    <row r="805" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A805" s="2"/>
       <c r="B805" s="2"/>
       <c r="C805" s="2"/>
@@ -42668,7 +42667,7 @@
       <c r="AW805" s="2"/>
       <c r="AX805" s="2"/>
     </row>
-    <row r="806" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A806" s="2"/>
       <c r="B806" s="2"/>
       <c r="C806" s="2"/>
@@ -42720,7 +42719,7 @@
       <c r="AW806" s="2"/>
       <c r="AX806" s="2"/>
     </row>
-    <row r="807" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A807" s="2"/>
       <c r="B807" s="2"/>
       <c r="C807" s="2"/>
@@ -42772,7 +42771,7 @@
       <c r="AW807" s="2"/>
       <c r="AX807" s="2"/>
     </row>
-    <row r="808" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A808" s="2"/>
       <c r="B808" s="2"/>
       <c r="C808" s="2"/>
@@ -42824,7 +42823,7 @@
       <c r="AW808" s="2"/>
       <c r="AX808" s="2"/>
     </row>
-    <row r="809" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A809" s="2"/>
       <c r="B809" s="2"/>
       <c r="C809" s="2"/>
@@ -42876,7 +42875,7 @@
       <c r="AW809" s="2"/>
       <c r="AX809" s="2"/>
     </row>
-    <row r="810" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A810" s="2"/>
       <c r="B810" s="2"/>
       <c r="C810" s="2"/>
@@ -42928,7 +42927,7 @@
       <c r="AW810" s="2"/>
       <c r="AX810" s="2"/>
     </row>
-    <row r="811" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A811" s="2"/>
       <c r="B811" s="2"/>
       <c r="C811" s="2"/>
@@ -42980,7 +42979,7 @@
       <c r="AW811" s="2"/>
       <c r="AX811" s="2"/>
     </row>
-    <row r="812" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A812" s="2"/>
       <c r="B812" s="2"/>
       <c r="C812" s="2"/>
@@ -43032,7 +43031,7 @@
       <c r="AW812" s="2"/>
       <c r="AX812" s="2"/>
     </row>
-    <row r="813" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A813" s="2"/>
       <c r="B813" s="2"/>
       <c r="C813" s="2"/>
@@ -43084,7 +43083,7 @@
       <c r="AW813" s="2"/>
       <c r="AX813" s="2"/>
     </row>
-    <row r="814" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A814" s="2"/>
       <c r="B814" s="2"/>
       <c r="C814" s="2"/>
@@ -43136,7 +43135,7 @@
       <c r="AW814" s="2"/>
       <c r="AX814" s="2"/>
     </row>
-    <row r="815" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A815" s="2"/>
       <c r="B815" s="2"/>
       <c r="C815" s="2"/>
@@ -43188,7 +43187,7 @@
       <c r="AW815" s="2"/>
       <c r="AX815" s="2"/>
     </row>
-    <row r="816" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A816" s="2"/>
       <c r="B816" s="2"/>
       <c r="C816" s="2"/>
@@ -43240,7 +43239,7 @@
       <c r="AW816" s="2"/>
       <c r="AX816" s="2"/>
     </row>
-    <row r="817" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A817" s="2"/>
       <c r="B817" s="2"/>
       <c r="C817" s="2"/>
@@ -43292,7 +43291,7 @@
       <c r="AW817" s="2"/>
       <c r="AX817" s="2"/>
     </row>
-    <row r="818" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A818" s="2"/>
       <c r="B818" s="2"/>
       <c r="C818" s="2"/>
@@ -43344,7 +43343,7 @@
       <c r="AW818" s="2"/>
       <c r="AX818" s="2"/>
     </row>
-    <row r="819" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A819" s="2"/>
       <c r="B819" s="2"/>
       <c r="C819" s="2"/>
@@ -43396,7 +43395,7 @@
       <c r="AW819" s="2"/>
       <c r="AX819" s="2"/>
     </row>
-    <row r="820" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A820" s="2"/>
       <c r="B820" s="2"/>
       <c r="C820" s="2"/>
@@ -43448,7 +43447,7 @@
       <c r="AW820" s="2"/>
       <c r="AX820" s="2"/>
     </row>
-    <row r="821" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A821" s="2"/>
       <c r="B821" s="2"/>
       <c r="C821" s="2"/>
@@ -43500,7 +43499,7 @@
       <c r="AW821" s="2"/>
       <c r="AX821" s="2"/>
     </row>
-    <row r="822" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A822" s="2"/>
       <c r="B822" s="2"/>
       <c r="C822" s="2"/>
@@ -43552,7 +43551,7 @@
       <c r="AW822" s="2"/>
       <c r="AX822" s="2"/>
     </row>
-    <row r="823" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A823" s="2"/>
       <c r="B823" s="2"/>
       <c r="C823" s="2"/>
@@ -43604,7 +43603,7 @@
       <c r="AW823" s="2"/>
       <c r="AX823" s="2"/>
     </row>
-    <row r="824" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A824" s="2"/>
       <c r="B824" s="2"/>
       <c r="C824" s="2"/>
@@ -43656,7 +43655,7 @@
       <c r="AW824" s="2"/>
       <c r="AX824" s="2"/>
     </row>
-    <row r="825" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A825" s="2"/>
       <c r="B825" s="2"/>
       <c r="C825" s="2"/>
@@ -43708,7 +43707,7 @@
       <c r="AW825" s="2"/>
       <c r="AX825" s="2"/>
     </row>
-    <row r="826" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A826" s="2"/>
       <c r="B826" s="2"/>
       <c r="C826" s="2"/>
@@ -43760,7 +43759,7 @@
       <c r="AW826" s="2"/>
       <c r="AX826" s="2"/>
     </row>
-    <row r="827" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A827" s="2"/>
       <c r="B827" s="2"/>
       <c r="C827" s="2"/>
@@ -43812,7 +43811,7 @@
       <c r="AW827" s="2"/>
       <c r="AX827" s="2"/>
     </row>
-    <row r="828" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A828" s="2"/>
       <c r="B828" s="2"/>
       <c r="C828" s="2"/>
@@ -43864,7 +43863,7 @@
       <c r="AW828" s="2"/>
       <c r="AX828" s="2"/>
     </row>
-    <row r="829" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A829" s="2"/>
       <c r="B829" s="2"/>
       <c r="C829" s="2"/>
@@ -43916,7 +43915,7 @@
       <c r="AW829" s="2"/>
       <c r="AX829" s="2"/>
     </row>
-    <row r="830" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A830" s="2"/>
       <c r="B830" s="2"/>
       <c r="C830" s="2"/>
@@ -43968,7 +43967,7 @@
       <c r="AW830" s="2"/>
       <c r="AX830" s="2"/>
     </row>
-    <row r="831" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A831" s="2"/>
       <c r="B831" s="2"/>
       <c r="C831" s="2"/>
@@ -44020,7 +44019,7 @@
       <c r="AW831" s="2"/>
       <c r="AX831" s="2"/>
     </row>
-    <row r="832" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A832" s="2"/>
       <c r="B832" s="2"/>
       <c r="C832" s="2"/>
@@ -44072,7 +44071,7 @@
       <c r="AW832" s="2"/>
       <c r="AX832" s="2"/>
     </row>
-    <row r="833" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A833" s="2"/>
       <c r="B833" s="2"/>
       <c r="C833" s="2"/>
@@ -44124,7 +44123,7 @@
       <c r="AW833" s="2"/>
       <c r="AX833" s="2"/>
     </row>
-    <row r="834" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A834" s="2"/>
       <c r="B834" s="2"/>
       <c r="C834" s="2"/>
@@ -44176,7 +44175,7 @@
       <c r="AW834" s="2"/>
       <c r="AX834" s="2"/>
     </row>
-    <row r="835" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A835" s="2"/>
       <c r="B835" s="2"/>
       <c r="C835" s="2"/>
@@ -44228,7 +44227,7 @@
       <c r="AW835" s="2"/>
       <c r="AX835" s="2"/>
     </row>
-    <row r="836" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A836" s="2"/>
       <c r="B836" s="2"/>
       <c r="C836" s="2"/>
@@ -44280,7 +44279,7 @@
       <c r="AW836" s="2"/>
       <c r="AX836" s="2"/>
     </row>
-    <row r="837" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A837" s="2"/>
       <c r="B837" s="2"/>
       <c r="C837" s="2"/>
@@ -44332,7 +44331,7 @@
       <c r="AW837" s="2"/>
       <c r="AX837" s="2"/>
     </row>
-    <row r="838" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A838" s="2"/>
       <c r="B838" s="2"/>
       <c r="C838" s="2"/>
@@ -44384,7 +44383,7 @@
       <c r="AW838" s="2"/>
       <c r="AX838" s="2"/>
     </row>
-    <row r="839" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A839" s="2"/>
       <c r="B839" s="2"/>
       <c r="C839" s="2"/>
@@ -44436,7 +44435,7 @@
       <c r="AW839" s="2"/>
       <c r="AX839" s="2"/>
     </row>
-    <row r="840" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A840" s="2"/>
       <c r="B840" s="2"/>
       <c r="C840" s="2"/>
@@ -44488,7 +44487,7 @@
       <c r="AW840" s="2"/>
       <c r="AX840" s="2"/>
     </row>
-    <row r="841" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A841" s="2"/>
       <c r="B841" s="2"/>
       <c r="C841" s="2"/>
@@ -44540,7 +44539,7 @@
       <c r="AW841" s="2"/>
       <c r="AX841" s="2"/>
     </row>
-    <row r="842" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A842" s="2"/>
       <c r="B842" s="2"/>
       <c r="C842" s="2"/>
@@ -44592,7 +44591,7 @@
       <c r="AW842" s="2"/>
       <c r="AX842" s="2"/>
     </row>
-    <row r="843" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A843" s="2"/>
       <c r="B843" s="2"/>
       <c r="C843" s="2"/>
@@ -44644,7 +44643,7 @@
       <c r="AW843" s="2"/>
       <c r="AX843" s="2"/>
     </row>
-    <row r="844" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A844" s="2"/>
       <c r="B844" s="2"/>
       <c r="C844" s="2"/>
@@ -44696,7 +44695,7 @@
       <c r="AW844" s="2"/>
       <c r="AX844" s="2"/>
     </row>
-    <row r="845" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A845" s="2"/>
       <c r="B845" s="2"/>
       <c r="C845" s="2"/>
@@ -44748,7 +44747,7 @@
       <c r="AW845" s="2"/>
       <c r="AX845" s="2"/>
     </row>
-    <row r="846" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A846" s="2"/>
       <c r="B846" s="2"/>
       <c r="C846" s="2"/>
@@ -44800,7 +44799,7 @@
       <c r="AW846" s="2"/>
       <c r="AX846" s="2"/>
     </row>
-    <row r="847" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A847" s="2"/>
       <c r="B847" s="2"/>
       <c r="C847" s="2"/>
@@ -44852,7 +44851,7 @@
       <c r="AW847" s="2"/>
       <c r="AX847" s="2"/>
     </row>
-    <row r="848" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A848" s="2"/>
       <c r="B848" s="2"/>
       <c r="C848" s="2"/>
@@ -44904,7 +44903,7 @@
       <c r="AW848" s="2"/>
       <c r="AX848" s="2"/>
     </row>
-    <row r="849" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A849" s="2"/>
       <c r="B849" s="2"/>
       <c r="C849" s="2"/>
@@ -44956,7 +44955,7 @@
       <c r="AW849" s="2"/>
       <c r="AX849" s="2"/>
     </row>
-    <row r="850" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A850" s="2"/>
       <c r="B850" s="2"/>
       <c r="C850" s="2"/>
@@ -45008,7 +45007,7 @@
       <c r="AW850" s="2"/>
       <c r="AX850" s="2"/>
     </row>
-    <row r="851" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A851" s="2"/>
       <c r="B851" s="2"/>
       <c r="C851" s="2"/>
@@ -45060,7 +45059,7 @@
       <c r="AW851" s="2"/>
       <c r="AX851" s="2"/>
     </row>
-    <row r="852" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A852" s="2"/>
       <c r="B852" s="2"/>
       <c r="C852" s="2"/>
@@ -45112,7 +45111,7 @@
       <c r="AW852" s="2"/>
       <c r="AX852" s="2"/>
     </row>
-    <row r="853" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A853" s="2"/>
       <c r="B853" s="2"/>
       <c r="C853" s="2"/>
@@ -45164,7 +45163,7 @@
       <c r="AW853" s="2"/>
       <c r="AX853" s="2"/>
     </row>
-    <row r="854" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A854" s="2"/>
       <c r="B854" s="2"/>
       <c r="C854" s="2"/>
@@ -45216,7 +45215,7 @@
       <c r="AW854" s="2"/>
       <c r="AX854" s="2"/>
     </row>
-    <row r="855" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A855" s="2"/>
       <c r="B855" s="2"/>
       <c r="C855" s="2"/>
@@ -45268,7 +45267,7 @@
       <c r="AW855" s="2"/>
       <c r="AX855" s="2"/>
     </row>
-    <row r="856" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A856" s="2"/>
       <c r="B856" s="2"/>
       <c r="C856" s="2"/>
@@ -45320,7 +45319,7 @@
       <c r="AW856" s="2"/>
       <c r="AX856" s="2"/>
     </row>
-    <row r="857" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A857" s="2"/>
       <c r="B857" s="2"/>
       <c r="C857" s="2"/>
@@ -45372,7 +45371,7 @@
       <c r="AW857" s="2"/>
       <c r="AX857" s="2"/>
     </row>
-    <row r="858" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A858" s="2"/>
       <c r="B858" s="2"/>
       <c r="C858" s="2"/>
@@ -45424,7 +45423,7 @@
       <c r="AW858" s="2"/>
       <c r="AX858" s="2"/>
     </row>
-    <row r="859" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A859" s="2"/>
       <c r="B859" s="2"/>
       <c r="C859" s="2"/>
@@ -45476,7 +45475,7 @@
       <c r="AW859" s="2"/>
       <c r="AX859" s="2"/>
     </row>
-    <row r="860" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A860" s="2"/>
       <c r="B860" s="2"/>
       <c r="C860" s="2"/>
@@ -45528,7 +45527,7 @@
       <c r="AW860" s="2"/>
       <c r="AX860" s="2"/>
     </row>
-    <row r="861" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A861" s="2"/>
       <c r="B861" s="2"/>
       <c r="C861" s="2"/>
@@ -45580,7 +45579,7 @@
       <c r="AW861" s="2"/>
       <c r="AX861" s="2"/>
     </row>
-    <row r="862" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A862" s="2"/>
       <c r="B862" s="2"/>
       <c r="C862" s="2"/>
@@ -45632,7 +45631,7 @@
       <c r="AW862" s="2"/>
       <c r="AX862" s="2"/>
     </row>
-    <row r="863" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A863" s="2"/>
       <c r="B863" s="2"/>
       <c r="C863" s="2"/>
@@ -45684,7 +45683,7 @@
       <c r="AW863" s="2"/>
       <c r="AX863" s="2"/>
     </row>
-    <row r="864" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A864" s="2"/>
       <c r="B864" s="2"/>
       <c r="C864" s="2"/>
@@ -45736,7 +45735,7 @@
       <c r="AW864" s="2"/>
       <c r="AX864" s="2"/>
     </row>
-    <row r="865" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A865" s="2"/>
       <c r="B865" s="2"/>
       <c r="C865" s="2"/>
@@ -45788,7 +45787,7 @@
       <c r="AW865" s="2"/>
       <c r="AX865" s="2"/>
     </row>
-    <row r="866" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A866" s="2"/>
       <c r="B866" s="2"/>
       <c r="C866" s="2"/>
@@ -45840,7 +45839,7 @@
       <c r="AW866" s="2"/>
       <c r="AX866" s="2"/>
     </row>
-    <row r="867" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A867" s="2"/>
       <c r="B867" s="2"/>
       <c r="C867" s="2"/>
@@ -45892,7 +45891,7 @@
       <c r="AW867" s="2"/>
       <c r="AX867" s="2"/>
     </row>
-    <row r="868" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A868" s="2"/>
       <c r="B868" s="2"/>
       <c r="C868" s="2"/>
@@ -45944,7 +45943,7 @@
       <c r="AW868" s="2"/>
       <c r="AX868" s="2"/>
     </row>
-    <row r="869" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A869" s="2"/>
       <c r="B869" s="2"/>
       <c r="C869" s="2"/>
@@ -45996,7 +45995,7 @@
       <c r="AW869" s="2"/>
       <c r="AX869" s="2"/>
     </row>
-    <row r="870" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A870" s="2"/>
       <c r="B870" s="2"/>
       <c r="C870" s="2"/>
@@ -46048,7 +46047,7 @@
       <c r="AW870" s="2"/>
       <c r="AX870" s="2"/>
     </row>
-    <row r="871" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A871" s="2"/>
       <c r="B871" s="2"/>
       <c r="C871" s="2"/>
@@ -46100,7 +46099,7 @@
       <c r="AW871" s="2"/>
       <c r="AX871" s="2"/>
     </row>
-    <row r="872" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A872" s="2"/>
       <c r="B872" s="2"/>
       <c r="C872" s="2"/>
@@ -46152,7 +46151,7 @@
       <c r="AW872" s="2"/>
       <c r="AX872" s="2"/>
     </row>
-    <row r="873" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A873" s="2"/>
       <c r="B873" s="2"/>
       <c r="C873" s="2"/>
@@ -46204,7 +46203,7 @@
       <c r="AW873" s="2"/>
       <c r="AX873" s="2"/>
     </row>
-    <row r="874" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A874" s="2"/>
       <c r="B874" s="2"/>
       <c r="C874" s="2"/>
@@ -46256,7 +46255,7 @@
       <c r="AW874" s="2"/>
       <c r="AX874" s="2"/>
     </row>
-    <row r="875" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A875" s="2"/>
       <c r="B875" s="2"/>
       <c r="C875" s="2"/>
@@ -46308,7 +46307,7 @@
       <c r="AW875" s="2"/>
       <c r="AX875" s="2"/>
     </row>
-    <row r="876" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A876" s="2"/>
       <c r="B876" s="2"/>
       <c r="C876" s="2"/>
@@ -46360,7 +46359,7 @@
       <c r="AW876" s="2"/>
       <c r="AX876" s="2"/>
     </row>
-    <row r="877" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A877" s="2"/>
       <c r="B877" s="2"/>
       <c r="C877" s="2"/>
@@ -46412,7 +46411,7 @@
       <c r="AW877" s="2"/>
       <c r="AX877" s="2"/>
     </row>
-    <row r="878" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A878" s="2"/>
       <c r="B878" s="2"/>
       <c r="C878" s="2"/>
@@ -46464,7 +46463,7 @@
       <c r="AW878" s="2"/>
       <c r="AX878" s="2"/>
     </row>
-    <row r="879" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A879" s="2"/>
       <c r="B879" s="2"/>
       <c r="C879" s="2"/>
@@ -46516,7 +46515,7 @@
       <c r="AW879" s="2"/>
       <c r="AX879" s="2"/>
     </row>
-    <row r="880" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A880" s="2"/>
       <c r="B880" s="2"/>
       <c r="C880" s="2"/>
@@ -46568,7 +46567,7 @@
       <c r="AW880" s="2"/>
       <c r="AX880" s="2"/>
     </row>
-    <row r="881" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A881" s="2"/>
       <c r="B881" s="2"/>
       <c r="C881" s="2"/>
@@ -46620,7 +46619,7 @@
       <c r="AW881" s="2"/>
       <c r="AX881" s="2"/>
     </row>
-    <row r="882" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A882" s="2"/>
       <c r="B882" s="2"/>
       <c r="C882" s="2"/>
@@ -46672,7 +46671,7 @@
       <c r="AW882" s="2"/>
       <c r="AX882" s="2"/>
     </row>
-    <row r="883" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A883" s="2"/>
       <c r="B883" s="2"/>
       <c r="C883" s="2"/>
@@ -46724,7 +46723,7 @@
       <c r="AW883" s="2"/>
       <c r="AX883" s="2"/>
     </row>
-    <row r="884" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A884" s="2"/>
       <c r="B884" s="2"/>
       <c r="C884" s="2"/>
@@ -46776,7 +46775,7 @@
       <c r="AW884" s="2"/>
       <c r="AX884" s="2"/>
     </row>
-    <row r="885" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A885" s="2"/>
       <c r="B885" s="2"/>
       <c r="C885" s="2"/>
@@ -46828,7 +46827,7 @@
       <c r="AW885" s="2"/>
       <c r="AX885" s="2"/>
     </row>
-    <row r="886" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A886" s="2"/>
       <c r="B886" s="2"/>
       <c r="C886" s="2"/>
@@ -46880,7 +46879,7 @@
       <c r="AW886" s="2"/>
       <c r="AX886" s="2"/>
     </row>
-    <row r="887" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A887" s="2"/>
       <c r="B887" s="2"/>
       <c r="C887" s="2"/>
@@ -46932,7 +46931,7 @@
       <c r="AW887" s="2"/>
       <c r="AX887" s="2"/>
     </row>
-    <row r="888" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A888" s="2"/>
       <c r="B888" s="2"/>
       <c r="C888" s="2"/>
@@ -46984,7 +46983,7 @@
       <c r="AW888" s="2"/>
       <c r="AX888" s="2"/>
     </row>
-    <row r="889" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A889" s="2"/>
       <c r="B889" s="2"/>
       <c r="C889" s="2"/>
@@ -47036,7 +47035,7 @@
       <c r="AW889" s="2"/>
       <c r="AX889" s="2"/>
     </row>
-    <row r="890" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A890" s="2"/>
       <c r="B890" s="2"/>
       <c r="C890" s="2"/>
@@ -47088,7 +47087,7 @@
       <c r="AW890" s="2"/>
       <c r="AX890" s="2"/>
     </row>
-    <row r="891" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A891" s="2"/>
       <c r="B891" s="2"/>
       <c r="C891" s="2"/>
@@ -47140,7 +47139,7 @@
       <c r="AW891" s="2"/>
       <c r="AX891" s="2"/>
     </row>
-    <row r="892" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A892" s="2"/>
       <c r="B892" s="2"/>
       <c r="C892" s="2"/>
@@ -47192,7 +47191,7 @@
       <c r="AW892" s="2"/>
       <c r="AX892" s="2"/>
     </row>
-    <row r="893" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A893" s="2"/>
       <c r="B893" s="2"/>
       <c r="C893" s="2"/>
@@ -47244,7 +47243,7 @@
       <c r="AW893" s="2"/>
       <c r="AX893" s="2"/>
     </row>
-    <row r="894" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A894" s="2"/>
       <c r="B894" s="2"/>
       <c r="C894" s="2"/>
@@ -47296,7 +47295,7 @@
       <c r="AW894" s="2"/>
       <c r="AX894" s="2"/>
     </row>
-    <row r="895" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A895" s="2"/>
       <c r="B895" s="2"/>
       <c r="C895" s="2"/>
@@ -47348,7 +47347,7 @@
       <c r="AW895" s="2"/>
       <c r="AX895" s="2"/>
     </row>
-    <row r="896" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A896" s="2"/>
       <c r="B896" s="2"/>
       <c r="C896" s="2"/>
@@ -47400,7 +47399,7 @@
       <c r="AW896" s="2"/>
       <c r="AX896" s="2"/>
     </row>
-    <row r="897" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A897" s="2"/>
       <c r="B897" s="2"/>
       <c r="C897" s="2"/>
@@ -47452,7 +47451,7 @@
       <c r="AW897" s="2"/>
       <c r="AX897" s="2"/>
     </row>
-    <row r="898" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A898" s="2"/>
       <c r="B898" s="2"/>
       <c r="C898" s="2"/>
@@ -47504,7 +47503,7 @@
       <c r="AW898" s="2"/>
       <c r="AX898" s="2"/>
     </row>
-    <row r="899" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A899" s="2"/>
       <c r="B899" s="2"/>
       <c r="C899" s="2"/>
@@ -47556,7 +47555,7 @@
       <c r="AW899" s="2"/>
       <c r="AX899" s="2"/>
     </row>
-    <row r="900" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A900" s="2"/>
       <c r="B900" s="2"/>
       <c r="C900" s="2"/>
@@ -47608,7 +47607,7 @@
       <c r="AW900" s="2"/>
       <c r="AX900" s="2"/>
     </row>
-    <row r="901" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A901" s="2"/>
       <c r="B901" s="2"/>
       <c r="C901" s="2"/>
@@ -47660,7 +47659,7 @@
       <c r="AW901" s="2"/>
       <c r="AX901" s="2"/>
     </row>
-    <row r="902" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A902" s="2"/>
       <c r="B902" s="2"/>
       <c r="C902" s="2"/>
@@ -47712,7 +47711,7 @@
       <c r="AW902" s="2"/>
       <c r="AX902" s="2"/>
     </row>
-    <row r="903" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A903" s="2"/>
       <c r="B903" s="2"/>
       <c r="C903" s="2"/>
@@ -47764,7 +47763,7 @@
       <c r="AW903" s="2"/>
       <c r="AX903" s="2"/>
     </row>
-    <row r="904" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A904" s="2"/>
       <c r="B904" s="2"/>
       <c r="C904" s="2"/>
@@ -47816,7 +47815,7 @@
       <c r="AW904" s="2"/>
       <c r="AX904" s="2"/>
     </row>
-    <row r="905" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A905" s="2"/>
       <c r="B905" s="2"/>
       <c r="C905" s="2"/>
@@ -47868,7 +47867,7 @@
       <c r="AW905" s="2"/>
       <c r="AX905" s="2"/>
     </row>
-    <row r="906" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A906" s="2"/>
       <c r="B906" s="2"/>
       <c r="C906" s="2"/>
@@ -47920,7 +47919,7 @@
       <c r="AW906" s="2"/>
       <c r="AX906" s="2"/>
     </row>
-    <row r="907" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A907" s="2"/>
       <c r="B907" s="2"/>
       <c r="C907" s="2"/>
@@ -47972,7 +47971,7 @@
       <c r="AW907" s="2"/>
       <c r="AX907" s="2"/>
     </row>
-    <row r="908" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A908" s="2"/>
       <c r="B908" s="2"/>
       <c r="C908" s="2"/>
@@ -48024,7 +48023,7 @@
       <c r="AW908" s="2"/>
       <c r="AX908" s="2"/>
     </row>
-    <row r="909" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A909" s="2"/>
       <c r="B909" s="2"/>
       <c r="C909" s="2"/>
@@ -48076,7 +48075,7 @@
       <c r="AW909" s="2"/>
       <c r="AX909" s="2"/>
     </row>
-    <row r="910" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A910" s="2"/>
       <c r="B910" s="2"/>
       <c r="C910" s="2"/>
@@ -48128,7 +48127,7 @@
       <c r="AW910" s="2"/>
       <c r="AX910" s="2"/>
     </row>
-    <row r="911" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A911" s="2"/>
       <c r="B911" s="2"/>
       <c r="C911" s="2"/>
@@ -48180,7 +48179,7 @@
       <c r="AW911" s="2"/>
       <c r="AX911" s="2"/>
     </row>
-    <row r="912" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A912" s="2"/>
       <c r="B912" s="2"/>
       <c r="C912" s="2"/>
@@ -48232,7 +48231,7 @@
       <c r="AW912" s="2"/>
       <c r="AX912" s="2"/>
     </row>
-    <row r="913" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A913" s="2"/>
       <c r="B913" s="2"/>
       <c r="C913" s="2"/>
@@ -48284,7 +48283,7 @@
       <c r="AW913" s="2"/>
       <c r="AX913" s="2"/>
     </row>
-    <row r="914" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A914" s="2"/>
       <c r="B914" s="2"/>
       <c r="C914" s="2"/>
@@ -48336,7 +48335,7 @@
       <c r="AW914" s="2"/>
       <c r="AX914" s="2"/>
     </row>
-    <row r="915" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A915" s="2"/>
       <c r="B915" s="2"/>
       <c r="C915" s="2"/>
@@ -48388,7 +48387,7 @@
       <c r="AW915" s="2"/>
       <c r="AX915" s="2"/>
     </row>
-    <row r="916" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A916" s="2"/>
       <c r="B916" s="2"/>
       <c r="C916" s="2"/>
@@ -48440,7 +48439,7 @@
       <c r="AW916" s="2"/>
       <c r="AX916" s="2"/>
     </row>
-    <row r="917" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A917" s="2"/>
       <c r="B917" s="2"/>
       <c r="C917" s="2"/>
@@ -48492,7 +48491,7 @@
       <c r="AW917" s="2"/>
       <c r="AX917" s="2"/>
     </row>
-    <row r="918" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A918" s="2"/>
       <c r="B918" s="2"/>
       <c r="C918" s="2"/>
@@ -48544,7 +48543,7 @@
       <c r="AW918" s="2"/>
       <c r="AX918" s="2"/>
     </row>
-    <row r="919" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A919" s="2"/>
       <c r="B919" s="2"/>
       <c r="C919" s="2"/>
@@ -48596,7 +48595,7 @@
       <c r="AW919" s="2"/>
       <c r="AX919" s="2"/>
     </row>
-    <row r="920" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A920" s="2"/>
       <c r="B920" s="2"/>
       <c r="C920" s="2"/>
@@ -48648,7 +48647,7 @@
       <c r="AW920" s="2"/>
       <c r="AX920" s="2"/>
     </row>
-    <row r="921" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A921" s="2"/>
       <c r="B921" s="2"/>
       <c r="C921" s="2"/>
@@ -48700,7 +48699,7 @@
       <c r="AW921" s="2"/>
       <c r="AX921" s="2"/>
     </row>
-    <row r="922" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A922" s="2"/>
       <c r="B922" s="2"/>
       <c r="C922" s="2"/>
@@ -48752,7 +48751,7 @@
       <c r="AW922" s="2"/>
       <c r="AX922" s="2"/>
     </row>
-    <row r="923" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A923" s="2"/>
       <c r="B923" s="2"/>
       <c r="C923" s="2"/>
@@ -48804,7 +48803,7 @@
       <c r="AW923" s="2"/>
       <c r="AX923" s="2"/>
     </row>
-    <row r="924" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A924" s="2"/>
       <c r="B924" s="2"/>
       <c r="C924" s="2"/>
@@ -48856,7 +48855,7 @@
       <c r="AW924" s="2"/>
       <c r="AX924" s="2"/>
     </row>
-    <row r="925" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A925" s="2"/>
       <c r="B925" s="2"/>
       <c r="C925" s="2"/>
@@ -48908,7 +48907,7 @@
       <c r="AW925" s="2"/>
       <c r="AX925" s="2"/>
     </row>
-    <row r="926" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A926" s="2"/>
       <c r="B926" s="2"/>
       <c r="C926" s="2"/>
@@ -48960,7 +48959,7 @@
       <c r="AW926" s="2"/>
       <c r="AX926" s="2"/>
     </row>
-    <row r="927" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A927" s="2"/>
       <c r="B927" s="2"/>
       <c r="C927" s="2"/>
@@ -49012,7 +49011,7 @@
       <c r="AW927" s="2"/>
       <c r="AX927" s="2"/>
     </row>
-    <row r="928" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A928" s="2"/>
       <c r="B928" s="2"/>
       <c r="C928" s="2"/>
@@ -49064,7 +49063,7 @@
       <c r="AW928" s="2"/>
       <c r="AX928" s="2"/>
     </row>
-    <row r="929" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A929" s="2"/>
       <c r="B929" s="2"/>
       <c r="C929" s="2"/>
@@ -49116,7 +49115,7 @@
       <c r="AW929" s="2"/>
       <c r="AX929" s="2"/>
     </row>
-    <row r="930" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A930" s="2"/>
       <c r="B930" s="2"/>
       <c r="C930" s="2"/>
@@ -49168,7 +49167,7 @@
       <c r="AW930" s="2"/>
       <c r="AX930" s="2"/>
     </row>
-    <row r="931" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A931" s="2"/>
       <c r="B931" s="2"/>
       <c r="C931" s="2"/>
@@ -49220,7 +49219,7 @@
       <c r="AW931" s="2"/>
       <c r="AX931" s="2"/>
     </row>
-    <row r="932" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A932" s="2"/>
       <c r="B932" s="2"/>
       <c r="C932" s="2"/>
@@ -49272,7 +49271,7 @@
       <c r="AW932" s="2"/>
       <c r="AX932" s="2"/>
     </row>
-    <row r="933" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A933" s="2"/>
       <c r="B933" s="2"/>
       <c r="C933" s="2"/>
@@ -49324,7 +49323,7 @@
       <c r="AW933" s="2"/>
       <c r="AX933" s="2"/>
     </row>
-    <row r="934" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A934" s="2"/>
       <c r="B934" s="2"/>
       <c r="C934" s="2"/>
@@ -49376,7 +49375,7 @@
       <c r="AW934" s="2"/>
       <c r="AX934" s="2"/>
     </row>
-    <row r="935" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A935" s="2"/>
       <c r="B935" s="2"/>
       <c r="C935" s="2"/>
@@ -49428,7 +49427,7 @@
       <c r="AW935" s="2"/>
       <c r="AX935" s="2"/>
     </row>
-    <row r="936" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A936" s="2"/>
       <c r="B936" s="2"/>
       <c r="C936" s="2"/>
@@ -49480,7 +49479,7 @@
       <c r="AW936" s="2"/>
       <c r="AX936" s="2"/>
     </row>
-    <row r="937" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A937" s="2"/>
       <c r="B937" s="2"/>
       <c r="C937" s="2"/>
@@ -49532,7 +49531,7 @@
       <c r="AW937" s="2"/>
       <c r="AX937" s="2"/>
     </row>
-    <row r="938" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A938" s="2"/>
       <c r="B938" s="2"/>
       <c r="C938" s="2"/>
@@ -49584,7 +49583,7 @@
       <c r="AW938" s="2"/>
       <c r="AX938" s="2"/>
     </row>
-    <row r="939" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A939" s="2"/>
       <c r="B939" s="2"/>
       <c r="C939" s="2"/>
@@ -49636,7 +49635,7 @@
       <c r="AW939" s="2"/>
       <c r="AX939" s="2"/>
     </row>
-    <row r="940" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A940" s="2"/>
       <c r="B940" s="2"/>
       <c r="C940" s="2"/>
@@ -49688,7 +49687,7 @@
       <c r="AW940" s="2"/>
       <c r="AX940" s="2"/>
     </row>
-    <row r="941" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A941" s="2"/>
       <c r="B941" s="2"/>
       <c r="C941" s="2"/>
@@ -49740,7 +49739,7 @@
       <c r="AW941" s="2"/>
       <c r="AX941" s="2"/>
     </row>
-    <row r="942" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A942" s="2"/>
       <c r="B942" s="2"/>
       <c r="C942" s="2"/>
@@ -49792,7 +49791,7 @@
       <c r="AW942" s="2"/>
       <c r="AX942" s="2"/>
     </row>
-    <row r="943" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A943" s="2"/>
       <c r="B943" s="2"/>
       <c r="C943" s="2"/>
@@ -49844,7 +49843,7 @@
       <c r="AW943" s="2"/>
       <c r="AX943" s="2"/>
     </row>
-    <row r="944" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A944" s="2"/>
       <c r="B944" s="2"/>
       <c r="C944" s="2"/>
@@ -49896,7 +49895,7 @@
       <c r="AW944" s="2"/>
       <c r="AX944" s="2"/>
     </row>
-    <row r="945" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A945" s="2"/>
       <c r="B945" s="2"/>
       <c r="C945" s="2"/>
@@ -49948,7 +49947,7 @@
       <c r="AW945" s="2"/>
       <c r="AX945" s="2"/>
     </row>
-    <row r="946" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A946" s="2"/>
       <c r="B946" s="2"/>
       <c r="C946" s="2"/>
@@ -50000,7 +49999,7 @@
       <c r="AW946" s="2"/>
       <c r="AX946" s="2"/>
     </row>
-    <row r="947" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A947" s="2"/>
       <c r="B947" s="2"/>
       <c r="C947" s="2"/>
@@ -50052,7 +50051,7 @@
       <c r="AW947" s="2"/>
       <c r="AX947" s="2"/>
     </row>
-    <row r="948" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A948" s="2"/>
       <c r="B948" s="2"/>
       <c r="C948" s="2"/>
@@ -50104,7 +50103,7 @@
       <c r="AW948" s="2"/>
       <c r="AX948" s="2"/>
     </row>
-    <row r="949" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A949" s="2"/>
       <c r="B949" s="2"/>
       <c r="C949" s="2"/>
@@ -50156,7 +50155,7 @@
       <c r="AW949" s="2"/>
       <c r="AX949" s="2"/>
     </row>
-    <row r="950" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A950" s="2"/>
       <c r="B950" s="2"/>
       <c r="C950" s="2"/>
@@ -50208,7 +50207,7 @@
       <c r="AW950" s="2"/>
       <c r="AX950" s="2"/>
     </row>
-    <row r="951" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A951" s="2"/>
       <c r="B951" s="2"/>
       <c r="C951" s="2"/>
@@ -50260,7 +50259,7 @@
       <c r="AW951" s="2"/>
       <c r="AX951" s="2"/>
     </row>
-    <row r="952" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A952" s="2"/>
       <c r="B952" s="2"/>
       <c r="C952" s="2"/>
@@ -50312,7 +50311,7 @@
       <c r="AW952" s="2"/>
       <c r="AX952" s="2"/>
     </row>
-    <row r="953" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A953" s="2"/>
       <c r="B953" s="2"/>
       <c r="C953" s="2"/>
@@ -50364,7 +50363,7 @@
       <c r="AW953" s="2"/>
       <c r="AX953" s="2"/>
     </row>
-    <row r="954" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A954" s="2"/>
       <c r="B954" s="2"/>
       <c r="C954" s="2"/>
@@ -50416,7 +50415,7 @@
       <c r="AW954" s="2"/>
       <c r="AX954" s="2"/>
     </row>
-    <row r="955" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A955" s="2"/>
       <c r="B955" s="2"/>
       <c r="C955" s="2"/>
@@ -50468,7 +50467,7 @@
       <c r="AW955" s="2"/>
       <c r="AX955" s="2"/>
     </row>
-    <row r="956" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A956" s="2"/>
       <c r="B956" s="2"/>
       <c r="C956" s="2"/>
@@ -50520,7 +50519,7 @@
       <c r="AW956" s="2"/>
       <c r="AX956" s="2"/>
     </row>
-    <row r="957" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A957" s="2"/>
       <c r="B957" s="2"/>
       <c r="C957" s="2"/>
@@ -50572,7 +50571,7 @@
       <c r="AW957" s="2"/>
       <c r="AX957" s="2"/>
     </row>
-    <row r="958" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A958" s="2"/>
       <c r="B958" s="2"/>
       <c r="C958" s="2"/>
@@ -50624,7 +50623,7 @@
       <c r="AW958" s="2"/>
       <c r="AX958" s="2"/>
     </row>
-    <row r="959" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A959" s="2"/>
       <c r="B959" s="2"/>
       <c r="C959" s="2"/>
@@ -50676,7 +50675,7 @@
       <c r="AW959" s="2"/>
       <c r="AX959" s="2"/>
     </row>
-    <row r="960" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A960" s="2"/>
       <c r="B960" s="2"/>
       <c r="C960" s="2"/>
@@ -50728,7 +50727,7 @@
       <c r="AW960" s="2"/>
       <c r="AX960" s="2"/>
     </row>
-    <row r="961" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A961" s="2"/>
       <c r="B961" s="2"/>
       <c r="C961" s="2"/>
@@ -50780,7 +50779,7 @@
       <c r="AW961" s="2"/>
       <c r="AX961" s="2"/>
     </row>
-    <row r="962" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A962" s="2"/>
       <c r="B962" s="2"/>
       <c r="C962" s="2"/>
@@ -50832,7 +50831,7 @@
       <c r="AW962" s="2"/>
       <c r="AX962" s="2"/>
     </row>
-    <row r="963" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A963" s="2"/>
       <c r="B963" s="2"/>
       <c r="C963" s="2"/>
@@ -50884,7 +50883,7 @@
       <c r="AW963" s="2"/>
       <c r="AX963" s="2"/>
     </row>
-    <row r="964" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A964" s="2"/>
       <c r="B964" s="2"/>
       <c r="C964" s="2"/>
@@ -50936,7 +50935,7 @@
       <c r="AW964" s="2"/>
       <c r="AX964" s="2"/>
     </row>
-    <row r="965" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A965" s="2"/>
       <c r="B965" s="2"/>
       <c r="C965" s="2"/>
@@ -50988,7 +50987,7 @@
       <c r="AW965" s="2"/>
       <c r="AX965" s="2"/>
     </row>
-    <row r="966" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A966" s="2"/>
       <c r="B966" s="2"/>
       <c r="C966" s="2"/>
@@ -51040,7 +51039,7 @@
       <c r="AW966" s="2"/>
       <c r="AX966" s="2"/>
     </row>
-    <row r="967" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A967" s="2"/>
       <c r="B967" s="2"/>
       <c r="C967" s="2"/>
@@ -51092,7 +51091,7 @@
       <c r="AW967" s="2"/>
       <c r="AX967" s="2"/>
     </row>
-    <row r="968" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A968" s="2"/>
       <c r="B968" s="2"/>
       <c r="C968" s="2"/>
@@ -51144,7 +51143,7 @@
       <c r="AW968" s="2"/>
       <c r="AX968" s="2"/>
     </row>
-    <row r="969" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A969" s="2"/>
       <c r="B969" s="2"/>
       <c r="C969" s="2"/>
@@ -51196,7 +51195,7 @@
       <c r="AW969" s="2"/>
       <c r="AX969" s="2"/>
     </row>
-    <row r="970" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A970" s="2"/>
       <c r="B970" s="2"/>
       <c r="C970" s="2"/>
@@ -51248,7 +51247,7 @@
       <c r="AW970" s="2"/>
       <c r="AX970" s="2"/>
     </row>
-    <row r="971" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A971" s="2"/>
       <c r="B971" s="2"/>
       <c r="C971" s="2"/>
@@ -51300,7 +51299,7 @@
       <c r="AW971" s="2"/>
       <c r="AX971" s="2"/>
     </row>
-    <row r="972" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A972" s="2"/>
       <c r="B972" s="2"/>
       <c r="C972" s="2"/>
@@ -51352,7 +51351,7 @@
       <c r="AW972" s="2"/>
       <c r="AX972" s="2"/>
     </row>
-    <row r="973" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A973" s="2"/>
       <c r="B973" s="2"/>
       <c r="C973" s="2"/>
@@ -51404,7 +51403,7 @@
       <c r="AW973" s="2"/>
       <c r="AX973" s="2"/>
     </row>
-    <row r="974" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A974" s="2"/>
       <c r="B974" s="2"/>
       <c r="C974" s="2"/>
@@ -51456,7 +51455,7 @@
       <c r="AW974" s="2"/>
       <c r="AX974" s="2"/>
     </row>
-    <row r="975" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A975" s="2"/>
       <c r="B975" s="2"/>
       <c r="C975" s="2"/>
@@ -51508,7 +51507,7 @@
       <c r="AW975" s="2"/>
       <c r="AX975" s="2"/>
     </row>
-    <row r="976" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A976" s="2"/>
       <c r="B976" s="2"/>
       <c r="C976" s="2"/>
@@ -51560,7 +51559,7 @@
       <c r="AW976" s="2"/>
       <c r="AX976" s="2"/>
     </row>
-    <row r="977" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A977" s="2"/>
       <c r="B977" s="2"/>
       <c r="C977" s="2"/>
@@ -51612,7 +51611,7 @@
       <c r="AW977" s="2"/>
       <c r="AX977" s="2"/>
     </row>
-    <row r="978" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="978" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A978" s="2"/>
       <c r="B978" s="2"/>
       <c r="C978" s="2"/>
@@ -51664,7 +51663,7 @@
       <c r="AW978" s="2"/>
       <c r="AX978" s="2"/>
     </row>
-    <row r="979" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A979" s="2"/>
       <c r="B979" s="2"/>
       <c r="C979" s="2"/>
@@ -51716,7 +51715,7 @@
       <c r="AW979" s="2"/>
       <c r="AX979" s="2"/>
     </row>
-    <row r="980" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="980" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A980" s="2"/>
       <c r="B980" s="2"/>
       <c r="C980" s="2"/>
@@ -51768,7 +51767,7 @@
       <c r="AW980" s="2"/>
       <c r="AX980" s="2"/>
     </row>
-    <row r="981" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="981" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A981" s="2"/>
       <c r="B981" s="2"/>
       <c r="C981" s="2"/>
@@ -51820,7 +51819,7 @@
       <c r="AW981" s="2"/>
       <c r="AX981" s="2"/>
     </row>
-    <row r="982" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="982" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A982" s="2"/>
       <c r="B982" s="2"/>
       <c r="C982" s="2"/>
@@ -51872,7 +51871,7 @@
       <c r="AW982" s="2"/>
       <c r="AX982" s="2"/>
     </row>
-    <row r="983" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="983" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A983" s="2"/>
       <c r="B983" s="2"/>
       <c r="C983" s="2"/>
@@ -51924,7 +51923,7 @@
       <c r="AW983" s="2"/>
       <c r="AX983" s="2"/>
     </row>
-    <row r="984" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="984" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A984" s="2"/>
       <c r="B984" s="2"/>
       <c r="C984" s="2"/>
@@ -51976,7 +51975,7 @@
       <c r="AW984" s="2"/>
       <c r="AX984" s="2"/>
     </row>
-    <row r="985" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="985" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A985" s="2"/>
       <c r="B985" s="2"/>
       <c r="C985" s="2"/>
@@ -52028,7 +52027,7 @@
       <c r="AW985" s="2"/>
       <c r="AX985" s="2"/>
     </row>
-    <row r="986" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="986" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A986" s="2"/>
       <c r="B986" s="2"/>
       <c r="C986" s="2"/>
@@ -52080,7 +52079,7 @@
       <c r="AW986" s="2"/>
       <c r="AX986" s="2"/>
     </row>
-    <row r="987" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="987" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A987" s="2"/>
       <c r="B987" s="2"/>
       <c r="C987" s="2"/>
@@ -52132,7 +52131,7 @@
       <c r="AW987" s="2"/>
       <c r="AX987" s="2"/>
     </row>
-    <row r="988" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="988" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A988" s="2"/>
       <c r="B988" s="2"/>
       <c r="C988" s="2"/>
@@ -52184,7 +52183,7 @@
       <c r="AW988" s="2"/>
       <c r="AX988" s="2"/>
     </row>
-    <row r="989" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="989" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A989" s="2"/>
       <c r="B989" s="2"/>
       <c r="C989" s="2"/>
@@ -52236,7 +52235,7 @@
       <c r="AW989" s="2"/>
       <c r="AX989" s="2"/>
     </row>
-    <row r="990" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="990" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A990" s="2"/>
       <c r="B990" s="2"/>
       <c r="C990" s="2"/>
@@ -52288,7 +52287,7 @@
       <c r="AW990" s="2"/>
       <c r="AX990" s="2"/>
     </row>
-    <row r="991" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="991" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A991" s="2"/>
       <c r="B991" s="2"/>
       <c r="C991" s="2"/>
@@ -52340,7 +52339,7 @@
       <c r="AW991" s="2"/>
       <c r="AX991" s="2"/>
     </row>
-    <row r="992" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="992" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A992" s="2"/>
       <c r="B992" s="2"/>
       <c r="C992" s="2"/>
@@ -52392,7 +52391,7 @@
       <c r="AW992" s="2"/>
       <c r="AX992" s="2"/>
     </row>
-    <row r="993" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="993" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A993" s="2"/>
       <c r="B993" s="2"/>
       <c r="C993" s="2"/>
@@ -52444,7 +52443,7 @@
       <c r="AW993" s="2"/>
       <c r="AX993" s="2"/>
     </row>
-    <row r="994" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="994" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A994" s="2"/>
       <c r="B994" s="2"/>
       <c r="C994" s="2"/>
@@ -52496,7 +52495,7 @@
       <c r="AW994" s="2"/>
       <c r="AX994" s="2"/>
     </row>
-    <row r="995" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="995" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A995" s="2"/>
       <c r="B995" s="2"/>
       <c r="C995" s="2"/>
@@ -52548,7 +52547,7 @@
       <c r="AW995" s="2"/>
       <c r="AX995" s="2"/>
     </row>
-    <row r="996" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="996" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A996" s="2"/>
       <c r="B996" s="2"/>
       <c r="C996" s="2"/>

--- a/Data Files/Input Validation/03. instAmount/Auto_InstAmount_C10.xlsx
+++ b/Data Files/Input Validation/03. instAmount/Auto_InstAmount_C10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F8B269-9A74-4007-8AA6-5678952766DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34581E7-07E8-48F0-8F03-67158A9AA9E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2835" yWindow="2010" windowWidth="11925" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6555" yWindow="2760" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -237,7 +237,7 @@
     <t/>
   </si>
   <si>
-    <t>2023-11-16</t>
+    <t>2024-01-02</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Input Validation/03. instAmount/Auto_InstAmount_C10.xlsx
+++ b/Data Files/Input Validation/03. instAmount/Auto_InstAmount_C10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34581E7-07E8-48F0-8F03-67158A9AA9E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850D150D-9FAE-4D28-A884-13F7D319DAF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6555" yWindow="2760" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -237,7 +237,7 @@
     <t/>
   </si>
   <si>
-    <t>2024-01-02</t>
+    <t>2024-01-16</t>
   </si>
 </sst>
 </file>
@@ -305,9 +305,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -345,7 +345,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -451,7 +451,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -593,7 +593,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/Data Files/Input Validation/03. instAmount/Auto_InstAmount_C10.xlsx
+++ b/Data Files/Input Validation/03. instAmount/Auto_InstAmount_C10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43ED3D29-BF04-41B2-8F16-530324C71C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8E9276-8FE9-4208-80DE-E80C6DF74F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="12915" windowHeight="12615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -237,7 +237,7 @@
     <t/>
   </si>
   <si>
-    <t>2024-02-16</t>
+    <t>2024-04-16</t>
   </si>
 </sst>
 </file>
@@ -305,9 +305,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -345,7 +345,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -451,7 +451,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -593,7 +593,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/Data Files/Input Validation/03. instAmount/Auto_InstAmount_C10.xlsx
+++ b/Data Files/Input Validation/03. instAmount/Auto_InstAmount_C10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8E9276-8FE9-4208-80DE-E80C6DF74F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720674D9-E653-48E8-B904-5DB61AC585AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="12915" windowHeight="12615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -237,7 +237,7 @@
     <t/>
   </si>
   <si>
-    <t>2024-04-16</t>
+    <t>2024-07-01</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Input Validation/03. instAmount/Auto_InstAmount_C10.xlsx
+++ b/Data Files/Input Validation/03. instAmount/Auto_InstAmount_C10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720674D9-E653-48E8-B904-5DB61AC585AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B61B46-C6B8-4196-BFEC-A0102D8AE2F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="7305" windowHeight="13260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -237,7 +237,7 @@
     <t/>
   </si>
   <si>
-    <t>2024-07-01</t>
+    <t>2024-08-16</t>
   </si>
 </sst>
 </file>
